--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9815151150757403</v>
+        <v>0.98151511507574</v>
       </c>
       <c r="D2">
         <v>1.00302497253536</v>
       </c>
       <c r="E2">
-        <v>0.9718195177309283</v>
+        <v>0.9718195177309282</v>
       </c>
       <c r="F2">
-        <v>0.9846141749019863</v>
+        <v>0.9846141749019859</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.014442324943996</v>
       </c>
       <c r="L2">
-        <v>0.9836859315553611</v>
+        <v>0.983685931555361</v>
       </c>
       <c r="M2">
-        <v>0.9962921035098393</v>
+        <v>0.9962921035098389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9886411429927577</v>
+        <v>0.9886411429927578</v>
       </c>
       <c r="D3">
         <v>1.008325162073532</v>
       </c>
       <c r="E3">
-        <v>0.9774693250892149</v>
+        <v>0.9774693250892146</v>
       </c>
       <c r="F3">
         <v>0.9916824037847521</v>
@@ -483,7 +483,7 @@
         <v>1.018852617678028</v>
       </c>
       <c r="L3">
-        <v>0.9883988449204115</v>
+        <v>0.9883988449204113</v>
       </c>
       <c r="M3">
         <v>1.002422827818547</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.993109844470493</v>
+        <v>0.9931098444704947</v>
       </c>
       <c r="D4">
-        <v>1.011650340349851</v>
+        <v>1.011650340349852</v>
       </c>
       <c r="E4">
-        <v>0.9810333380205598</v>
+        <v>0.9810333380205604</v>
       </c>
       <c r="F4">
-        <v>0.9961270335572446</v>
+        <v>0.9961270335572461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041592240600855</v>
+        <v>1.041592240600856</v>
       </c>
       <c r="J4">
-        <v>1.012691458538091</v>
+        <v>1.012691458538092</v>
       </c>
       <c r="K4">
-        <v>1.021610160492512</v>
+        <v>1.021610160492513</v>
       </c>
       <c r="L4">
-        <v>0.9913661955041171</v>
+        <v>0.9913661955041175</v>
       </c>
       <c r="M4">
-        <v>1.006272427723832</v>
+        <v>1.006272427723834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9949562753762038</v>
+        <v>0.9949562753762043</v>
       </c>
       <c r="D5">
         <v>1.013024499588578</v>
       </c>
       <c r="E5">
-        <v>0.9825108407864225</v>
+        <v>0.9825108407864221</v>
       </c>
       <c r="F5">
-        <v>0.9979663600641057</v>
+        <v>0.9979663600641061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042147600901994</v>
+        <v>1.042147600901995</v>
       </c>
       <c r="J5">
         <v>1.014030993874862</v>
       </c>
       <c r="K5">
-        <v>1.022747507797431</v>
+        <v>1.022747507797432</v>
       </c>
       <c r="L5">
-        <v>0.9925950001780049</v>
+        <v>0.9925950001780046</v>
       </c>
       <c r="M5">
         <v>1.007864173339079</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995264461536842</v>
+        <v>0.995264461536843</v>
       </c>
       <c r="D6">
         <v>1.013253868895307</v>
       </c>
       <c r="E6">
-        <v>0.9827577320329248</v>
+        <v>0.9827577320329254</v>
       </c>
       <c r="F6">
-        <v>0.9982735254285469</v>
+        <v>0.9982735254285477</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>1.014254494472164</v>
       </c>
       <c r="K6">
-        <v>1.022937218360166</v>
+        <v>1.022937218360167</v>
       </c>
       <c r="L6">
-        <v>0.9928002551097205</v>
+        <v>0.9928002551097209</v>
       </c>
       <c r="M6">
         <v>1.008129913765256</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9931346407957139</v>
+        <v>0.9931346407957148</v>
       </c>
       <c r="D7">
         <v>1.011668793662581</v>
       </c>
       <c r="E7">
-        <v>0.9810531607713505</v>
+        <v>0.9810531607713506</v>
       </c>
       <c r="F7">
-        <v>0.9961517233229912</v>
+        <v>0.9961517233229918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041599715166674</v>
+        <v>1.041599715166675</v>
       </c>
       <c r="J7">
         <v>1.012709452942755</v>
       </c>
       <c r="K7">
-        <v>1.021625442528195</v>
+        <v>1.021625442528196</v>
       </c>
       <c r="L7">
-        <v>0.9913826869284079</v>
+        <v>0.9913826869284081</v>
       </c>
       <c r="M7">
-        <v>1.006293799465522</v>
+        <v>1.006293799465523</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839540274665103</v>
+        <v>0.9839540274665088</v>
       </c>
       <c r="D8">
-        <v>1.004838597365393</v>
+        <v>1.004838597365392</v>
       </c>
       <c r="E8">
-        <v>0.9737486343076149</v>
+        <v>0.9737486343076144</v>
       </c>
       <c r="F8">
-        <v>0.9870306824462327</v>
+        <v>0.9870306824462316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0388037702802</v>
+        <v>1.038803770280199</v>
       </c>
       <c r="J8">
-        <v>1.006038154124775</v>
+        <v>1.006038154124774</v>
       </c>
       <c r="K8">
-        <v>1.015953423263026</v>
+        <v>1.015953423263025</v>
       </c>
       <c r="L8">
-        <v>0.9852963433109394</v>
+        <v>0.9852963433109392</v>
       </c>
       <c r="M8">
-        <v>0.9983892453003541</v>
+        <v>0.9983892453003529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665938801278371</v>
+        <v>0.9665938801278372</v>
       </c>
       <c r="D9">
-        <v>0.9919413008638843</v>
+        <v>0.9919413008638847</v>
       </c>
       <c r="E9">
-        <v>0.9601164163374278</v>
+        <v>0.9601164163374282</v>
       </c>
       <c r="F9">
-        <v>0.9698865953982303</v>
+        <v>0.9698865953982304</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033383793855645</v>
       </c>
       <c r="J9">
-        <v>0.9933840679308743</v>
+        <v>0.9933840679308744</v>
       </c>
       <c r="K9">
         <v>1.005166492131504</v>
       </c>
       <c r="L9">
-        <v>0.9738915128357426</v>
+        <v>0.9738915128357429</v>
       </c>
       <c r="M9">
-        <v>0.98348789732426</v>
+        <v>0.9834878973242601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9540787156956602</v>
+        <v>0.9540787156956606</v>
       </c>
       <c r="D10">
-        <v>0.9826661878752778</v>
+        <v>0.9826661878752785</v>
       </c>
       <c r="E10">
-        <v>0.9504265847054942</v>
+        <v>0.9504265847054943</v>
       </c>
       <c r="F10">
-        <v>0.9576048627072046</v>
+        <v>0.9576048627072051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029392005647145</v>
+        <v>1.029392005647146</v>
       </c>
       <c r="J10">
-        <v>0.9842406723500692</v>
+        <v>0.9842406723500695</v>
       </c>
       <c r="K10">
-        <v>0.9973556249096287</v>
+        <v>0.9973556249096291</v>
       </c>
       <c r="L10">
-        <v>0.965752555507191</v>
+        <v>0.9657525555071914</v>
       </c>
       <c r="M10">
-        <v>0.972784221243269</v>
+        <v>0.9727842212432694</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,16 +760,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483975276269669</v>
+        <v>0.9483975276269671</v>
       </c>
       <c r="D11">
-        <v>0.9784638250157397</v>
+        <v>0.9784638250157398</v>
       </c>
       <c r="E11">
-        <v>0.9460646093951436</v>
+        <v>0.9460646093951431</v>
       </c>
       <c r="F11">
         <v>0.9520499976909058</v>
@@ -781,16 +781,16 @@
         <v>1.027561443417218</v>
       </c>
       <c r="J11">
-        <v>0.9800865663560661</v>
+        <v>0.9800865663560663</v>
       </c>
       <c r="K11">
-        <v>0.9938036403338391</v>
+        <v>0.9938036403338393</v>
       </c>
       <c r="L11">
-        <v>0.9620807616838293</v>
+        <v>0.9620807616838288</v>
       </c>
       <c r="M11">
-        <v>0.9679366071870029</v>
+        <v>0.9679366071870031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462440833956252</v>
+        <v>0.9462440833956258</v>
       </c>
       <c r="D12">
-        <v>0.9768723845708687</v>
+        <v>0.9768723845708693</v>
       </c>
       <c r="E12">
-        <v>0.944417105459852</v>
+        <v>0.9444171054598526</v>
       </c>
       <c r="F12">
-        <v>0.9499476829634829</v>
+        <v>0.9499476829634835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026864937592836</v>
+        <v>1.026864937592837</v>
       </c>
       <c r="J12">
-        <v>0.9785115718222442</v>
+        <v>0.9785115718222446</v>
       </c>
       <c r="K12">
-        <v>0.9924565040147074</v>
+        <v>0.992456504014708</v>
       </c>
       <c r="L12">
-        <v>0.9606927138598741</v>
+        <v>0.9606927138598745</v>
       </c>
       <c r="M12">
-        <v>0.9661010171500758</v>
+        <v>0.9661010171500763</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9467080265319087</v>
       </c>
       <c r="D13">
-        <v>0.9772151781530217</v>
+        <v>0.9772151781530221</v>
       </c>
       <c r="E13">
-        <v>0.9447717749061858</v>
+        <v>0.9447717749061857</v>
       </c>
       <c r="F13">
-        <v>0.9504004608388282</v>
+        <v>0.9504004608388286</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027015110822281</v>
       </c>
       <c r="J13">
-        <v>0.9788509074808943</v>
+        <v>0.9788509074808944</v>
       </c>
       <c r="K13">
-        <v>0.9927467655613663</v>
+        <v>0.9927467655613665</v>
       </c>
       <c r="L13">
         <v>0.9609915841126174</v>
       </c>
       <c r="M13">
-        <v>0.9664963923253194</v>
+        <v>0.9664963923253195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482204284955905</v>
+        <v>0.9482204284955909</v>
       </c>
       <c r="D14">
-        <v>0.9783329139483634</v>
+        <v>0.9783329139483636</v>
       </c>
       <c r="E14">
-        <v>0.9459289968911742</v>
+        <v>0.9459289968911746</v>
       </c>
       <c r="F14">
-        <v>0.9518770364654531</v>
+        <v>0.9518770364654536</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02750421531838</v>
       </c>
       <c r="J14">
-        <v>0.9799570459007036</v>
+        <v>0.9799570459007042</v>
       </c>
       <c r="K14">
-        <v>0.9936928662688932</v>
+        <v>0.9936928662688939</v>
       </c>
       <c r="L14">
-        <v>0.9619665310194607</v>
+        <v>0.9619665310194612</v>
       </c>
       <c r="M14">
-        <v>0.9677856088444876</v>
+        <v>0.9677856088444882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491464216647845</v>
+        <v>0.9491464216647829</v>
       </c>
       <c r="D15">
-        <v>0.9790174656853867</v>
+        <v>0.9790174656853849</v>
       </c>
       <c r="E15">
-        <v>0.946638311972181</v>
+        <v>0.9466383119721798</v>
       </c>
       <c r="F15">
-        <v>0.9527815269486646</v>
+        <v>0.952781526948663</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027803336149385</v>
+        <v>1.027803336149384</v>
       </c>
       <c r="J15">
-        <v>0.980634250915032</v>
+        <v>0.9806342509150304</v>
       </c>
       <c r="K15">
-        <v>0.9942720375999775</v>
+        <v>0.9942720375999761</v>
       </c>
       <c r="L15">
-        <v>0.9625639594273707</v>
+        <v>0.9625639594273697</v>
       </c>
       <c r="M15">
-        <v>0.9685752075474183</v>
+        <v>0.9685752075474167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544499213122016</v>
+        <v>0.9544499213122023</v>
       </c>
       <c r="D16">
-        <v>0.9829409542343425</v>
+        <v>0.9829409542343434</v>
       </c>
       <c r="E16">
-        <v>0.9507123828435008</v>
+        <v>0.950712382843501</v>
       </c>
       <c r="F16">
-        <v>0.9579682504470707</v>
+        <v>0.9579682504470718</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029511242920071</v>
       </c>
       <c r="J16">
-        <v>0.984512038043335</v>
+        <v>0.9845120380433358</v>
       </c>
       <c r="K16">
-        <v>0.9975875944371495</v>
+        <v>0.9975875944371505</v>
       </c>
       <c r="L16">
-        <v>0.9659929654242971</v>
+        <v>0.9659929654242976</v>
       </c>
       <c r="M16">
-        <v>0.9731012103406862</v>
+        <v>0.9731012103406872</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.957703964991562</v>
+        <v>0.9577039649915627</v>
       </c>
       <c r="D17">
-        <v>0.9853505281308205</v>
+        <v>0.985350528130821</v>
       </c>
       <c r="E17">
-        <v>0.9532219036340683</v>
+        <v>0.9532219036340684</v>
       </c>
       <c r="F17">
-        <v>0.9611560746887913</v>
+        <v>0.9611560746887919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030554425391921</v>
+        <v>1.030554425391922</v>
       </c>
       <c r="J17">
-        <v>0.9868904894854859</v>
+        <v>0.9868904894854865</v>
       </c>
       <c r="K17">
-        <v>0.9996203855449701</v>
+        <v>0.9996203855449709</v>
       </c>
       <c r="L17">
-        <v>0.9681030402094267</v>
+        <v>0.9681030402094269</v>
       </c>
       <c r="M17">
-        <v>0.9758812733521383</v>
+        <v>0.975881273352139</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9595769950027</v>
+        <v>0.9595769950026996</v>
       </c>
       <c r="D18">
-        <v>0.9867382153460054</v>
+        <v>0.986738215346005</v>
       </c>
       <c r="E18">
-        <v>0.9546697971551003</v>
+        <v>0.9546697971550999</v>
       </c>
       <c r="F18">
-        <v>0.9629928845126883</v>
+        <v>0.9629928845126882</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031153135757626</v>
       </c>
       <c r="J18">
-        <v>0.9882591886806841</v>
+        <v>0.9882591886806839</v>
       </c>
       <c r="K18">
         <v>1.000789859526884</v>
       </c>
       <c r="L18">
-        <v>0.9693197209896829</v>
+        <v>0.9693197209896826</v>
       </c>
       <c r="M18">
-        <v>0.9774825216013536</v>
+        <v>0.9774825216013535</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>0.9872084370371759</v>
       </c>
       <c r="E19">
-        <v>0.9551608652807919</v>
+        <v>0.9551608652807918</v>
       </c>
       <c r="F19">
-        <v>0.9636154533894099</v>
+        <v>0.9636154533894096</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>1.001185932753979</v>
       </c>
       <c r="L19">
-        <v>0.9697322447271544</v>
+        <v>0.9697322447271542</v>
       </c>
       <c r="M19">
-        <v>0.9780251446208027</v>
+        <v>0.9780251446208024</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9573574486614561</v>
+        <v>0.9573574486614567</v>
       </c>
       <c r="D20">
-        <v>0.9850938595582978</v>
+        <v>0.9850938595582984</v>
       </c>
       <c r="E20">
-        <v>0.9529543127616378</v>
+        <v>0.9529543127616377</v>
       </c>
       <c r="F20">
-        <v>0.9608164115876493</v>
+        <v>0.9608164115876492</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030443519619807</v>
       </c>
       <c r="J20">
-        <v>0.9866372474816345</v>
+        <v>0.9866372474816348</v>
       </c>
       <c r="K20">
-        <v>0.9994039792362525</v>
+        <v>0.9994039792362529</v>
       </c>
       <c r="L20">
-        <v>0.9678781202785719</v>
+        <v>0.9678781202785717</v>
       </c>
       <c r="M20">
-        <v>0.9755851206022944</v>
+        <v>0.9755851206022945</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9477762896773686</v>
+        <v>0.9477762896773684</v>
       </c>
       <c r="D21">
-        <v>0.9780046324039328</v>
+        <v>0.9780046324039326</v>
       </c>
       <c r="E21">
-        <v>0.9455889966441756</v>
+        <v>0.9455889966441758</v>
       </c>
       <c r="F21">
-        <v>0.951443327788097</v>
+        <v>0.9514433277880969</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027360653764001</v>
       </c>
       <c r="J21">
-        <v>0.9796322217356704</v>
+        <v>0.9796322217356701</v>
       </c>
       <c r="K21">
-        <v>0.9934150494433405</v>
+        <v>0.9934150494433404</v>
       </c>
       <c r="L21">
-        <v>0.9616801183723365</v>
+        <v>0.9616801183723367</v>
       </c>
       <c r="M21">
-        <v>0.9674069580896644</v>
+        <v>0.9674069580896643</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415000044189985</v>
+        <v>0.9415000044189983</v>
       </c>
       <c r="D22">
-        <v>0.973369407398806</v>
+        <v>0.9733694073988057</v>
       </c>
       <c r="E22">
-        <v>0.9407989787653299</v>
+        <v>0.94079897876533</v>
       </c>
       <c r="F22">
-        <v>0.9453224695454853</v>
+        <v>0.9453224695454854</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.025325834287117</v>
       </c>
       <c r="J22">
-        <v>0.9750412816776514</v>
+        <v>0.975041281677651</v>
       </c>
       <c r="K22">
-        <v>0.9894875476848245</v>
+        <v>0.9894875476848242</v>
       </c>
       <c r="L22">
-        <v>0.957642097469669</v>
+        <v>0.9576420974696692</v>
       </c>
       <c r="M22">
-        <v>0.9620609077861264</v>
+        <v>0.9620609077861263</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448525120065457</v>
+        <v>0.9448525120065454</v>
       </c>
       <c r="D23">
-        <v>0.9758444292081179</v>
+        <v>0.9758444292081174</v>
       </c>
       <c r="E23">
-        <v>0.9433541911064657</v>
+        <v>0.9433541911064659</v>
       </c>
       <c r="F23">
-        <v>0.9485900930922747</v>
+        <v>0.9485900930922746</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026414127351772</v>
       </c>
       <c r="J23">
-        <v>0.9774937083488149</v>
+        <v>0.9774937083488148</v>
       </c>
       <c r="K23">
-        <v>0.9915857840688671</v>
+        <v>0.9915857840688669</v>
       </c>
       <c r="L23">
-        <v>0.9597968433764209</v>
+        <v>0.9597968433764211</v>
       </c>
       <c r="M23">
-        <v>0.9649154051836125</v>
+        <v>0.9649154051836124</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9575141014450171</v>
+        <v>0.9575141014450179</v>
       </c>
       <c r="D24">
-        <v>0.9852098917858411</v>
+        <v>0.9852098917858413</v>
       </c>
       <c r="E24">
-        <v>0.9530752744238759</v>
+        <v>0.9530752744238757</v>
       </c>
       <c r="F24">
-        <v>0.9609699602923115</v>
+        <v>0.9609699602923116</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.030493663236521</v>
       </c>
       <c r="J24">
-        <v>0.986751733958134</v>
+        <v>0.9867517339581346</v>
       </c>
       <c r="K24">
-        <v>0.9995018138855174</v>
+        <v>0.9995018138855176</v>
       </c>
       <c r="L24">
-        <v>0.9679797953079334</v>
+        <v>0.967979795307933</v>
       </c>
       <c r="M24">
         <v>0.9757190018416318</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712360950853048</v>
+        <v>0.9712360950853043</v>
       </c>
       <c r="D25">
-        <v>0.9953870414664421</v>
+        <v>0.9953870414664415</v>
       </c>
       <c r="E25">
-        <v>0.9637395122896737</v>
+        <v>0.963739512289674</v>
       </c>
       <c r="F25">
-        <v>0.974458404805596</v>
+        <v>0.9744584048055956</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034847931011098</v>
       </c>
       <c r="J25">
-        <v>0.9967718282084835</v>
+        <v>0.9967718282084831</v>
       </c>
       <c r="K25">
         <v>1.008057392259224</v>
       </c>
       <c r="L25">
-        <v>0.9769280765175149</v>
+        <v>0.976928076517515</v>
       </c>
       <c r="M25">
-        <v>0.9874665990329904</v>
+        <v>0.9874665990329903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98151511507574</v>
+        <v>0.9815151150757403</v>
       </c>
       <c r="D2">
         <v>1.00302497253536</v>
       </c>
       <c r="E2">
-        <v>0.9718195177309282</v>
+        <v>0.9718195177309283</v>
       </c>
       <c r="F2">
-        <v>0.9846141749019859</v>
+        <v>0.9846141749019863</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.014442324943996</v>
       </c>
       <c r="L2">
-        <v>0.983685931555361</v>
+        <v>0.9836859315553611</v>
       </c>
       <c r="M2">
-        <v>0.9962921035098389</v>
+        <v>0.9962921035098393</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9886411429927578</v>
+        <v>0.9886411429927577</v>
       </c>
       <c r="D3">
         <v>1.008325162073532</v>
       </c>
       <c r="E3">
-        <v>0.9774693250892146</v>
+        <v>0.9774693250892149</v>
       </c>
       <c r="F3">
         <v>0.9916824037847521</v>
@@ -483,7 +483,7 @@
         <v>1.018852617678028</v>
       </c>
       <c r="L3">
-        <v>0.9883988449204113</v>
+        <v>0.9883988449204115</v>
       </c>
       <c r="M3">
         <v>1.002422827818547</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9931098444704947</v>
+        <v>0.993109844470493</v>
       </c>
       <c r="D4">
-        <v>1.011650340349852</v>
+        <v>1.011650340349851</v>
       </c>
       <c r="E4">
-        <v>0.9810333380205604</v>
+        <v>0.9810333380205598</v>
       </c>
       <c r="F4">
-        <v>0.9961270335572461</v>
+        <v>0.9961270335572446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041592240600856</v>
+        <v>1.041592240600855</v>
       </c>
       <c r="J4">
-        <v>1.012691458538092</v>
+        <v>1.012691458538091</v>
       </c>
       <c r="K4">
-        <v>1.021610160492513</v>
+        <v>1.021610160492512</v>
       </c>
       <c r="L4">
-        <v>0.9913661955041175</v>
+        <v>0.9913661955041171</v>
       </c>
       <c r="M4">
-        <v>1.006272427723834</v>
+        <v>1.006272427723832</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9949562753762043</v>
+        <v>0.9949562753762038</v>
       </c>
       <c r="D5">
         <v>1.013024499588578</v>
       </c>
       <c r="E5">
-        <v>0.9825108407864221</v>
+        <v>0.9825108407864225</v>
       </c>
       <c r="F5">
-        <v>0.9979663600641061</v>
+        <v>0.9979663600641057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042147600901995</v>
+        <v>1.042147600901994</v>
       </c>
       <c r="J5">
         <v>1.014030993874862</v>
       </c>
       <c r="K5">
-        <v>1.022747507797432</v>
+        <v>1.022747507797431</v>
       </c>
       <c r="L5">
-        <v>0.9925950001780046</v>
+        <v>0.9925950001780049</v>
       </c>
       <c r="M5">
         <v>1.007864173339079</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995264461536843</v>
+        <v>0.995264461536842</v>
       </c>
       <c r="D6">
         <v>1.013253868895307</v>
       </c>
       <c r="E6">
-        <v>0.9827577320329254</v>
+        <v>0.9827577320329248</v>
       </c>
       <c r="F6">
-        <v>0.9982735254285477</v>
+        <v>0.9982735254285469</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>1.014254494472164</v>
       </c>
       <c r="K6">
-        <v>1.022937218360167</v>
+        <v>1.022937218360166</v>
       </c>
       <c r="L6">
-        <v>0.9928002551097209</v>
+        <v>0.9928002551097205</v>
       </c>
       <c r="M6">
         <v>1.008129913765256</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9931346407957148</v>
+        <v>0.9931346407957139</v>
       </c>
       <c r="D7">
         <v>1.011668793662581</v>
       </c>
       <c r="E7">
-        <v>0.9810531607713506</v>
+        <v>0.9810531607713505</v>
       </c>
       <c r="F7">
-        <v>0.9961517233229918</v>
+        <v>0.9961517233229912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041599715166675</v>
+        <v>1.041599715166674</v>
       </c>
       <c r="J7">
         <v>1.012709452942755</v>
       </c>
       <c r="K7">
-        <v>1.021625442528196</v>
+        <v>1.021625442528195</v>
       </c>
       <c r="L7">
-        <v>0.9913826869284081</v>
+        <v>0.9913826869284079</v>
       </c>
       <c r="M7">
-        <v>1.006293799465523</v>
+        <v>1.006293799465522</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839540274665088</v>
+        <v>0.9839540274665103</v>
       </c>
       <c r="D8">
-        <v>1.004838597365392</v>
+        <v>1.004838597365393</v>
       </c>
       <c r="E8">
-        <v>0.9737486343076144</v>
+        <v>0.9737486343076149</v>
       </c>
       <c r="F8">
-        <v>0.9870306824462316</v>
+        <v>0.9870306824462327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038803770280199</v>
+        <v>1.0388037702802</v>
       </c>
       <c r="J8">
-        <v>1.006038154124774</v>
+        <v>1.006038154124775</v>
       </c>
       <c r="K8">
-        <v>1.015953423263025</v>
+        <v>1.015953423263026</v>
       </c>
       <c r="L8">
-        <v>0.9852963433109392</v>
+        <v>0.9852963433109394</v>
       </c>
       <c r="M8">
-        <v>0.9983892453003529</v>
+        <v>0.9983892453003541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665938801278372</v>
+        <v>0.9665938801278371</v>
       </c>
       <c r="D9">
-        <v>0.9919413008638847</v>
+        <v>0.9919413008638843</v>
       </c>
       <c r="E9">
-        <v>0.9601164163374282</v>
+        <v>0.9601164163374278</v>
       </c>
       <c r="F9">
-        <v>0.9698865953982304</v>
+        <v>0.9698865953982303</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033383793855645</v>
       </c>
       <c r="J9">
-        <v>0.9933840679308744</v>
+        <v>0.9933840679308743</v>
       </c>
       <c r="K9">
         <v>1.005166492131504</v>
       </c>
       <c r="L9">
-        <v>0.9738915128357429</v>
+        <v>0.9738915128357426</v>
       </c>
       <c r="M9">
-        <v>0.9834878973242601</v>
+        <v>0.98348789732426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9540787156956606</v>
+        <v>0.9540787156956602</v>
       </c>
       <c r="D10">
-        <v>0.9826661878752785</v>
+        <v>0.9826661878752778</v>
       </c>
       <c r="E10">
-        <v>0.9504265847054943</v>
+        <v>0.9504265847054942</v>
       </c>
       <c r="F10">
-        <v>0.9576048627072051</v>
+        <v>0.9576048627072046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029392005647146</v>
+        <v>1.029392005647145</v>
       </c>
       <c r="J10">
-        <v>0.9842406723500695</v>
+        <v>0.9842406723500692</v>
       </c>
       <c r="K10">
-        <v>0.9973556249096291</v>
+        <v>0.9973556249096287</v>
       </c>
       <c r="L10">
-        <v>0.9657525555071914</v>
+        <v>0.965752555507191</v>
       </c>
       <c r="M10">
-        <v>0.9727842212432694</v>
+        <v>0.972784221243269</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,16 +760,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9483975276269671</v>
+        <v>0.9483975276269669</v>
       </c>
       <c r="D11">
-        <v>0.9784638250157398</v>
+        <v>0.9784638250157397</v>
       </c>
       <c r="E11">
-        <v>0.9460646093951431</v>
+        <v>0.9460646093951436</v>
       </c>
       <c r="F11">
         <v>0.9520499976909058</v>
@@ -781,16 +781,16 @@
         <v>1.027561443417218</v>
       </c>
       <c r="J11">
-        <v>0.9800865663560663</v>
+        <v>0.9800865663560661</v>
       </c>
       <c r="K11">
-        <v>0.9938036403338393</v>
+        <v>0.9938036403338391</v>
       </c>
       <c r="L11">
-        <v>0.9620807616838288</v>
+        <v>0.9620807616838293</v>
       </c>
       <c r="M11">
-        <v>0.9679366071870031</v>
+        <v>0.9679366071870029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462440833956258</v>
+        <v>0.9462440833956252</v>
       </c>
       <c r="D12">
-        <v>0.9768723845708693</v>
+        <v>0.9768723845708687</v>
       </c>
       <c r="E12">
-        <v>0.9444171054598526</v>
+        <v>0.944417105459852</v>
       </c>
       <c r="F12">
-        <v>0.9499476829634835</v>
+        <v>0.9499476829634829</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026864937592837</v>
+        <v>1.026864937592836</v>
       </c>
       <c r="J12">
-        <v>0.9785115718222446</v>
+        <v>0.9785115718222442</v>
       </c>
       <c r="K12">
-        <v>0.992456504014708</v>
+        <v>0.9924565040147074</v>
       </c>
       <c r="L12">
-        <v>0.9606927138598745</v>
+        <v>0.9606927138598741</v>
       </c>
       <c r="M12">
-        <v>0.9661010171500763</v>
+        <v>0.9661010171500758</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9467080265319087</v>
       </c>
       <c r="D13">
-        <v>0.9772151781530221</v>
+        <v>0.9772151781530217</v>
       </c>
       <c r="E13">
-        <v>0.9447717749061857</v>
+        <v>0.9447717749061858</v>
       </c>
       <c r="F13">
-        <v>0.9504004608388286</v>
+        <v>0.9504004608388282</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027015110822281</v>
       </c>
       <c r="J13">
-        <v>0.9788509074808944</v>
+        <v>0.9788509074808943</v>
       </c>
       <c r="K13">
-        <v>0.9927467655613665</v>
+        <v>0.9927467655613663</v>
       </c>
       <c r="L13">
         <v>0.9609915841126174</v>
       </c>
       <c r="M13">
-        <v>0.9664963923253195</v>
+        <v>0.9664963923253194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482204284955909</v>
+        <v>0.9482204284955905</v>
       </c>
       <c r="D14">
-        <v>0.9783329139483636</v>
+        <v>0.9783329139483634</v>
       </c>
       <c r="E14">
-        <v>0.9459289968911746</v>
+        <v>0.9459289968911742</v>
       </c>
       <c r="F14">
-        <v>0.9518770364654536</v>
+        <v>0.9518770364654531</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02750421531838</v>
       </c>
       <c r="J14">
-        <v>0.9799570459007042</v>
+        <v>0.9799570459007036</v>
       </c>
       <c r="K14">
-        <v>0.9936928662688939</v>
+        <v>0.9936928662688932</v>
       </c>
       <c r="L14">
-        <v>0.9619665310194612</v>
+        <v>0.9619665310194607</v>
       </c>
       <c r="M14">
-        <v>0.9677856088444882</v>
+        <v>0.9677856088444876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491464216647829</v>
+        <v>0.9491464216647845</v>
       </c>
       <c r="D15">
-        <v>0.9790174656853849</v>
+        <v>0.9790174656853867</v>
       </c>
       <c r="E15">
-        <v>0.9466383119721798</v>
+        <v>0.946638311972181</v>
       </c>
       <c r="F15">
-        <v>0.952781526948663</v>
+        <v>0.9527815269486646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027803336149384</v>
+        <v>1.027803336149385</v>
       </c>
       <c r="J15">
-        <v>0.9806342509150304</v>
+        <v>0.980634250915032</v>
       </c>
       <c r="K15">
-        <v>0.9942720375999761</v>
+        <v>0.9942720375999775</v>
       </c>
       <c r="L15">
-        <v>0.9625639594273697</v>
+        <v>0.9625639594273707</v>
       </c>
       <c r="M15">
-        <v>0.9685752075474167</v>
+        <v>0.9685752075474183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544499213122023</v>
+        <v>0.9544499213122016</v>
       </c>
       <c r="D16">
-        <v>0.9829409542343434</v>
+        <v>0.9829409542343425</v>
       </c>
       <c r="E16">
-        <v>0.950712382843501</v>
+        <v>0.9507123828435008</v>
       </c>
       <c r="F16">
-        <v>0.9579682504470718</v>
+        <v>0.9579682504470707</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029511242920071</v>
       </c>
       <c r="J16">
-        <v>0.9845120380433358</v>
+        <v>0.984512038043335</v>
       </c>
       <c r="K16">
-        <v>0.9975875944371505</v>
+        <v>0.9975875944371495</v>
       </c>
       <c r="L16">
-        <v>0.9659929654242976</v>
+        <v>0.9659929654242971</v>
       </c>
       <c r="M16">
-        <v>0.9731012103406872</v>
+        <v>0.9731012103406862</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9577039649915627</v>
+        <v>0.957703964991562</v>
       </c>
       <c r="D17">
-        <v>0.985350528130821</v>
+        <v>0.9853505281308205</v>
       </c>
       <c r="E17">
-        <v>0.9532219036340684</v>
+        <v>0.9532219036340683</v>
       </c>
       <c r="F17">
-        <v>0.9611560746887919</v>
+        <v>0.9611560746887913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030554425391922</v>
+        <v>1.030554425391921</v>
       </c>
       <c r="J17">
-        <v>0.9868904894854865</v>
+        <v>0.9868904894854859</v>
       </c>
       <c r="K17">
-        <v>0.9996203855449709</v>
+        <v>0.9996203855449701</v>
       </c>
       <c r="L17">
-        <v>0.9681030402094269</v>
+        <v>0.9681030402094267</v>
       </c>
       <c r="M17">
-        <v>0.975881273352139</v>
+        <v>0.9758812733521383</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9595769950026996</v>
+        <v>0.9595769950027</v>
       </c>
       <c r="D18">
-        <v>0.986738215346005</v>
+        <v>0.9867382153460054</v>
       </c>
       <c r="E18">
-        <v>0.9546697971550999</v>
+        <v>0.9546697971551003</v>
       </c>
       <c r="F18">
-        <v>0.9629928845126882</v>
+        <v>0.9629928845126883</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.031153135757626</v>
       </c>
       <c r="J18">
-        <v>0.9882591886806839</v>
+        <v>0.9882591886806841</v>
       </c>
       <c r="K18">
         <v>1.000789859526884</v>
       </c>
       <c r="L18">
-        <v>0.9693197209896826</v>
+        <v>0.9693197209896829</v>
       </c>
       <c r="M18">
-        <v>0.9774825216013535</v>
+        <v>0.9774825216013536</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>0.9872084370371759</v>
       </c>
       <c r="E19">
-        <v>0.9551608652807918</v>
+        <v>0.9551608652807919</v>
       </c>
       <c r="F19">
-        <v>0.9636154533894096</v>
+        <v>0.9636154533894099</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>1.001185932753979</v>
       </c>
       <c r="L19">
-        <v>0.9697322447271542</v>
+        <v>0.9697322447271544</v>
       </c>
       <c r="M19">
-        <v>0.9780251446208024</v>
+        <v>0.9780251446208027</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9573574486614567</v>
+        <v>0.9573574486614561</v>
       </c>
       <c r="D20">
-        <v>0.9850938595582984</v>
+        <v>0.9850938595582978</v>
       </c>
       <c r="E20">
-        <v>0.9529543127616377</v>
+        <v>0.9529543127616378</v>
       </c>
       <c r="F20">
-        <v>0.9608164115876492</v>
+        <v>0.9608164115876493</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030443519619807</v>
       </c>
       <c r="J20">
-        <v>0.9866372474816348</v>
+        <v>0.9866372474816345</v>
       </c>
       <c r="K20">
-        <v>0.9994039792362529</v>
+        <v>0.9994039792362525</v>
       </c>
       <c r="L20">
-        <v>0.9678781202785717</v>
+        <v>0.9678781202785719</v>
       </c>
       <c r="M20">
-        <v>0.9755851206022945</v>
+        <v>0.9755851206022944</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9477762896773684</v>
+        <v>0.9477762896773686</v>
       </c>
       <c r="D21">
-        <v>0.9780046324039326</v>
+        <v>0.9780046324039328</v>
       </c>
       <c r="E21">
-        <v>0.9455889966441758</v>
+        <v>0.9455889966441756</v>
       </c>
       <c r="F21">
-        <v>0.9514433277880969</v>
+        <v>0.951443327788097</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027360653764001</v>
       </c>
       <c r="J21">
-        <v>0.9796322217356701</v>
+        <v>0.9796322217356704</v>
       </c>
       <c r="K21">
-        <v>0.9934150494433404</v>
+        <v>0.9934150494433405</v>
       </c>
       <c r="L21">
-        <v>0.9616801183723367</v>
+        <v>0.9616801183723365</v>
       </c>
       <c r="M21">
-        <v>0.9674069580896643</v>
+        <v>0.9674069580896644</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415000044189983</v>
+        <v>0.9415000044189985</v>
       </c>
       <c r="D22">
-        <v>0.9733694073988057</v>
+        <v>0.973369407398806</v>
       </c>
       <c r="E22">
-        <v>0.94079897876533</v>
+        <v>0.9407989787653299</v>
       </c>
       <c r="F22">
-        <v>0.9453224695454854</v>
+        <v>0.9453224695454853</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.025325834287117</v>
       </c>
       <c r="J22">
-        <v>0.975041281677651</v>
+        <v>0.9750412816776514</v>
       </c>
       <c r="K22">
-        <v>0.9894875476848242</v>
+        <v>0.9894875476848245</v>
       </c>
       <c r="L22">
-        <v>0.9576420974696692</v>
+        <v>0.957642097469669</v>
       </c>
       <c r="M22">
-        <v>0.9620609077861263</v>
+        <v>0.9620609077861264</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448525120065454</v>
+        <v>0.9448525120065457</v>
       </c>
       <c r="D23">
-        <v>0.9758444292081174</v>
+        <v>0.9758444292081179</v>
       </c>
       <c r="E23">
-        <v>0.9433541911064659</v>
+        <v>0.9433541911064657</v>
       </c>
       <c r="F23">
-        <v>0.9485900930922746</v>
+        <v>0.9485900930922747</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026414127351772</v>
       </c>
       <c r="J23">
-        <v>0.9774937083488148</v>
+        <v>0.9774937083488149</v>
       </c>
       <c r="K23">
-        <v>0.9915857840688669</v>
+        <v>0.9915857840688671</v>
       </c>
       <c r="L23">
-        <v>0.9597968433764211</v>
+        <v>0.9597968433764209</v>
       </c>
       <c r="M23">
-        <v>0.9649154051836124</v>
+        <v>0.9649154051836125</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9575141014450179</v>
+        <v>0.9575141014450171</v>
       </c>
       <c r="D24">
-        <v>0.9852098917858413</v>
+        <v>0.9852098917858411</v>
       </c>
       <c r="E24">
-        <v>0.9530752744238757</v>
+        <v>0.9530752744238759</v>
       </c>
       <c r="F24">
-        <v>0.9609699602923116</v>
+        <v>0.9609699602923115</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.030493663236521</v>
       </c>
       <c r="J24">
-        <v>0.9867517339581346</v>
+        <v>0.986751733958134</v>
       </c>
       <c r="K24">
-        <v>0.9995018138855176</v>
+        <v>0.9995018138855174</v>
       </c>
       <c r="L24">
-        <v>0.967979795307933</v>
+        <v>0.9679797953079334</v>
       </c>
       <c r="M24">
         <v>0.9757190018416318</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712360950853043</v>
+        <v>0.9712360950853048</v>
       </c>
       <c r="D25">
-        <v>0.9953870414664415</v>
+        <v>0.9953870414664421</v>
       </c>
       <c r="E25">
-        <v>0.963739512289674</v>
+        <v>0.9637395122896737</v>
       </c>
       <c r="F25">
-        <v>0.9744584048055956</v>
+        <v>0.974458404805596</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034847931011098</v>
       </c>
       <c r="J25">
-        <v>0.9967718282084831</v>
+        <v>0.9967718282084835</v>
       </c>
       <c r="K25">
         <v>1.008057392259224</v>
       </c>
       <c r="L25">
-        <v>0.976928076517515</v>
+        <v>0.9769280765175149</v>
       </c>
       <c r="M25">
-        <v>0.9874665990329903</v>
+        <v>0.9874665990329904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9815151150757403</v>
+        <v>0.9815267027235046</v>
       </c>
       <c r="D2">
-        <v>1.00302497253536</v>
+        <v>1.003033972424769</v>
       </c>
       <c r="E2">
-        <v>0.9718195177309283</v>
+        <v>0.9718254406621575</v>
       </c>
       <c r="F2">
-        <v>0.9846141749019863</v>
+        <v>0.984623181529625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038052055992554</v>
+        <v>1.038056621934395</v>
       </c>
       <c r="J2">
-        <v>1.004263121603704</v>
+        <v>1.004274344368681</v>
       </c>
       <c r="K2">
-        <v>1.014442324943996</v>
+        <v>1.014451200403829</v>
       </c>
       <c r="L2">
-        <v>0.9836859315553611</v>
+        <v>0.9836917657716512</v>
       </c>
       <c r="M2">
-        <v>0.9962921035098393</v>
+        <v>0.9963009796431341</v>
+      </c>
+      <c r="N2">
+        <v>1.005017258442629</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9886411429927577</v>
+        <v>0.9886486363176382</v>
       </c>
       <c r="D3">
-        <v>1.008325162073532</v>
+        <v>1.008331059887936</v>
       </c>
       <c r="E3">
-        <v>0.9774693250892149</v>
+        <v>0.9774736283692195</v>
       </c>
       <c r="F3">
-        <v>0.9916824037847521</v>
+        <v>0.9916883195829165</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040238178335978</v>
+        <v>1.040241174075682</v>
       </c>
       <c r="J3">
-        <v>1.009446325545964</v>
+        <v>1.009453608130894</v>
       </c>
       <c r="K3">
-        <v>1.018852617678028</v>
+        <v>1.01885844157525</v>
       </c>
       <c r="L3">
-        <v>0.9883988449204115</v>
+        <v>0.9884030899013359</v>
       </c>
       <c r="M3">
-        <v>1.002422827818547</v>
+        <v>1.002428666324772</v>
+      </c>
+      <c r="N3">
+        <v>1.008559503989627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.993109844470493</v>
+        <v>0.993114814080084</v>
       </c>
       <c r="D4">
-        <v>1.011650340349851</v>
+        <v>1.011654321916052</v>
       </c>
       <c r="E4">
-        <v>0.9810333380205598</v>
+        <v>0.9810366518071744</v>
       </c>
       <c r="F4">
-        <v>0.9961270335572446</v>
+        <v>0.9961310487990707</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041592240600855</v>
+        <v>1.04159426456428</v>
       </c>
       <c r="J4">
-        <v>1.012691458538091</v>
+        <v>1.0126962986235</v>
       </c>
       <c r="K4">
-        <v>1.021610160492512</v>
+        <v>1.021614095365146</v>
       </c>
       <c r="L4">
-        <v>0.9913661955041171</v>
+        <v>0.9913694673435002</v>
       </c>
       <c r="M4">
-        <v>1.006272427723832</v>
+        <v>1.00627639403603</v>
+      </c>
+      <c r="N4">
+        <v>1.010776282821685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9949562753762038</v>
+        <v>0.9949602114878996</v>
       </c>
       <c r="D5">
-        <v>1.013024499588578</v>
+        <v>1.013027695544587</v>
       </c>
       <c r="E5">
-        <v>0.9825108407864225</v>
+        <v>0.982513751409134</v>
       </c>
       <c r="F5">
-        <v>0.9979663600641057</v>
+        <v>0.9979695980336308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042147600901994</v>
+        <v>1.042149226041562</v>
       </c>
       <c r="J5">
-        <v>1.014030993874862</v>
+        <v>1.014034830705421</v>
       </c>
       <c r="K5">
-        <v>1.022747507797431</v>
+        <v>1.022750667333166</v>
       </c>
       <c r="L5">
-        <v>0.9925950001780049</v>
+        <v>0.9925978750210289</v>
       </c>
       <c r="M5">
-        <v>1.007864173339079</v>
+        <v>1.007867373017843</v>
+      </c>
+      <c r="N5">
+        <v>1.011691086996407</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995264461536842</v>
+        <v>0.9952682256607591</v>
       </c>
       <c r="D6">
-        <v>1.013253868895307</v>
+        <v>1.013256934066774</v>
       </c>
       <c r="E6">
-        <v>0.9827577320329248</v>
+        <v>0.9827605756822265</v>
       </c>
       <c r="F6">
-        <v>0.9982735254285469</v>
+        <v>0.9982766341083718</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042240050425266</v>
+        <v>1.042241609146135</v>
       </c>
       <c r="J6">
-        <v>1.014254494472164</v>
+        <v>1.014258164178408</v>
       </c>
       <c r="K6">
-        <v>1.022937218360166</v>
+        <v>1.022940248771246</v>
       </c>
       <c r="L6">
-        <v>0.9928002551097205</v>
+        <v>0.9928030639758587</v>
       </c>
       <c r="M6">
-        <v>1.008129913765256</v>
+        <v>1.008132985869741</v>
+      </c>
+      <c r="N6">
+        <v>1.011843706807312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9931346407957139</v>
+        <v>0.9931395964909124</v>
       </c>
       <c r="D7">
-        <v>1.011668793662581</v>
+        <v>1.011672764655145</v>
       </c>
       <c r="E7">
-        <v>0.9810531607713505</v>
+        <v>0.9810564691219713</v>
       </c>
       <c r="F7">
-        <v>0.9961517233229912</v>
+        <v>0.9961557280960822</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041599715166674</v>
+        <v>1.041601733763931</v>
       </c>
       <c r="J7">
-        <v>1.012709452942755</v>
+        <v>1.012714279532552</v>
       </c>
       <c r="K7">
-        <v>1.021625442528195</v>
+        <v>1.021629366968901</v>
       </c>
       <c r="L7">
-        <v>0.9913826869284079</v>
+        <v>0.9913859534168751</v>
       </c>
       <c r="M7">
-        <v>1.006293799465522</v>
+        <v>1.006297755455986</v>
+      </c>
+      <c r="N7">
+        <v>1.010788572658474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839540274665103</v>
+        <v>0.9839642037556408</v>
       </c>
       <c r="D8">
-        <v>1.004838597365393</v>
+        <v>1.004846528898547</v>
       </c>
       <c r="E8">
-        <v>0.9737486343076149</v>
+        <v>0.9737539969874711</v>
       </c>
       <c r="F8">
-        <v>0.9870306824462327</v>
+        <v>0.9870386225977399</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0388037702802</v>
+        <v>1.038807795839389</v>
       </c>
       <c r="J8">
-        <v>1.006038154124775</v>
+        <v>1.006048021805995</v>
       </c>
       <c r="K8">
-        <v>1.015953423263026</v>
+        <v>1.015961248655474</v>
       </c>
       <c r="L8">
-        <v>0.9852963433109394</v>
+        <v>0.9853016283025303</v>
       </c>
       <c r="M8">
-        <v>0.9983892453003541</v>
+        <v>0.9983970743008206</v>
+      </c>
+      <c r="N8">
+        <v>1.006230529561518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665938801278371</v>
+        <v>0.9666143526899861</v>
       </c>
       <c r="D9">
-        <v>0.9919413008638843</v>
+        <v>0.9919570018488982</v>
       </c>
       <c r="E9">
-        <v>0.9601164163374278</v>
+        <v>0.9601259094706611</v>
       </c>
       <c r="F9">
-        <v>0.9698865953982303</v>
+        <v>0.9699023399591152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033383793855645</v>
+        <v>1.033391740493099</v>
       </c>
       <c r="J9">
-        <v>0.9933840679308743</v>
+        <v>0.9934037450858856</v>
       </c>
       <c r="K9">
-        <v>1.005166492131504</v>
+        <v>1.005181933028494</v>
       </c>
       <c r="L9">
-        <v>0.9738915128357426</v>
+        <v>0.9739008348711754</v>
       </c>
       <c r="M9">
-        <v>0.98348789732426</v>
+        <v>0.9835033654785784</v>
+      </c>
+      <c r="N9">
+        <v>0.9975774596455929</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9540787156956602</v>
+        <v>0.9541070148978654</v>
       </c>
       <c r="D10">
-        <v>0.9826661878752778</v>
+        <v>0.9826877546175333</v>
       </c>
       <c r="E10">
-        <v>0.9504265847054942</v>
+        <v>0.9504392783408931</v>
       </c>
       <c r="F10">
-        <v>0.9576048627072046</v>
+        <v>0.9576265755243414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029392005647145</v>
+        <v>1.029402900303888</v>
       </c>
       <c r="J10">
-        <v>0.9842406723500692</v>
+        <v>0.9842676878511508</v>
       </c>
       <c r="K10">
-        <v>0.9973556249096287</v>
+        <v>0.9973767841082241</v>
       </c>
       <c r="L10">
-        <v>0.965752555507191</v>
+        <v>0.9657649873020349</v>
       </c>
       <c r="M10">
-        <v>0.972784221243269</v>
+        <v>0.9728054949795336</v>
+      </c>
+      <c r="N10">
+        <v>0.9913208415990282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483975276269669</v>
+        <v>0.9484295078246128</v>
       </c>
       <c r="D11">
-        <v>0.9784638250157397</v>
+        <v>0.9784881378322655</v>
       </c>
       <c r="E11">
-        <v>0.9460646093951436</v>
+        <v>0.9460788242417055</v>
       </c>
       <c r="F11">
-        <v>0.9520499976909058</v>
+        <v>0.9520745274936041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027561443417218</v>
+        <v>1.027573714939766</v>
       </c>
       <c r="J11">
-        <v>0.9800865663560661</v>
+        <v>0.9801169981247435</v>
       </c>
       <c r="K11">
-        <v>0.9938036403338391</v>
+        <v>0.9938274677304204</v>
       </c>
       <c r="L11">
-        <v>0.9620807616838293</v>
+        <v>0.9620946662962963</v>
       </c>
       <c r="M11">
-        <v>0.9679366071870029</v>
+        <v>0.9679606105303503</v>
+      </c>
+      <c r="N11">
+        <v>0.9884774882040643</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462440833956252</v>
+        <v>0.9462774814624715</v>
       </c>
       <c r="D12">
-        <v>0.9768723845708687</v>
+        <v>0.9768977529155113</v>
       </c>
       <c r="E12">
-        <v>0.944417105459852</v>
+        <v>0.9444319087855455</v>
       </c>
       <c r="F12">
-        <v>0.9499476829634829</v>
+        <v>0.9499732994706094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026864937592836</v>
+        <v>1.026877737829439</v>
       </c>
       <c r="J12">
-        <v>0.9785115718222442</v>
+        <v>0.9785433135533536</v>
       </c>
       <c r="K12">
-        <v>0.9924565040147074</v>
+        <v>0.992481355546099</v>
       </c>
       <c r="L12">
-        <v>0.9606927138598741</v>
+        <v>0.9607071873570197</v>
       </c>
       <c r="M12">
-        <v>0.9661010171500758</v>
+        <v>0.9661260717107626</v>
+      </c>
+      <c r="N12">
+        <v>0.9873993552227629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9467080265319087</v>
+        <v>0.9467411180501201</v>
       </c>
       <c r="D13">
-        <v>0.9772151781530217</v>
+        <v>0.9772403183941205</v>
       </c>
       <c r="E13">
-        <v>0.9447717749061858</v>
+        <v>0.9447864508845014</v>
       </c>
       <c r="F13">
-        <v>0.9504004608388282</v>
+        <v>0.9504258423203338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027015110822281</v>
+        <v>1.027027796825852</v>
       </c>
       <c r="J13">
-        <v>0.9788509074808943</v>
+        <v>0.9788823662719368</v>
       </c>
       <c r="K13">
-        <v>0.9927467655613663</v>
+        <v>0.9927713958413353</v>
       </c>
       <c r="L13">
-        <v>0.9609915841126174</v>
+        <v>0.9610059345433263</v>
       </c>
       <c r="M13">
-        <v>0.9664963923253194</v>
+        <v>0.9665212196185831</v>
+      </c>
+      <c r="N13">
+        <v>0.9876316452289446</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482204284955905</v>
+        <v>0.9482525248194499</v>
       </c>
       <c r="D14">
-        <v>0.9783329139483634</v>
+        <v>0.9783573132614477</v>
       </c>
       <c r="E14">
-        <v>0.9459289968911742</v>
+        <v>0.9459432598835533</v>
       </c>
       <c r="F14">
-        <v>0.9518770364654531</v>
+        <v>0.9519016552374737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02750421531838</v>
+        <v>1.027516530177775</v>
       </c>
       <c r="J14">
-        <v>0.9799570459007036</v>
+        <v>0.9799875850816007</v>
       </c>
       <c r="K14">
-        <v>0.9936928662688932</v>
+        <v>0.993716777619697</v>
       </c>
       <c r="L14">
-        <v>0.9619665310194607</v>
+        <v>0.961980482192726</v>
       </c>
       <c r="M14">
-        <v>0.9677856088444876</v>
+        <v>0.9678096982887947</v>
+      </c>
+      <c r="N14">
+        <v>0.988388829296681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491464216647845</v>
+        <v>0.9491779117419444</v>
       </c>
       <c r="D15">
-        <v>0.9790174656853867</v>
+        <v>0.9790414133442402</v>
       </c>
       <c r="E15">
-        <v>0.946638311972181</v>
+        <v>0.946652323718094</v>
       </c>
       <c r="F15">
-        <v>0.9527815269486646</v>
+        <v>0.952805681315813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027803336149385</v>
+        <v>1.027815424697928</v>
       </c>
       <c r="J15">
-        <v>0.980634250915032</v>
+        <v>0.9806642290976914</v>
       </c>
       <c r="K15">
-        <v>0.9942720375999775</v>
+        <v>0.9942955105119928</v>
       </c>
       <c r="L15">
-        <v>0.9625639594273707</v>
+        <v>0.9625776675898243</v>
       </c>
       <c r="M15">
-        <v>0.9685752075474183</v>
+        <v>0.9685988474863279</v>
+      </c>
+      <c r="N15">
+        <v>0.9888523834887338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544499213122016</v>
+        <v>0.9544779829158644</v>
       </c>
       <c r="D16">
-        <v>0.9829409542343425</v>
+        <v>0.9829623434413691</v>
       </c>
       <c r="E16">
-        <v>0.9507123828435008</v>
+        <v>0.9507249786244616</v>
       </c>
       <c r="F16">
-        <v>0.9579682504470707</v>
+        <v>0.9579897816501696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029511242920071</v>
+        <v>1.029522048492619</v>
       </c>
       <c r="J16">
-        <v>0.984512038043335</v>
+        <v>0.9845388322657463</v>
       </c>
       <c r="K16">
-        <v>0.9975875944371495</v>
+        <v>0.9976085809442518</v>
       </c>
       <c r="L16">
-        <v>0.9659929654242971</v>
+        <v>0.9660053023643279</v>
       </c>
       <c r="M16">
-        <v>0.9731012103406862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9731223078658571</v>
+      </c>
+      <c r="N16">
+        <v>0.9915065680133823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.957703964991562</v>
+        <v>0.9577299585418849</v>
       </c>
       <c r="D17">
-        <v>0.9853505281308205</v>
+        <v>0.985370370640574</v>
       </c>
       <c r="E17">
-        <v>0.9532219036340683</v>
+        <v>0.953233649470635</v>
       </c>
       <c r="F17">
-        <v>0.9611560746887913</v>
+        <v>0.9611760262487848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030554425391921</v>
+        <v>1.030564454493348</v>
       </c>
       <c r="J17">
-        <v>0.9868904894854859</v>
+        <v>0.9869153537561133</v>
       </c>
       <c r="K17">
-        <v>0.9996203855449701</v>
+        <v>0.999639866559594</v>
       </c>
       <c r="L17">
-        <v>0.9681030402094267</v>
+        <v>0.9681145526718251</v>
       </c>
       <c r="M17">
-        <v>0.9758812733521383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9759008370393421</v>
+      </c>
+      <c r="N17">
+        <v>0.9931343257896038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9595769950027</v>
+        <v>0.9596018099526931</v>
       </c>
       <c r="D18">
-        <v>0.9867382153460054</v>
+        <v>0.9867571752384465</v>
       </c>
       <c r="E18">
-        <v>0.9546697971551003</v>
+        <v>0.954681060057762</v>
       </c>
       <c r="F18">
-        <v>0.9629928845126883</v>
+        <v>0.9630119367317067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031153135757626</v>
+        <v>1.031162721470822</v>
       </c>
       <c r="J18">
-        <v>0.9882591886806841</v>
+        <v>0.9882829498831549</v>
       </c>
       <c r="K18">
-        <v>1.000789859526884</v>
+        <v>1.000808480632431</v>
       </c>
       <c r="L18">
-        <v>0.9693197209896829</v>
+        <v>0.969330764513793</v>
       </c>
       <c r="M18">
-        <v>0.9774825216013536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9775012110682649</v>
+      </c>
+      <c r="N18">
+        <v>0.9940709565152829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9602115177031645</v>
+        <v>0.9602359352885964</v>
       </c>
       <c r="D19">
-        <v>0.9872084370371759</v>
+        <v>0.9872270991702394</v>
       </c>
       <c r="E19">
-        <v>0.9551608652807919</v>
+        <v>0.9551719656058603</v>
       </c>
       <c r="F19">
-        <v>0.9636154533894099</v>
+        <v>0.9636342025467103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031355659372241</v>
+        <v>1.031365095454539</v>
       </c>
       <c r="J19">
-        <v>0.9887227987977264</v>
+        <v>0.9887461875810428</v>
       </c>
       <c r="K19">
-        <v>1.001185932753979</v>
+        <v>1.001204263628014</v>
       </c>
       <c r="L19">
-        <v>0.9697322447271544</v>
+        <v>0.9697431303070052</v>
       </c>
       <c r="M19">
-        <v>0.9780251446208027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9780435393338205</v>
+      </c>
+      <c r="N19">
+        <v>0.9943882016412574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9573574486614561</v>
+        <v>0.9573836611887783</v>
       </c>
       <c r="D20">
-        <v>0.9850938595582978</v>
+        <v>0.9851138659621885</v>
       </c>
       <c r="E20">
-        <v>0.9529543127616378</v>
+        <v>0.9529661484421845</v>
       </c>
       <c r="F20">
-        <v>0.9608164115876493</v>
+        <v>0.9608365303131305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030443519619807</v>
+        <v>1.030453631030438</v>
       </c>
       <c r="J20">
-        <v>0.9866372474816345</v>
+        <v>0.9866623164418096</v>
       </c>
       <c r="K20">
-        <v>0.9994039792362525</v>
+        <v>0.9994236198636444</v>
       </c>
       <c r="L20">
-        <v>0.9678781202785719</v>
+        <v>0.9678897199430865</v>
       </c>
       <c r="M20">
-        <v>0.9755851206022944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9756048467088689</v>
+      </c>
+      <c r="N20">
+        <v>0.9929610204911901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9477762896773686</v>
+        <v>0.9478086776044465</v>
       </c>
       <c r="D21">
-        <v>0.9780046324039328</v>
+        <v>0.9780292488808163</v>
       </c>
       <c r="E21">
-        <v>0.9455889966441756</v>
+        <v>0.9456033805759086</v>
       </c>
       <c r="F21">
-        <v>0.951443327788097</v>
+        <v>0.9514681699966966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027360653764001</v>
+        <v>1.027373077419193</v>
       </c>
       <c r="J21">
-        <v>0.9796322217356704</v>
+        <v>0.9796630305407409</v>
       </c>
       <c r="K21">
-        <v>0.9934150494433405</v>
+        <v>0.9934391715511556</v>
       </c>
       <c r="L21">
-        <v>0.9616801183723365</v>
+        <v>0.9616941864892262</v>
       </c>
       <c r="M21">
-        <v>0.9674069580896644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9674312637378359</v>
+      </c>
+      <c r="N21">
+        <v>0.9881664802238307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415000044189985</v>
+        <v>0.9415365720560223</v>
       </c>
       <c r="D22">
-        <v>0.973369407398806</v>
+        <v>0.9733971307882767</v>
       </c>
       <c r="E22">
-        <v>0.9407989787653299</v>
+        <v>0.9408151024591356</v>
       </c>
       <c r="F22">
-        <v>0.9453224695454853</v>
+        <v>0.9453505185293803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025325834287117</v>
+        <v>1.025339813157186</v>
       </c>
       <c r="J22">
-        <v>0.9750412816776514</v>
+        <v>0.9750759398995558</v>
       </c>
       <c r="K22">
-        <v>0.9894875476848245</v>
+        <v>0.9895146813505584</v>
       </c>
       <c r="L22">
-        <v>0.957642097469669</v>
+        <v>0.957657845644284</v>
       </c>
       <c r="M22">
-        <v>0.9620609077861264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.962088311849718</v>
+      </c>
+      <c r="N22">
+        <v>0.98502367356207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448525120065457</v>
+        <v>0.9448868331533967</v>
       </c>
       <c r="D23">
-        <v>0.9758444292081179</v>
+        <v>0.9758704840655783</v>
       </c>
       <c r="E23">
-        <v>0.9433541911064657</v>
+        <v>0.9433693782822556</v>
       </c>
       <c r="F23">
-        <v>0.9485900930922747</v>
+        <v>0.9486164175605013</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026414127351772</v>
+        <v>1.026427271311112</v>
       </c>
       <c r="J23">
-        <v>0.9774937083488149</v>
+        <v>0.9775263011429854</v>
       </c>
       <c r="K23">
-        <v>0.9915857840688671</v>
+        <v>0.9916113012658337</v>
       </c>
       <c r="L23">
-        <v>0.9597968433764209</v>
+        <v>0.9598116876851397</v>
       </c>
       <c r="M23">
-        <v>0.9649154051836125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9649411440589929</v>
+      </c>
+      <c r="N23">
+        <v>0.9867025705159503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9575141014450171</v>
+        <v>0.9575402149410759</v>
       </c>
       <c r="D24">
-        <v>0.9852098917858411</v>
+        <v>0.9852298240729611</v>
       </c>
       <c r="E24">
-        <v>0.9530752744238759</v>
+        <v>0.9530870694683932</v>
       </c>
       <c r="F24">
-        <v>0.9609699602923115</v>
+        <v>0.9609900034151978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030493663236521</v>
+        <v>1.030503737425927</v>
       </c>
       <c r="J24">
-        <v>0.986751733958134</v>
+        <v>0.9867767103583289</v>
       </c>
       <c r="K24">
-        <v>0.9995018138855174</v>
+        <v>0.9995213823347756</v>
       </c>
       <c r="L24">
-        <v>0.9679797953079334</v>
+        <v>0.9679913555327978</v>
       </c>
       <c r="M24">
-        <v>0.9757190018416318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9757386544950758</v>
+      </c>
+      <c r="N24">
+        <v>0.9930393691561926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712360950853048</v>
+        <v>0.9712537548831041</v>
       </c>
       <c r="D25">
-        <v>0.9953870414664421</v>
+        <v>0.9954006257366327</v>
       </c>
       <c r="E25">
-        <v>0.9637395122896737</v>
+        <v>0.963747867463192</v>
       </c>
       <c r="F25">
-        <v>0.974458404805596</v>
+        <v>0.9744720118663143</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034847931011098</v>
+        <v>1.03485481133291</v>
       </c>
       <c r="J25">
-        <v>0.9967718282084835</v>
+        <v>0.9967888431515303</v>
       </c>
       <c r="K25">
-        <v>1.008057392259224</v>
+        <v>1.00807076314676</v>
       </c>
       <c r="L25">
-        <v>0.9769280765175149</v>
+        <v>0.9769362890777853</v>
       </c>
       <c r="M25">
-        <v>0.9874665990329904</v>
+        <v>0.9874799803705141</v>
+      </c>
+      <c r="N25">
+        <v>0.9998948422861177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9815267027235046</v>
+        <v>1.019813848010421</v>
       </c>
       <c r="D2">
-        <v>1.003033972424769</v>
+        <v>1.036244554515558</v>
       </c>
       <c r="E2">
-        <v>0.9718254406621575</v>
+        <v>1.028888946205465</v>
       </c>
       <c r="F2">
-        <v>0.984623181529625</v>
+        <v>1.039621861366712</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038056621934395</v>
+        <v>1.049247603166698</v>
       </c>
       <c r="J2">
-        <v>1.004274344368681</v>
+        <v>1.041417660379883</v>
       </c>
       <c r="K2">
-        <v>1.014451200403829</v>
+        <v>1.047221023238739</v>
       </c>
       <c r="L2">
-        <v>0.9836917657716512</v>
+        <v>1.039959964879883</v>
       </c>
       <c r="M2">
-        <v>0.9963009796431341</v>
+        <v>1.050555477162092</v>
       </c>
       <c r="N2">
-        <v>1.005017258442629</v>
+        <v>1.042896592909898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9886486363176382</v>
+        <v>1.027672590976174</v>
       </c>
       <c r="D3">
-        <v>1.008331059887936</v>
+        <v>1.042401072749983</v>
       </c>
       <c r="E3">
-        <v>0.9774736283692195</v>
+        <v>1.035128198174276</v>
       </c>
       <c r="F3">
-        <v>0.9916883195829165</v>
+        <v>1.046359229080212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040241174075682</v>
+        <v>1.051684163632898</v>
       </c>
       <c r="J3">
-        <v>1.009453608130894</v>
+        <v>1.047436282833498</v>
       </c>
       <c r="K3">
-        <v>1.01885844157525</v>
+        <v>1.052518713194964</v>
       </c>
       <c r="L3">
-        <v>0.9884030899013359</v>
+        <v>1.045330502286092</v>
       </c>
       <c r="M3">
-        <v>1.002428666324772</v>
+        <v>1.056431402949425</v>
       </c>
       <c r="N3">
-        <v>1.008559503989627</v>
+        <v>1.048923762497743</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.993114814080084</v>
+        <v>1.032603213934482</v>
       </c>
       <c r="D4">
-        <v>1.011654321916052</v>
+        <v>1.046266919820278</v>
       </c>
       <c r="E4">
-        <v>0.9810366518071744</v>
+        <v>1.039056146543164</v>
       </c>
       <c r="F4">
-        <v>0.9961310487990707</v>
+        <v>1.050596411328678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04159426456428</v>
+        <v>1.053200645591049</v>
       </c>
       <c r="J4">
-        <v>1.0126962986235</v>
+        <v>1.051208160622158</v>
       </c>
       <c r="K4">
-        <v>1.021614095365146</v>
+        <v>1.05583725858899</v>
       </c>
       <c r="L4">
-        <v>0.9913694673435002</v>
+        <v>1.048704986518902</v>
       </c>
       <c r="M4">
-        <v>1.00627639403603</v>
+        <v>1.06012025062198</v>
       </c>
       <c r="N4">
-        <v>1.010776282821685</v>
+        <v>1.052700996785503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9949602114878996</v>
+        <v>1.034641170423593</v>
       </c>
       <c r="D5">
-        <v>1.013027695544587</v>
+        <v>1.047865426023753</v>
       </c>
       <c r="E5">
-        <v>0.982513751409134</v>
+        <v>1.040682723989116</v>
       </c>
       <c r="F5">
-        <v>0.9979695980336308</v>
+        <v>1.052350041610436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042149226041562</v>
+        <v>1.053824442721367</v>
       </c>
       <c r="J5">
-        <v>1.014034830705421</v>
+        <v>1.05276608605968</v>
       </c>
       <c r="K5">
-        <v>1.022750667333166</v>
+        <v>1.057207545209969</v>
       </c>
       <c r="L5">
-        <v>0.9925978750210289</v>
+        <v>1.050100810101453</v>
       </c>
       <c r="M5">
-        <v>1.007867373017843</v>
+        <v>1.061645371923505</v>
       </c>
       <c r="N5">
-        <v>1.011691086996407</v>
+        <v>1.054261134655842</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9952682256607591</v>
+        <v>1.034981365125995</v>
       </c>
       <c r="D6">
-        <v>1.013256934066774</v>
+        <v>1.048132298450208</v>
       </c>
       <c r="E6">
-        <v>0.9827605756822265</v>
+        <v>1.040954422505647</v>
       </c>
       <c r="F6">
-        <v>0.9982766341083718</v>
+        <v>1.052642904916914</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042241609146135</v>
+        <v>1.053928394052562</v>
       </c>
       <c r="J6">
-        <v>1.014258164178408</v>
+        <v>1.053026083290495</v>
       </c>
       <c r="K6">
-        <v>1.022940248771246</v>
+        <v>1.057436203870449</v>
       </c>
       <c r="L6">
-        <v>0.9928030639758587</v>
+        <v>1.050333872645059</v>
       </c>
       <c r="M6">
-        <v>1.008132985869741</v>
+        <v>1.061899981016192</v>
       </c>
       <c r="N6">
-        <v>1.011843706807312</v>
+        <v>1.054521501112548</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9931395964909124</v>
+        <v>1.032630579594298</v>
       </c>
       <c r="D7">
-        <v>1.011672764655145</v>
+        <v>1.046288382127294</v>
       </c>
       <c r="E7">
-        <v>0.9810564691219713</v>
+        <v>1.039077976331</v>
       </c>
       <c r="F7">
-        <v>0.9961557280960822</v>
+        <v>1.050619950161836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041601733763931</v>
+        <v>1.053209033917766</v>
       </c>
       <c r="J7">
-        <v>1.012714279532552</v>
+        <v>1.051229084842131</v>
       </c>
       <c r="K7">
-        <v>1.021629366968901</v>
+        <v>1.055855664270999</v>
       </c>
       <c r="L7">
-        <v>0.9913859534168751</v>
+        <v>1.048723725596768</v>
       </c>
       <c r="M7">
-        <v>1.006297755455986</v>
+        <v>1.060140728410079</v>
       </c>
       <c r="N7">
-        <v>1.010788572658474</v>
+        <v>1.052721950720268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839642037556408</v>
+        <v>1.022503070325903</v>
       </c>
       <c r="D8">
-        <v>1.004846528898547</v>
+        <v>1.038350529023732</v>
       </c>
       <c r="E8">
-        <v>0.9737539969874711</v>
+        <v>1.031021051530013</v>
       </c>
       <c r="F8">
-        <v>0.9870386225977399</v>
+        <v>1.041925130839485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038807795839389</v>
+        <v>1.050083920134534</v>
       </c>
       <c r="J8">
-        <v>1.006048021805995</v>
+        <v>1.043478051823314</v>
       </c>
       <c r="K8">
-        <v>1.015961248655474</v>
+        <v>1.049034916126362</v>
       </c>
       <c r="L8">
-        <v>0.9853016283025303</v>
+        <v>1.041796599135504</v>
       </c>
       <c r="M8">
-        <v>0.9983970743008206</v>
+        <v>1.052565637346976</v>
       </c>
       <c r="N8">
-        <v>1.006230529561518</v>
+        <v>1.044959910345508</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9666143526899861</v>
+        <v>1.003368083324176</v>
       </c>
       <c r="D9">
-        <v>0.9919570018488982</v>
+        <v>1.023385108185291</v>
       </c>
       <c r="E9">
-        <v>0.9601259094706611</v>
+        <v>1.015915918411963</v>
       </c>
       <c r="F9">
-        <v>0.9699023399591152</v>
+        <v>1.025586580935562</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033391740493099</v>
+        <v>1.044083339968768</v>
       </c>
       <c r="J9">
-        <v>0.9934037450858856</v>
+        <v>1.028802463942655</v>
       </c>
       <c r="K9">
-        <v>1.005181933028494</v>
+        <v>1.036109839171067</v>
       </c>
       <c r="L9">
-        <v>0.9739008348711754</v>
+        <v>1.028755942844283</v>
       </c>
       <c r="M9">
-        <v>0.9835033654785784</v>
+        <v>1.03827773874886</v>
       </c>
       <c r="N9">
-        <v>0.9975774596455929</v>
+        <v>1.030263481446746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9541070148978654</v>
+        <v>0.9895772756853456</v>
       </c>
       <c r="D10">
-        <v>0.9826877546175333</v>
+        <v>1.01263152868456</v>
       </c>
       <c r="E10">
-        <v>0.9504392783408931</v>
+        <v>1.005123706258746</v>
       </c>
       <c r="F10">
-        <v>0.9576265755243414</v>
+        <v>1.013883883033574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029402900303888</v>
+        <v>1.039698612577378</v>
       </c>
       <c r="J10">
-        <v>0.9842676878511508</v>
+        <v>1.018210611542608</v>
       </c>
       <c r="K10">
-        <v>0.9973767841082241</v>
+        <v>1.026776401770729</v>
       </c>
       <c r="L10">
-        <v>0.9657649873020349</v>
+        <v>1.019401062759366</v>
       </c>
       <c r="M10">
-        <v>0.9728054949795336</v>
+        <v>1.028006904233765</v>
       </c>
       <c r="N10">
-        <v>0.9913208415990282</v>
+        <v>1.019656587401388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9484295078246128</v>
+        <v>0.9833160424631425</v>
       </c>
       <c r="D11">
-        <v>0.9784881378322655</v>
+        <v>1.007759504607461</v>
       </c>
       <c r="E11">
-        <v>0.9460788242417055</v>
+        <v>1.000249922185071</v>
       </c>
       <c r="F11">
-        <v>0.9520745274936041</v>
+        <v>1.008590997199883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027573714939766</v>
+        <v>1.037695007928373</v>
       </c>
       <c r="J11">
-        <v>0.9801169981247435</v>
+        <v>1.013399750372963</v>
       </c>
       <c r="K11">
-        <v>0.9938274677304204</v>
+        <v>1.022536556750927</v>
       </c>
       <c r="L11">
-        <v>0.9620946662962963</v>
+        <v>1.015167126878307</v>
       </c>
       <c r="M11">
-        <v>0.9679606105303503</v>
+        <v>1.023352698313266</v>
       </c>
       <c r="N11">
-        <v>0.9884774882040643</v>
+        <v>1.014838894257068</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462774814624715</v>
+        <v>0.980942391496642</v>
       </c>
       <c r="D12">
-        <v>0.9768977529155113</v>
+        <v>1.005914303216356</v>
       </c>
       <c r="E12">
-        <v>0.9444319087855455</v>
+        <v>0.9984065261446669</v>
       </c>
       <c r="F12">
-        <v>0.9499732994706094</v>
+        <v>1.006587798871317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026877737829439</v>
+        <v>1.03693363643874</v>
       </c>
       <c r="J12">
-        <v>0.9785433135533536</v>
+        <v>1.011575791100273</v>
       </c>
       <c r="K12">
-        <v>0.992481355546099</v>
+        <v>1.020929064961126</v>
       </c>
       <c r="L12">
-        <v>0.9607071873570197</v>
+        <v>1.013564318405742</v>
       </c>
       <c r="M12">
-        <v>0.9661260717107626</v>
+        <v>1.021589866094254</v>
       </c>
       <c r="N12">
-        <v>0.9873993552227629</v>
+        <v>1.013012344753001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9467411180501201</v>
+        <v>0.9814537954118658</v>
       </c>
       <c r="D13">
-        <v>0.9772403183941205</v>
+        <v>1.006311767015124</v>
       </c>
       <c r="E13">
-        <v>0.9447864508845014</v>
+        <v>0.9988034876424149</v>
       </c>
       <c r="F13">
-        <v>0.9504258423203338</v>
+        <v>1.007019232345631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027027796825852</v>
+        <v>1.037097753051755</v>
       </c>
       <c r="J13">
-        <v>0.9788823662719368</v>
+        <v>1.011968767801885</v>
       </c>
       <c r="K13">
-        <v>0.9927713958413353</v>
+        <v>1.021275403226221</v>
       </c>
       <c r="L13">
-        <v>0.9610059345433263</v>
+        <v>1.013909535801387</v>
       </c>
       <c r="M13">
-        <v>0.9665212196185831</v>
+        <v>1.021969592774073</v>
       </c>
       <c r="N13">
-        <v>0.9876316452289446</v>
+        <v>1.013405879526604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482525248194499</v>
+        <v>0.9831208417109073</v>
       </c>
       <c r="D14">
-        <v>0.9783573132614477</v>
+        <v>1.007607723717203</v>
       </c>
       <c r="E14">
-        <v>0.9459432598835533</v>
+        <v>1.000098239017264</v>
       </c>
       <c r="F14">
-        <v>0.9519016552374737</v>
+        <v>1.008426191454107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027516530177775</v>
+        <v>1.037632431040151</v>
       </c>
       <c r="J14">
-        <v>0.9799875850816007</v>
+        <v>1.013249756408125</v>
       </c>
       <c r="K14">
-        <v>0.993716777619697</v>
+        <v>1.022404364183306</v>
       </c>
       <c r="L14">
-        <v>0.961980482192726</v>
+        <v>1.01503526936123</v>
       </c>
       <c r="M14">
-        <v>0.9678096982887947</v>
+        <v>1.023207695370781</v>
       </c>
       <c r="N14">
-        <v>0.988388829296681</v>
+        <v>1.014688687283596</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491779117419444</v>
+        <v>0.9841414671834292</v>
       </c>
       <c r="D15">
-        <v>0.9790414133442402</v>
+        <v>1.008401398916676</v>
       </c>
       <c r="E15">
-        <v>0.946652323718094</v>
+        <v>1.000891504324717</v>
       </c>
       <c r="F15">
-        <v>0.952805681315813</v>
+        <v>1.009288031673905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027815424697928</v>
+        <v>1.037959547938444</v>
       </c>
       <c r="J15">
-        <v>0.9806642290976914</v>
+        <v>1.014034008871441</v>
       </c>
       <c r="K15">
-        <v>0.9942955105119928</v>
+        <v>1.023095540374664</v>
       </c>
       <c r="L15">
-        <v>0.9625776675898243</v>
+        <v>1.015724793515232</v>
       </c>
       <c r="M15">
-        <v>0.9685988474863279</v>
+        <v>1.023965923040008</v>
       </c>
       <c r="N15">
-        <v>0.9888523834887338</v>
+        <v>1.015474053475365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544779829158644</v>
+        <v>0.989986345363877</v>
       </c>
       <c r="D16">
-        <v>0.9829623434413691</v>
+        <v>1.0129500689026</v>
       </c>
       <c r="E16">
-        <v>0.9507249786244616</v>
+        <v>1.005442695805016</v>
       </c>
       <c r="F16">
-        <v>0.9579897816501696</v>
+        <v>1.014230130894765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029522048492619</v>
+        <v>1.039829260448667</v>
       </c>
       <c r="J16">
-        <v>0.9845388322657463</v>
+        <v>1.018524894002629</v>
       </c>
       <c r="K16">
-        <v>0.9976085809442518</v>
+        <v>1.027053374373839</v>
       </c>
       <c r="L16">
-        <v>0.9660053023643279</v>
+        <v>1.019677980113323</v>
       </c>
       <c r="M16">
-        <v>0.9731223078658571</v>
+        <v>1.028311185340995</v>
       </c>
       <c r="N16">
-        <v>0.9915065680133823</v>
+        <v>1.019971316178551</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9577299585418849</v>
+        <v>0.9935721815624047</v>
       </c>
       <c r="D17">
-        <v>0.985370370640574</v>
+        <v>1.015743522245917</v>
       </c>
       <c r="E17">
-        <v>0.953233649470635</v>
+        <v>1.008241876024911</v>
       </c>
       <c r="F17">
-        <v>0.9611760262487848</v>
+        <v>1.017267601462325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030564454493348</v>
+        <v>1.040973062451446</v>
       </c>
       <c r="J17">
-        <v>0.9869153537561133</v>
+        <v>1.021279632207128</v>
       </c>
       <c r="K17">
-        <v>0.999639866559594</v>
+        <v>1.029481028804553</v>
       </c>
       <c r="L17">
-        <v>0.9681145526718251</v>
+        <v>1.022106922217733</v>
       </c>
       <c r="M17">
-        <v>0.9759008370393421</v>
+        <v>1.030979492690345</v>
       </c>
       <c r="N17">
-        <v>0.9931343257896038</v>
+        <v>1.022729966427273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596018099526931</v>
+        <v>0.99563611443904</v>
       </c>
       <c r="D18">
-        <v>0.9867571752384465</v>
+        <v>1.017352320308438</v>
       </c>
       <c r="E18">
-        <v>0.954681060057762</v>
+        <v>1.009855442757532</v>
       </c>
       <c r="F18">
-        <v>0.9630119367317067</v>
+        <v>1.01901779027914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031162721470822</v>
+        <v>1.041630194679425</v>
       </c>
       <c r="J18">
-        <v>0.9882829498831549</v>
+        <v>1.022865003913888</v>
       </c>
       <c r="K18">
-        <v>1.000808480632431</v>
+        <v>1.03087810462624</v>
       </c>
       <c r="L18">
-        <v>0.969330764513793</v>
+        <v>1.023506199566648</v>
       </c>
       <c r="M18">
-        <v>0.9775012110682649</v>
+        <v>1.032516132392735</v>
       </c>
       <c r="N18">
-        <v>0.9940709565152829</v>
+        <v>1.024317589543702</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9602359352885964</v>
+        <v>0.9963353010755207</v>
       </c>
       <c r="D19">
-        <v>0.9872270991702394</v>
+        <v>1.017897476704929</v>
       </c>
       <c r="E19">
-        <v>0.9551719656058603</v>
+        <v>1.010402461579404</v>
       </c>
       <c r="F19">
-        <v>0.9636342025467103</v>
+        <v>1.019611003012884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031365095454539</v>
+        <v>1.04185259749751</v>
       </c>
       <c r="J19">
-        <v>0.9887461875810428</v>
+        <v>1.02340203328978</v>
       </c>
       <c r="K19">
-        <v>1.001204263628014</v>
+        <v>1.031351339281471</v>
       </c>
       <c r="L19">
-        <v>0.9697431303070052</v>
+        <v>1.023980425193758</v>
       </c>
       <c r="M19">
-        <v>0.9780435393338205</v>
+        <v>1.033036822671234</v>
       </c>
       <c r="N19">
-        <v>0.9943882016412574</v>
+        <v>1.024855381562906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9573836611887783</v>
+        <v>0.9931903426331643</v>
       </c>
       <c r="D20">
-        <v>0.9851138659621885</v>
+        <v>1.015445960586672</v>
       </c>
       <c r="E20">
-        <v>0.9529661484421845</v>
+        <v>1.007943550783889</v>
       </c>
       <c r="F20">
-        <v>0.9608365303131305</v>
+        <v>1.016943957593084</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030453631030438</v>
+        <v>1.040851389891399</v>
       </c>
       <c r="J20">
-        <v>0.9866623164418096</v>
+        <v>1.020986312629683</v>
       </c>
       <c r="K20">
-        <v>0.9994236198636444</v>
+        <v>1.029222542023374</v>
       </c>
       <c r="L20">
-        <v>0.9678897199430865</v>
+        <v>1.021848145874598</v>
       </c>
       <c r="M20">
-        <v>0.9756048467088689</v>
+        <v>1.030695270458202</v>
       </c>
       <c r="N20">
-        <v>0.9929610204911901</v>
+        <v>1.022436230302384</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9478086776044465</v>
+        <v>0.982631300448189</v>
       </c>
       <c r="D21">
-        <v>0.9780292488808163</v>
+        <v>1.007227104320626</v>
       </c>
       <c r="E21">
-        <v>0.9456033805759086</v>
+        <v>0.9997179048083399</v>
       </c>
       <c r="F21">
-        <v>0.9514681699966966</v>
+        <v>1.008012932318788</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027373077419193</v>
+        <v>1.037475466892789</v>
       </c>
       <c r="J21">
-        <v>0.9796630305407409</v>
+        <v>1.012873586787589</v>
       </c>
       <c r="K21">
-        <v>0.9934391715511556</v>
+        <v>1.022072838490583</v>
       </c>
       <c r="L21">
-        <v>0.9616941864892262</v>
+        <v>1.014704623541328</v>
       </c>
       <c r="M21">
-        <v>0.9674312637378359</v>
+        <v>1.02284407097128</v>
       </c>
       <c r="N21">
-        <v>0.9881664802238307</v>
+        <v>1.014311983459051</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415365720560223</v>
+        <v>0.9757123134026761</v>
       </c>
       <c r="D22">
-        <v>0.9733971307882767</v>
+        <v>1.001852232998508</v>
       </c>
       <c r="E22">
-        <v>0.9408151024591356</v>
+        <v>0.9943531239443222</v>
       </c>
       <c r="F22">
-        <v>0.9453505185293803</v>
+        <v>1.002180519976633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025339813157186</v>
+        <v>1.035252879536047</v>
       </c>
       <c r="J22">
-        <v>0.9750759398995558</v>
+        <v>1.007556810263629</v>
       </c>
       <c r="K22">
-        <v>0.9895146813505584</v>
+        <v>1.017387085876746</v>
       </c>
       <c r="L22">
-        <v>0.957657845644284</v>
+        <v>1.010037282739644</v>
       </c>
       <c r="M22">
-        <v>0.962088311849718</v>
+        <v>1.017708903749911</v>
       </c>
       <c r="N22">
-        <v>0.98502367356207</v>
+        <v>1.008987656502585</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448868331533967</v>
+        <v>0.9794083970316434</v>
       </c>
       <c r="D23">
-        <v>0.9758704840655783</v>
+        <v>1.00472236543327</v>
       </c>
       <c r="E23">
-        <v>0.9433693782822556</v>
+        <v>0.9972164661212407</v>
       </c>
       <c r="F23">
-        <v>0.9486164175605013</v>
+        <v>1.005294197788838</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026427271311112</v>
+        <v>1.036441103795757</v>
       </c>
       <c r="J23">
-        <v>0.9775263011429854</v>
+        <v>1.010397019020014</v>
       </c>
       <c r="K23">
-        <v>0.9916113012658337</v>
+        <v>1.019890190973881</v>
       </c>
       <c r="L23">
-        <v>0.9598116876851397</v>
+        <v>1.012529172514707</v>
       </c>
       <c r="M23">
-        <v>0.9649411440589929</v>
+        <v>1.020451101704945</v>
       </c>
       <c r="N23">
-        <v>0.9867025705159503</v>
+        <v>1.011831898681181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9575402149410759</v>
+        <v>0.9933629642505949</v>
       </c>
       <c r="D24">
-        <v>0.9852298240729611</v>
+        <v>1.0155804792477</v>
       </c>
       <c r="E24">
-        <v>0.9530870694683932</v>
+        <v>1.008078410076527</v>
       </c>
       <c r="F24">
-        <v>0.9609900034151978</v>
+        <v>1.017090264574526</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030503737425927</v>
+        <v>1.040906399372374</v>
       </c>
       <c r="J24">
-        <v>0.9867767103583289</v>
+        <v>1.0211189170754</v>
       </c>
       <c r="K24">
-        <v>0.9995213823347756</v>
+        <v>1.029339399376445</v>
       </c>
       <c r="L24">
-        <v>0.9679913555327978</v>
+        <v>1.021965129601284</v>
       </c>
       <c r="M24">
-        <v>0.9757386544950758</v>
+        <v>1.030823759029635</v>
       </c>
       <c r="N24">
-        <v>0.9930393691561926</v>
+        <v>1.022569023061624</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712537548831041</v>
+        <v>1.00848370853946</v>
       </c>
       <c r="D25">
-        <v>0.9954006257366327</v>
+        <v>1.027381333315349</v>
       </c>
       <c r="E25">
-        <v>0.963747867463192</v>
+        <v>1.019939262043762</v>
       </c>
       <c r="F25">
-        <v>0.9744720118663143</v>
+        <v>1.029943150256728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03485481133291</v>
+        <v>1.045698162884817</v>
       </c>
       <c r="J25">
-        <v>0.9967888431515303</v>
+        <v>1.032728896746337</v>
       </c>
       <c r="K25">
-        <v>1.00807076314676</v>
+        <v>1.039568955344782</v>
       </c>
       <c r="L25">
-        <v>0.9769362890777853</v>
+        <v>1.032235735688604</v>
       </c>
       <c r="M25">
-        <v>0.9874799803705141</v>
+        <v>1.042093762894475</v>
       </c>
       <c r="N25">
-        <v>0.9998948422861177</v>
+        <v>1.034195490235376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019813848010421</v>
+        <v>0.9921568247204516</v>
       </c>
       <c r="D2">
-        <v>1.036244554515558</v>
+        <v>1.012901964240496</v>
       </c>
       <c r="E2">
-        <v>1.028888946205465</v>
+        <v>1.01359645160353</v>
       </c>
       <c r="F2">
-        <v>1.039621861366712</v>
+        <v>1.01860184022619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049247603166698</v>
+        <v>1.043895036621939</v>
       </c>
       <c r="J2">
-        <v>1.041417660379883</v>
+        <v>1.014574681518208</v>
       </c>
       <c r="K2">
-        <v>1.047221023238739</v>
+        <v>1.024184433525371</v>
       </c>
       <c r="L2">
-        <v>1.039959964879883</v>
+        <v>1.024869561119663</v>
       </c>
       <c r="M2">
-        <v>1.050555477162092</v>
+        <v>1.029807964846085</v>
       </c>
       <c r="N2">
-        <v>1.042896592909898</v>
+        <v>1.008940829892905</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027672590976174</v>
+        <v>0.9962039605629527</v>
       </c>
       <c r="D3">
-        <v>1.042401072749983</v>
+        <v>1.015892260939111</v>
       </c>
       <c r="E3">
-        <v>1.035128198174276</v>
+        <v>1.01819681665033</v>
       </c>
       <c r="F3">
-        <v>1.046359229080212</v>
+        <v>1.02335030886201</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051684163632898</v>
+        <v>1.045066353002405</v>
       </c>
       <c r="J3">
-        <v>1.047436282833498</v>
+        <v>1.016798647103859</v>
       </c>
       <c r="K3">
-        <v>1.052518713194964</v>
+        <v>1.026325756656705</v>
       </c>
       <c r="L3">
-        <v>1.045330502286092</v>
+        <v>1.028602041947879</v>
       </c>
       <c r="M3">
-        <v>1.056431402949425</v>
+        <v>1.033692887446201</v>
       </c>
       <c r="N3">
-        <v>1.048923762497743</v>
+        <v>1.009675991880756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032603213934482</v>
+        <v>0.9987686451375645</v>
       </c>
       <c r="D4">
-        <v>1.046266919820278</v>
+        <v>1.017786647319543</v>
       </c>
       <c r="E4">
-        <v>1.039056146543164</v>
+        <v>1.021119007262002</v>
       </c>
       <c r="F4">
-        <v>1.050596411328678</v>
+        <v>1.026363771830884</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053200645591049</v>
+        <v>1.045793612857151</v>
       </c>
       <c r="J4">
-        <v>1.051208160622158</v>
+        <v>1.018203901632287</v>
       </c>
       <c r="K4">
-        <v>1.05583725858899</v>
+        <v>1.027675040057842</v>
       </c>
       <c r="L4">
-        <v>1.048704986518902</v>
+        <v>1.030969054933025</v>
       </c>
       <c r="M4">
-        <v>1.06012025062198</v>
+        <v>1.03615409036156</v>
       </c>
       <c r="N4">
-        <v>1.052700996785503</v>
+        <v>1.010140518794721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034641170423593</v>
+        <v>0.9998343151040133</v>
       </c>
       <c r="D5">
-        <v>1.047865426023753</v>
+        <v>1.018573607300689</v>
       </c>
       <c r="E5">
-        <v>1.040682723989116</v>
+        <v>1.022334919716229</v>
       </c>
       <c r="F5">
-        <v>1.052350041610436</v>
+        <v>1.027616985840311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053824442721367</v>
+        <v>1.046092150414131</v>
       </c>
       <c r="J5">
-        <v>1.05276608605968</v>
+        <v>1.018786802593889</v>
       </c>
       <c r="K5">
-        <v>1.057207545209969</v>
+        <v>1.028233803466908</v>
       </c>
       <c r="L5">
-        <v>1.050100810101453</v>
+        <v>1.031953017594606</v>
       </c>
       <c r="M5">
-        <v>1.061645371923505</v>
+        <v>1.037176603837031</v>
       </c>
       <c r="N5">
-        <v>1.054261134655842</v>
+        <v>1.010333203861825</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034981365125995</v>
+        <v>1.000012523347006</v>
       </c>
       <c r="D6">
-        <v>1.048132298450208</v>
+        <v>1.018705195220404</v>
       </c>
       <c r="E6">
-        <v>1.040954422505647</v>
+        <v>1.022538352897788</v>
       </c>
       <c r="F6">
-        <v>1.052642904916914</v>
+        <v>1.027826620040014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053928394052562</v>
+        <v>1.046141857691053</v>
       </c>
       <c r="J6">
-        <v>1.053026083290495</v>
+        <v>1.018884219142947</v>
       </c>
       <c r="K6">
-        <v>1.057436203870449</v>
+        <v>1.028327131325415</v>
       </c>
       <c r="L6">
-        <v>1.050333872645059</v>
+        <v>1.032117587817463</v>
       </c>
       <c r="M6">
-        <v>1.061899981016192</v>
+        <v>1.037347586061873</v>
       </c>
       <c r="N6">
-        <v>1.054521501112548</v>
+        <v>1.010365405989683</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032630579594298</v>
+        <v>0.9987829333332591</v>
       </c>
       <c r="D7">
-        <v>1.046288382127294</v>
+        <v>1.017797199468832</v>
       </c>
       <c r="E7">
-        <v>1.039077976331</v>
+        <v>1.021135303137269</v>
       </c>
       <c r="F7">
-        <v>1.050619950161836</v>
+        <v>1.026380570304232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053209033917766</v>
+        <v>1.045797630053809</v>
       </c>
       <c r="J7">
-        <v>1.051229084842131</v>
+        <v>1.018211721010748</v>
       </c>
       <c r="K7">
-        <v>1.055855664270999</v>
+        <v>1.027682539307885</v>
       </c>
       <c r="L7">
-        <v>1.048723725596768</v>
+        <v>1.030982245908881</v>
       </c>
       <c r="M7">
-        <v>1.060140728410079</v>
+        <v>1.036167800543653</v>
       </c>
       <c r="N7">
-        <v>1.052721950720268</v>
+        <v>1.01014310359263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022503070325903</v>
+        <v>0.9935360335450714</v>
       </c>
       <c r="D8">
-        <v>1.038350529023732</v>
+        <v>1.013921105391719</v>
       </c>
       <c r="E8">
-        <v>1.031021051530013</v>
+        <v>1.015162761027682</v>
       </c>
       <c r="F8">
-        <v>1.041925130839485</v>
+        <v>1.020219160180683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050083920134534</v>
+        <v>1.044297322100292</v>
       </c>
       <c r="J8">
-        <v>1.043478051823314</v>
+        <v>1.015333417895429</v>
       </c>
       <c r="K8">
-        <v>1.049034916126362</v>
+        <v>1.024915751309558</v>
       </c>
       <c r="L8">
-        <v>1.041796599135504</v>
+        <v>1.026141186628779</v>
       </c>
       <c r="M8">
-        <v>1.052565637346976</v>
+        <v>1.031132041787227</v>
       </c>
       <c r="N8">
-        <v>1.044959910345508</v>
+        <v>1.009191639437384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003368083324176</v>
+        <v>0.9838559552675589</v>
       </c>
       <c r="D9">
-        <v>1.023385108185291</v>
+        <v>1.006767930661041</v>
       </c>
       <c r="E9">
-        <v>1.015915918411963</v>
+        <v>1.004197565504336</v>
       </c>
       <c r="F9">
-        <v>1.025586580935562</v>
+        <v>1.008885149630039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044083339968768</v>
+        <v>1.041412192518793</v>
       </c>
       <c r="J9">
-        <v>1.028802463942655</v>
+        <v>1.009991970777808</v>
       </c>
       <c r="K9">
-        <v>1.036109839171067</v>
+        <v>1.019752149025822</v>
       </c>
       <c r="L9">
-        <v>1.028755942844283</v>
+        <v>1.017222905272385</v>
       </c>
       <c r="M9">
-        <v>1.03827773874886</v>
+        <v>1.021835697734465</v>
       </c>
       <c r="N9">
-        <v>1.030263481446746</v>
+        <v>1.007426020696764</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9895772756853456</v>
+        <v>0.9770805447385056</v>
       </c>
       <c r="D10">
-        <v>1.01263152868456</v>
+        <v>1.001763346002179</v>
       </c>
       <c r="E10">
-        <v>1.005123706258746</v>
+        <v>0.9965568213712825</v>
       </c>
       <c r="F10">
-        <v>1.013883883033574</v>
+        <v>1.000972706025075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039698612577378</v>
+        <v>1.039316648860342</v>
       </c>
       <c r="J10">
-        <v>1.018210611542608</v>
+        <v>1.006233968196233</v>
       </c>
       <c r="K10">
-        <v>1.026776401770729</v>
+        <v>1.01610083551306</v>
       </c>
       <c r="L10">
-        <v>1.019401062759366</v>
+        <v>1.010988523008914</v>
       </c>
       <c r="M10">
-        <v>1.028006904233765</v>
+        <v>1.015324420145608</v>
       </c>
       <c r="N10">
-        <v>1.019656587401388</v>
+        <v>1.006183952209899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9833160424631425</v>
+        <v>0.9740630862342025</v>
       </c>
       <c r="D11">
-        <v>1.007759504607461</v>
+        <v>0.9995358806765394</v>
       </c>
       <c r="E11">
-        <v>1.000249922185071</v>
+        <v>0.9931615830095011</v>
       </c>
       <c r="F11">
-        <v>1.008590997199883</v>
+        <v>0.9974532997999265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037695007928373</v>
+        <v>1.038366042808111</v>
       </c>
       <c r="J11">
-        <v>1.013399750372963</v>
+        <v>1.00455614551769</v>
       </c>
       <c r="K11">
-        <v>1.022536556750927</v>
+        <v>1.014466554918917</v>
       </c>
       <c r="L11">
-        <v>1.015167126878307</v>
+        <v>1.008213624490498</v>
       </c>
       <c r="M11">
-        <v>1.023352698313266</v>
+        <v>1.012423403496097</v>
       </c>
       <c r="N11">
-        <v>1.014838894257068</v>
+        <v>1.005629464362081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.980942391496642</v>
+        <v>0.9729290319570055</v>
       </c>
       <c r="D12">
-        <v>1.005914303216356</v>
+        <v>0.9986990068553694</v>
       </c>
       <c r="E12">
-        <v>0.9984065261446669</v>
+        <v>0.9918866438110894</v>
       </c>
       <c r="F12">
-        <v>1.006587798871317</v>
+        <v>0.9961312230567073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03693363643874</v>
+        <v>1.038006231591487</v>
       </c>
       <c r="J12">
-        <v>1.011575791100273</v>
+        <v>1.00392497563728</v>
       </c>
       <c r="K12">
-        <v>1.020929064961126</v>
+        <v>1.013851174357513</v>
       </c>
       <c r="L12">
-        <v>1.013564318405742</v>
+        <v>1.007170951328813</v>
       </c>
       <c r="M12">
-        <v>1.021589866094254</v>
+        <v>1.011332919971247</v>
       </c>
       <c r="N12">
-        <v>1.013012344753001</v>
+        <v>1.005420884883886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814537954118658</v>
+        <v>0.9731729006128413</v>
       </c>
       <c r="D13">
-        <v>1.006311767015124</v>
+        <v>0.9988789556831287</v>
       </c>
       <c r="E13">
-        <v>0.9988034876424149</v>
+        <v>0.9921607597818211</v>
       </c>
       <c r="F13">
-        <v>1.007019232345631</v>
+        <v>0.9964154967853737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037097753051755</v>
+        <v>1.038083719838284</v>
       </c>
       <c r="J13">
-        <v>1.011968767801885</v>
+        <v>1.00406072948129</v>
       </c>
       <c r="K13">
-        <v>1.021275403226221</v>
+        <v>1.013983558473883</v>
       </c>
       <c r="L13">
-        <v>1.013909535801387</v>
+        <v>1.007395159715741</v>
       </c>
       <c r="M13">
-        <v>1.021969592774073</v>
+        <v>1.011567427990396</v>
       </c>
       <c r="N13">
-        <v>1.013405879526604</v>
+        <v>1.005465746284505</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9831208417109073</v>
+        <v>0.9739696189793027</v>
       </c>
       <c r="D14">
-        <v>1.007607723717203</v>
+        <v>0.9994669005832248</v>
       </c>
       <c r="E14">
-        <v>1.000098239017264</v>
+        <v>0.9930564821912425</v>
       </c>
       <c r="F14">
-        <v>1.008426191454107</v>
+        <v>0.9973443235254561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037632431040151</v>
+        <v>1.038336438987993</v>
       </c>
       <c r="J14">
-        <v>1.013249756408125</v>
+        <v>1.004504137156527</v>
       </c>
       <c r="K14">
-        <v>1.022404364183306</v>
+        <v>1.014415859455216</v>
       </c>
       <c r="L14">
-        <v>1.01503526936123</v>
+        <v>1.008127684418523</v>
       </c>
       <c r="M14">
-        <v>1.023207695370781</v>
+        <v>1.01233353125964</v>
       </c>
       <c r="N14">
-        <v>1.014688687283596</v>
+        <v>1.005612277213359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9841414671834292</v>
+        <v>0.9744587288617695</v>
       </c>
       <c r="D15">
-        <v>1.008401398916676</v>
+        <v>0.9998278819870382</v>
       </c>
       <c r="E15">
-        <v>1.000891504324717</v>
+        <v>0.9936065143944002</v>
       </c>
       <c r="F15">
-        <v>1.009288031673905</v>
+        <v>0.9979146166236564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037959547938444</v>
+        <v>1.03849125110618</v>
       </c>
       <c r="J15">
-        <v>1.014034008871441</v>
+        <v>1.004776270616309</v>
       </c>
       <c r="K15">
-        <v>1.023095540374664</v>
+        <v>1.014681099270076</v>
       </c>
       <c r="L15">
-        <v>1.015724793515232</v>
+        <v>1.008577413708132</v>
       </c>
       <c r="M15">
-        <v>1.023965923040008</v>
+        <v>1.012803820681474</v>
       </c>
       <c r="N15">
-        <v>1.015474053475365</v>
+        <v>1.005702209288141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989986345363877</v>
+        <v>0.9772789850103066</v>
       </c>
       <c r="D16">
-        <v>1.0129500689026</v>
+        <v>1.001909867396986</v>
       </c>
       <c r="E16">
-        <v>1.005442695805016</v>
+        <v>0.9967802605396676</v>
       </c>
       <c r="F16">
-        <v>1.014230130894765</v>
+        <v>1.0012042453782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039829260448667</v>
+        <v>1.039378808369387</v>
       </c>
       <c r="J16">
-        <v>1.018524894002629</v>
+        <v>1.006344224511845</v>
       </c>
       <c r="K16">
-        <v>1.027053374373839</v>
+        <v>1.016208147379169</v>
       </c>
       <c r="L16">
-        <v>1.019677980113323</v>
+        <v>1.0111710432545</v>
       </c>
       <c r="M16">
-        <v>1.028311185340995</v>
+        <v>1.015515176869058</v>
       </c>
       <c r="N16">
-        <v>1.019971316178551</v>
+        <v>1.006220391061609</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9935721815624047</v>
+        <v>0.9790252022823122</v>
       </c>
       <c r="D17">
-        <v>1.015743522245917</v>
+        <v>1.003199375688081</v>
       </c>
       <c r="E17">
-        <v>1.008241876024911</v>
+        <v>0.9987473207217414</v>
       </c>
       <c r="F17">
-        <v>1.017267601462325</v>
+        <v>1.003242225080374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040973062451446</v>
+        <v>1.039923827168358</v>
       </c>
       <c r="J17">
-        <v>1.021279632207128</v>
+        <v>1.00731397684956</v>
       </c>
       <c r="K17">
-        <v>1.029481028804553</v>
+        <v>1.017151539845999</v>
       </c>
       <c r="L17">
-        <v>1.022106922217733</v>
+        <v>1.012777349651039</v>
       </c>
       <c r="M17">
-        <v>1.030979492690345</v>
+        <v>1.017193644164906</v>
       </c>
       <c r="N17">
-        <v>1.022729966427273</v>
+        <v>1.006540893023351</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.99563611443904</v>
+        <v>0.9800357165911072</v>
       </c>
       <c r="D18">
-        <v>1.017352320308438</v>
+        <v>1.003945721061681</v>
       </c>
       <c r="E18">
-        <v>1.009855442757532</v>
+        <v>0.999886358309146</v>
       </c>
       <c r="F18">
-        <v>1.01901779027914</v>
+        <v>1.004422002321296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041630194679425</v>
+        <v>1.040237572803296</v>
       </c>
       <c r="J18">
-        <v>1.022865003913888</v>
+        <v>1.007874761520682</v>
       </c>
       <c r="K18">
-        <v>1.03087810462624</v>
+        <v>1.017696692033436</v>
       </c>
       <c r="L18">
-        <v>1.023506199566648</v>
+        <v>1.013707053645031</v>
       </c>
       <c r="M18">
-        <v>1.032516132392735</v>
+        <v>1.018164840315328</v>
       </c>
       <c r="N18">
-        <v>1.024317589543702</v>
+        <v>1.006726236694928</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9963353010755207</v>
+        <v>0.9803789342324245</v>
       </c>
       <c r="D19">
-        <v>1.017897476704929</v>
+        <v>1.004199233339518</v>
       </c>
       <c r="E19">
-        <v>1.010402461579404</v>
+        <v>1.000273352590369</v>
       </c>
       <c r="F19">
-        <v>1.019611003012884</v>
+        <v>1.004822782570767</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04185259749751</v>
+        <v>1.040343853701038</v>
       </c>
       <c r="J19">
-        <v>1.02340203328978</v>
+        <v>1.00806516133924</v>
       </c>
       <c r="K19">
-        <v>1.031351339281471</v>
+        <v>1.017881717520706</v>
       </c>
       <c r="L19">
-        <v>1.023980425193758</v>
+        <v>1.014022851175828</v>
       </c>
       <c r="M19">
-        <v>1.033036822671234</v>
+        <v>1.018494685029957</v>
       </c>
       <c r="N19">
-        <v>1.024855381562906</v>
+        <v>1.006789166107588</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9931903426331643</v>
+        <v>0.9788386843981106</v>
       </c>
       <c r="D20">
-        <v>1.015445960586672</v>
+        <v>1.003061626777813</v>
       </c>
       <c r="E20">
-        <v>1.007943550783889</v>
+        <v>0.9985371392240826</v>
       </c>
       <c r="F20">
-        <v>1.016943957593084</v>
+        <v>1.003024499646783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040851389891399</v>
+        <v>1.03986578308306</v>
       </c>
       <c r="J20">
-        <v>1.020986312629683</v>
+        <v>1.007210436294359</v>
       </c>
       <c r="K20">
-        <v>1.029222542023374</v>
+        <v>1.017050853957731</v>
       </c>
       <c r="L20">
-        <v>1.021848145874598</v>
+        <v>1.012605760139351</v>
       </c>
       <c r="M20">
-        <v>1.030695270458202</v>
+        <v>1.017014374543004</v>
       </c>
       <c r="N20">
-        <v>1.022436230302384</v>
+        <v>1.006506672462629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.982631300448189</v>
+        <v>0.9737353762387834</v>
       </c>
       <c r="D21">
-        <v>1.007227104320626</v>
+        <v>0.9992940309975066</v>
       </c>
       <c r="E21">
-        <v>0.9997179048083399</v>
+        <v>0.9927931015261232</v>
       </c>
       <c r="F21">
-        <v>1.008012932318788</v>
+        <v>0.9970712228150366</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037475466892789</v>
+        <v>1.038262206677164</v>
       </c>
       <c r="J21">
-        <v>1.012873586787589</v>
+        <v>1.004373787109117</v>
       </c>
       <c r="K21">
-        <v>1.022072838490583</v>
+        <v>1.014288790532877</v>
       </c>
       <c r="L21">
-        <v>1.014704623541328</v>
+        <v>1.007912309367473</v>
       </c>
       <c r="M21">
-        <v>1.02284407097128</v>
+        <v>1.012108295032266</v>
       </c>
       <c r="N21">
-        <v>1.014311983459051</v>
+        <v>1.005569200735402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9757123134026761</v>
+        <v>0.970449780808554</v>
       </c>
       <c r="D22">
-        <v>1.001852232998508</v>
+        <v>0.9968700397318784</v>
       </c>
       <c r="E22">
-        <v>0.9943531239443222</v>
+        <v>0.9891013559586511</v>
       </c>
       <c r="F22">
-        <v>1.002180519976633</v>
+        <v>0.9932420215714954</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035252879536047</v>
+        <v>1.037215010050671</v>
       </c>
       <c r="J22">
-        <v>1.007556810263629</v>
+        <v>1.002544073786584</v>
       </c>
       <c r="K22">
-        <v>1.017387085876746</v>
+        <v>1.012503757796855</v>
       </c>
       <c r="L22">
-        <v>1.010037282739644</v>
+        <v>1.004891853647781</v>
       </c>
       <c r="M22">
-        <v>1.017708903749911</v>
+        <v>1.008948554716336</v>
       </c>
       <c r="N22">
-        <v>1.008987656502585</v>
+        <v>1.004964565551731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9794083970316434</v>
+        <v>0.9721990653383833</v>
       </c>
       <c r="D23">
-        <v>1.00472236543327</v>
+        <v>0.9981604164239211</v>
       </c>
       <c r="E23">
-        <v>0.9972164661212407</v>
+        <v>0.9910662956087087</v>
       </c>
       <c r="F23">
-        <v>1.005294197788838</v>
+        <v>0.9952804010987921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036441103795757</v>
+        <v>1.037773919804014</v>
       </c>
       <c r="J23">
-        <v>1.010397019020014</v>
+        <v>1.003518542711165</v>
       </c>
       <c r="K23">
-        <v>1.019890190973881</v>
+        <v>1.013454745383989</v>
       </c>
       <c r="L23">
-        <v>1.012529172514707</v>
+        <v>1.006499863715419</v>
       </c>
       <c r="M23">
-        <v>1.020451101704945</v>
+        <v>1.010630943188967</v>
       </c>
       <c r="N23">
-        <v>1.011831898681181</v>
+        <v>1.005286576096039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9933629642505949</v>
+        <v>0.9789229885515376</v>
       </c>
       <c r="D24">
-        <v>1.0155804792477</v>
+        <v>1.003123887484259</v>
       </c>
       <c r="E24">
-        <v>1.008078410076527</v>
+        <v>0.9986321368369662</v>
       </c>
       <c r="F24">
-        <v>1.017090264574526</v>
+        <v>1.003122907972975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040906399372374</v>
+        <v>1.039892023529601</v>
       </c>
       <c r="J24">
-        <v>1.0211189170754</v>
+        <v>1.007257236793626</v>
       </c>
       <c r="K24">
-        <v>1.029339399376445</v>
+        <v>1.017096365351845</v>
       </c>
       <c r="L24">
-        <v>1.021965129601284</v>
+        <v>1.012683316342552</v>
       </c>
       <c r="M24">
-        <v>1.030823759029635</v>
+        <v>1.017095402903464</v>
       </c>
       <c r="N24">
-        <v>1.022569023061624</v>
+        <v>1.006522140196258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00848370853946</v>
+        <v>0.9864129314058294</v>
       </c>
       <c r="D25">
-        <v>1.027381333315349</v>
+        <v>1.008657322133957</v>
       </c>
       <c r="E25">
-        <v>1.019939262043762</v>
+        <v>1.007087958246801</v>
       </c>
       <c r="F25">
-        <v>1.029943150256728</v>
+        <v>1.011875316028376</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045698162884817</v>
+        <v>1.042187645229877</v>
       </c>
       <c r="J25">
-        <v>1.032728896746337</v>
+        <v>1.011406369011979</v>
       </c>
       <c r="K25">
-        <v>1.039568955344782</v>
+        <v>1.021122714596113</v>
       </c>
       <c r="L25">
-        <v>1.032235735688604</v>
+        <v>1.019577230294669</v>
       </c>
       <c r="M25">
-        <v>1.042093762894475</v>
+        <v>1.024292038189227</v>
       </c>
       <c r="N25">
-        <v>1.034195490235376</v>
+        <v>1.007893533244915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9921568247204516</v>
+        <v>1.019176727591457</v>
       </c>
       <c r="D2">
-        <v>1.012901964240496</v>
+        <v>1.025771812156901</v>
       </c>
       <c r="E2">
-        <v>1.01359645160353</v>
+        <v>1.047343321621769</v>
       </c>
       <c r="F2">
-        <v>1.01860184022619</v>
+        <v>1.0512274978723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043895036621939</v>
+        <v>1.030782939047553</v>
       </c>
       <c r="J2">
-        <v>1.014574681518208</v>
+        <v>1.024380974140494</v>
       </c>
       <c r="K2">
-        <v>1.024184433525371</v>
+        <v>1.028596406691454</v>
       </c>
       <c r="L2">
-        <v>1.024869561119663</v>
+        <v>1.050106224282141</v>
       </c>
       <c r="M2">
-        <v>1.029807964846085</v>
+        <v>1.053979583971713</v>
       </c>
       <c r="N2">
-        <v>1.008940829892905</v>
+        <v>1.012228640839454</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9962039605629527</v>
+        <v>1.02001514217408</v>
       </c>
       <c r="D3">
-        <v>1.015892260939111</v>
+        <v>1.026395135490157</v>
       </c>
       <c r="E3">
-        <v>1.01819681665033</v>
+        <v>1.048396122432111</v>
       </c>
       <c r="F3">
-        <v>1.02335030886201</v>
+        <v>1.052298800540129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045066353002405</v>
+        <v>1.03093890399232</v>
       </c>
       <c r="J3">
-        <v>1.016798647103859</v>
+        <v>1.024856611728966</v>
       </c>
       <c r="K3">
-        <v>1.026325756656705</v>
+        <v>1.029027603041706</v>
       </c>
       <c r="L3">
-        <v>1.028602041947879</v>
+        <v>1.050970225228418</v>
       </c>
       <c r="M3">
-        <v>1.033692887446201</v>
+        <v>1.05486282527713</v>
       </c>
       <c r="N3">
-        <v>1.009675991880756</v>
+        <v>1.012385603675983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9987686451375645</v>
+        <v>1.020557777247906</v>
       </c>
       <c r="D4">
-        <v>1.017786647319543</v>
+        <v>1.026798146042168</v>
       </c>
       <c r="E4">
-        <v>1.021119007262002</v>
+        <v>1.049078273633288</v>
       </c>
       <c r="F4">
-        <v>1.026363771830884</v>
+        <v>1.052992612134697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045793612857151</v>
+        <v>1.031037988370779</v>
       </c>
       <c r="J4">
-        <v>1.018203901632287</v>
+        <v>1.025163875167154</v>
       </c>
       <c r="K4">
-        <v>1.027675040057842</v>
+        <v>1.029305606204582</v>
       </c>
       <c r="L4">
-        <v>1.030969054933025</v>
+        <v>1.051529608494148</v>
       </c>
       <c r="M4">
-        <v>1.03615409036156</v>
+        <v>1.055434350388573</v>
       </c>
       <c r="N4">
-        <v>1.010140518794721</v>
+        <v>1.012486989920407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9998343151040133</v>
+        <v>1.020785929681738</v>
       </c>
       <c r="D5">
-        <v>1.018573607300689</v>
+        <v>1.026967493171878</v>
       </c>
       <c r="E5">
-        <v>1.022334919716229</v>
+        <v>1.049365269218616</v>
       </c>
       <c r="F5">
-        <v>1.027616985840311</v>
+        <v>1.053284435072504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046092150414131</v>
+        <v>1.031079203290383</v>
       </c>
       <c r="J5">
-        <v>1.018786802593889</v>
+        <v>1.025292926614376</v>
       </c>
       <c r="K5">
-        <v>1.028233803466908</v>
+        <v>1.029422235845268</v>
       </c>
       <c r="L5">
-        <v>1.031953017594606</v>
+        <v>1.05176484841891</v>
       </c>
       <c r="M5">
-        <v>1.037176603837031</v>
+        <v>1.05567462088453</v>
       </c>
       <c r="N5">
-        <v>1.010333203861825</v>
+        <v>1.012529569444514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000012523347006</v>
+        <v>1.020824239123682</v>
       </c>
       <c r="D6">
-        <v>1.018705195220404</v>
+        <v>1.026995922650346</v>
       </c>
       <c r="E6">
-        <v>1.022538352897788</v>
+        <v>1.049413469874743</v>
       </c>
       <c r="F6">
-        <v>1.027826620040014</v>
+        <v>1.053333441880559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046141857691053</v>
+        <v>1.031086097623704</v>
       </c>
       <c r="J6">
-        <v>1.018884219142947</v>
+        <v>1.025314587731162</v>
       </c>
       <c r="K6">
-        <v>1.028327131325415</v>
+        <v>1.029441804198072</v>
       </c>
       <c r="L6">
-        <v>1.032117587817463</v>
+        <v>1.051804350627935</v>
       </c>
       <c r="M6">
-        <v>1.037347586061873</v>
+        <v>1.055714963413382</v>
       </c>
       <c r="N6">
-        <v>1.010365405989683</v>
+        <v>1.012536716187365</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9987829333332591</v>
+        <v>1.02056082572086</v>
       </c>
       <c r="D7">
-        <v>1.017797199468832</v>
+        <v>1.026800409177283</v>
       </c>
       <c r="E7">
-        <v>1.021135303137269</v>
+        <v>1.049082107621852</v>
       </c>
       <c r="F7">
-        <v>1.026380570304232</v>
+        <v>1.05299651092013</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045797630053809</v>
+        <v>1.031038540817018</v>
       </c>
       <c r="J7">
-        <v>1.018211721010748</v>
+        <v>1.025165600039939</v>
       </c>
       <c r="K7">
-        <v>1.027682539307885</v>
+        <v>1.02930716557141</v>
       </c>
       <c r="L7">
-        <v>1.030982245908881</v>
+        <v>1.051532751486883</v>
       </c>
       <c r="M7">
-        <v>1.036167800543653</v>
+        <v>1.055437560890443</v>
       </c>
       <c r="N7">
-        <v>1.01014310359263</v>
+        <v>1.01248755904049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9935360335450714</v>
+        <v>1.019460047155285</v>
       </c>
       <c r="D8">
-        <v>1.013921105391719</v>
+        <v>1.025982532780721</v>
       </c>
       <c r="E8">
-        <v>1.015162761027682</v>
+        <v>1.047698929937391</v>
       </c>
       <c r="F8">
-        <v>1.020219160180683</v>
+        <v>1.051589423429744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044297322100292</v>
+        <v>1.030836027699847</v>
       </c>
       <c r="J8">
-        <v>1.015333417895429</v>
+        <v>1.024541822242671</v>
       </c>
       <c r="K8">
-        <v>1.024915751309558</v>
+        <v>1.028742339886961</v>
       </c>
       <c r="L8">
-        <v>1.026141186628779</v>
+        <v>1.050398151437204</v>
       </c>
       <c r="M8">
-        <v>1.031132041787227</v>
+        <v>1.054278077178519</v>
       </c>
       <c r="N8">
-        <v>1.009191639437384</v>
+        <v>1.012281724060586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9838559552675589</v>
+        <v>1.017521344025282</v>
       </c>
       <c r="D9">
-        <v>1.006767930661041</v>
+        <v>1.024538938480866</v>
       </c>
       <c r="E9">
-        <v>1.004197565504336</v>
+        <v>1.045268661361732</v>
       </c>
       <c r="F9">
-        <v>1.008885149630039</v>
+        <v>1.049114640656994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041412192518793</v>
+        <v>1.030465150318253</v>
       </c>
       <c r="J9">
-        <v>1.009991970777808</v>
+        <v>1.02343881509686</v>
       </c>
       <c r="K9">
-        <v>1.019752149025822</v>
+        <v>1.027739362661709</v>
       </c>
       <c r="L9">
-        <v>1.017222905272385</v>
+        <v>1.048401297093579</v>
       </c>
       <c r="M9">
-        <v>1.021835697734465</v>
+        <v>1.052235022035715</v>
       </c>
       <c r="N9">
-        <v>1.007426020696764</v>
+        <v>1.011917659405444</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9770805447385056</v>
+        <v>1.016229624949635</v>
       </c>
       <c r="D10">
-        <v>1.001763346002179</v>
+        <v>1.023575026922713</v>
       </c>
       <c r="E10">
-        <v>0.9965568213712825</v>
+        <v>1.043653274077265</v>
       </c>
       <c r="F10">
-        <v>1.000972706025075</v>
+        <v>1.0474679809078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039316648860342</v>
+        <v>1.03020851442058</v>
       </c>
       <c r="J10">
-        <v>1.006233968196233</v>
+        <v>1.022700959051379</v>
       </c>
       <c r="K10">
-        <v>1.01610083551306</v>
+        <v>1.027065613868519</v>
       </c>
       <c r="L10">
-        <v>1.010988523008914</v>
+        <v>1.04707174942545</v>
       </c>
       <c r="M10">
-        <v>1.015324420145608</v>
+        <v>1.05087309997167</v>
       </c>
       <c r="N10">
-        <v>1.006183952209899</v>
+        <v>1.011674057644949</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9740630862342025</v>
+        <v>1.015670488692975</v>
       </c>
       <c r="D11">
-        <v>0.9995358806765394</v>
+        <v>1.023157302406753</v>
       </c>
       <c r="E11">
-        <v>0.9931615830095011</v>
+        <v>1.042954937925285</v>
       </c>
       <c r="F11">
-        <v>0.9974532997999265</v>
+        <v>1.046755725854209</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038366042808111</v>
+        <v>1.030095171494241</v>
       </c>
       <c r="J11">
-        <v>1.00455614551769</v>
+        <v>1.022380873916253</v>
       </c>
       <c r="K11">
-        <v>1.014466554918917</v>
+        <v>1.026772678184368</v>
       </c>
       <c r="L11">
-        <v>1.008213624490498</v>
+        <v>1.046496448422882</v>
       </c>
       <c r="M11">
-        <v>1.012423403496097</v>
+        <v>1.050283408825275</v>
       </c>
       <c r="N11">
-        <v>1.005629464362081</v>
+        <v>1.011568368050634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9729290319570055</v>
+        <v>1.015462829752258</v>
       </c>
       <c r="D12">
-        <v>0.9986990068553694</v>
+        <v>1.023002090693726</v>
       </c>
       <c r="E12">
-        <v>0.9918866438110894</v>
+        <v>1.042695716197299</v>
       </c>
       <c r="F12">
-        <v>0.9961312230567073</v>
+        <v>1.046491277354493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038006231591487</v>
+        <v>1.030052738359189</v>
       </c>
       <c r="J12">
-        <v>1.00392497563728</v>
+        <v>1.022261892537724</v>
       </c>
       <c r="K12">
-        <v>1.013851174357513</v>
+        <v>1.026663689927401</v>
       </c>
       <c r="L12">
-        <v>1.007170951328813</v>
+        <v>1.046282816919661</v>
       </c>
       <c r="M12">
-        <v>1.011332919971247</v>
+        <v>1.050064376444838</v>
       </c>
       <c r="N12">
-        <v>1.005420884883886</v>
+        <v>1.011529079244975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9731729006128413</v>
+        <v>1.015507371962393</v>
       </c>
       <c r="D13">
-        <v>0.9988789556831287</v>
+        <v>1.023035386381669</v>
       </c>
       <c r="E13">
-        <v>0.9921607597818211</v>
+        <v>1.042751312372114</v>
       </c>
       <c r="F13">
-        <v>0.9964154967853737</v>
+        <v>1.046547997252901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038083719838284</v>
+        <v>1.030061855447199</v>
       </c>
       <c r="J13">
-        <v>1.00406072948129</v>
+        <v>1.022287418392443</v>
       </c>
       <c r="K13">
-        <v>1.013983558473883</v>
+        <v>1.026687076356755</v>
       </c>
       <c r="L13">
-        <v>1.007395159715741</v>
+        <v>1.046328638837846</v>
       </c>
       <c r="M13">
-        <v>1.011567427990396</v>
+        <v>1.050111359389757</v>
       </c>
       <c r="N13">
-        <v>1.005465746284505</v>
+        <v>1.011537508224007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9739696189793027</v>
+        <v>1.015653322938809</v>
       </c>
       <c r="D14">
-        <v>0.9994669005832248</v>
+        <v>1.02314447357402</v>
       </c>
       <c r="E14">
-        <v>0.9930564821912425</v>
+        <v>1.042933507076377</v>
       </c>
       <c r="F14">
-        <v>0.9973443235254561</v>
+        <v>1.046733864114374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038336438987993</v>
+        <v>1.030091670737524</v>
       </c>
       <c r="J14">
-        <v>1.004504137156527</v>
+        <v>1.022371040658195</v>
       </c>
       <c r="K14">
-        <v>1.014415859455216</v>
+        <v>1.026763672824312</v>
       </c>
       <c r="L14">
-        <v>1.008127684418523</v>
+        <v>1.046478788330728</v>
       </c>
       <c r="M14">
-        <v>1.01233353125964</v>
+        <v>1.050265303431231</v>
       </c>
       <c r="N14">
-        <v>1.005612277213359</v>
+        <v>1.01156512105588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744587288617695</v>
+        <v>1.015743252049947</v>
       </c>
       <c r="D15">
-        <v>0.9998278819870382</v>
+        <v>1.023211679183128</v>
       </c>
       <c r="E15">
-        <v>0.9936065143944002</v>
+        <v>1.043045785977454</v>
       </c>
       <c r="F15">
-        <v>0.9979146166236564</v>
+        <v>1.046848398045377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03849125110618</v>
+        <v>1.03010999687953</v>
       </c>
       <c r="J15">
-        <v>1.004776270616309</v>
+        <v>1.022422551527934</v>
       </c>
       <c r="K15">
-        <v>1.014681099270076</v>
+        <v>1.02681084276226</v>
       </c>
       <c r="L15">
-        <v>1.008577413708132</v>
+        <v>1.046571308474915</v>
       </c>
       <c r="M15">
-        <v>1.012803820681474</v>
+        <v>1.050360154140033</v>
       </c>
       <c r="N15">
-        <v>1.005702209288141</v>
+        <v>1.011582130137</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9772789850103066</v>
+        <v>1.016266737009357</v>
       </c>
       <c r="D16">
-        <v>1.001909867396986</v>
+        <v>1.023602742795968</v>
       </c>
       <c r="E16">
-        <v>0.9967802605396676</v>
+        <v>1.043699644355094</v>
       </c>
       <c r="F16">
-        <v>1.0012042453782</v>
+        <v>1.047515266985707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039378808369387</v>
+        <v>1.030215989947695</v>
       </c>
       <c r="J16">
-        <v>1.006344224511845</v>
+        <v>1.02272218972539</v>
       </c>
       <c r="K16">
-        <v>1.016208147379169</v>
+        <v>1.027085029897313</v>
       </c>
       <c r="L16">
-        <v>1.0111710432545</v>
+        <v>1.047109938770595</v>
       </c>
       <c r="M16">
-        <v>1.015515176869058</v>
+        <v>1.050912236520142</v>
       </c>
       <c r="N16">
-        <v>1.006220391061609</v>
+        <v>1.011681067552092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9790252022823122</v>
+        <v>1.016595156052327</v>
       </c>
       <c r="D17">
-        <v>1.003199375688081</v>
+        <v>1.023847955526079</v>
       </c>
       <c r="E17">
-        <v>0.9987473207217414</v>
+        <v>1.04411009729716</v>
       </c>
       <c r="F17">
-        <v>1.003242225080374</v>
+        <v>1.047933780038103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039923827168358</v>
+        <v>1.030281883293688</v>
       </c>
       <c r="J17">
-        <v>1.00731397684956</v>
+        <v>1.022909987918611</v>
       </c>
       <c r="K17">
-        <v>1.017151539845999</v>
+        <v>1.027256700270976</v>
       </c>
       <c r="L17">
-        <v>1.012777349651039</v>
+        <v>1.047447915295739</v>
       </c>
       <c r="M17">
-        <v>1.017193644164906</v>
+        <v>1.051258551724574</v>
       </c>
       <c r="N17">
-        <v>1.006540893023351</v>
+        <v>1.011743072810253</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9800357165911072</v>
+        <v>1.01678673525541</v>
       </c>
       <c r="D18">
-        <v>1.003945721061681</v>
+        <v>1.023990950626903</v>
       </c>
       <c r="E18">
-        <v>0.999886358309146</v>
+        <v>1.044349617239778</v>
       </c>
       <c r="F18">
-        <v>1.004422002321296</v>
+        <v>1.048177964857358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040237572803296</v>
+        <v>1.030320103727611</v>
       </c>
       <c r="J18">
-        <v>1.007874761520682</v>
+        <v>1.023019470574595</v>
       </c>
       <c r="K18">
-        <v>1.017696692033436</v>
+        <v>1.027356717032351</v>
       </c>
       <c r="L18">
-        <v>1.013707053645031</v>
+        <v>1.047645090028304</v>
       </c>
       <c r="M18">
-        <v>1.018164840315328</v>
+        <v>1.051460554384491</v>
       </c>
       <c r="N18">
-        <v>1.006726236694928</v>
+        <v>1.011779219296384</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9803789342324245</v>
+        <v>1.01685206182017</v>
       </c>
       <c r="D19">
-        <v>1.004199233339518</v>
+        <v>1.024039702560184</v>
       </c>
       <c r="E19">
-        <v>1.000273352590369</v>
+        <v>1.044431305938055</v>
       </c>
       <c r="F19">
-        <v>1.004822782570767</v>
+        <v>1.048261237973251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040343853701038</v>
+        <v>1.030333099582011</v>
       </c>
       <c r="J19">
-        <v>1.00806516133924</v>
+        <v>1.023056791659635</v>
       </c>
       <c r="K19">
-        <v>1.017881717520706</v>
+        <v>1.027390800511678</v>
       </c>
       <c r="L19">
-        <v>1.014022851175828</v>
+        <v>1.047712328072383</v>
       </c>
       <c r="M19">
-        <v>1.018494685029957</v>
+        <v>1.051529432536828</v>
       </c>
       <c r="N19">
-        <v>1.006789166107588</v>
+        <v>1.011791540889294</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9788386843981106</v>
+        <v>1.016559917934227</v>
       </c>
       <c r="D20">
-        <v>1.003061626777813</v>
+        <v>1.023821649957878</v>
       </c>
       <c r="E20">
-        <v>0.9985371392240826</v>
+        <v>1.044066048231519</v>
       </c>
       <c r="F20">
-        <v>1.003024499646783</v>
+        <v>1.047888869968473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03986578308306</v>
+        <v>1.030274835695434</v>
       </c>
       <c r="J20">
-        <v>1.007210436294359</v>
+        <v>1.022889844823637</v>
       </c>
       <c r="K20">
-        <v>1.017050853957731</v>
+        <v>1.027238293620247</v>
       </c>
       <c r="L20">
-        <v>1.012605760139351</v>
+        <v>1.047411649601904</v>
       </c>
       <c r="M20">
-        <v>1.017014374543004</v>
+        <v>1.05122139508003</v>
       </c>
       <c r="N20">
-        <v>1.006506672462629</v>
+        <v>1.011736422312814</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9737353762387834</v>
+        <v>1.015610343200014</v>
       </c>
       <c r="D21">
-        <v>0.9992940309975066</v>
+        <v>1.023112351489183</v>
       </c>
       <c r="E21">
-        <v>0.9927931015261232</v>
+        <v>1.042879850540726</v>
       </c>
       <c r="F21">
-        <v>0.9970712228150366</v>
+        <v>1.046679127783769</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038262206677164</v>
+        <v>1.030082900051488</v>
       </c>
       <c r="J21">
-        <v>1.004373787109117</v>
+        <v>1.022346418393409</v>
       </c>
       <c r="K21">
-        <v>1.014288790532877</v>
+        <v>1.02674112200358</v>
       </c>
       <c r="L21">
-        <v>1.007912309367473</v>
+        <v>1.046434571361995</v>
       </c>
       <c r="M21">
-        <v>1.012108295032266</v>
+        <v>1.050219970600138</v>
       </c>
       <c r="N21">
-        <v>1.005569200735402</v>
+        <v>1.011556990617815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.970449780808554</v>
+        <v>1.015013477143862</v>
       </c>
       <c r="D22">
-        <v>0.9968700397318784</v>
+        <v>1.022666097529316</v>
       </c>
       <c r="E22">
-        <v>0.9891013559586511</v>
+        <v>1.042135032990148</v>
       </c>
       <c r="F22">
-        <v>0.9932420215714954</v>
+        <v>1.045919179025954</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037215010050671</v>
+        <v>1.029960298940605</v>
       </c>
       <c r="J22">
-        <v>1.002544073786584</v>
+        <v>1.022004238790188</v>
       </c>
       <c r="K22">
-        <v>1.012503757796855</v>
+        <v>1.02642749594322</v>
       </c>
       <c r="L22">
-        <v>1.004891853647781</v>
+        <v>1.045820596126081</v>
       </c>
       <c r="M22">
-        <v>1.008948554716336</v>
+        <v>1.049590365499986</v>
       </c>
       <c r="N22">
-        <v>1.004964565551731</v>
+        <v>1.011443995684468</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9721990653383833</v>
+        <v>1.015329870714648</v>
       </c>
       <c r="D23">
-        <v>0.9981604164239211</v>
+        <v>1.022902692166664</v>
       </c>
       <c r="E23">
-        <v>0.9910662956087087</v>
+        <v>1.042529780646611</v>
       </c>
       <c r="F23">
-        <v>0.9952804010987921</v>
+        <v>1.04632197907291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037773919804014</v>
+        <v>1.030025474211536</v>
       </c>
       <c r="J23">
-        <v>1.003518542711165</v>
+        <v>1.02218568231273</v>
       </c>
       <c r="K23">
-        <v>1.013454745383989</v>
+        <v>1.026593852752399</v>
       </c>
       <c r="L23">
-        <v>1.006499863715419</v>
+        <v>1.046146042415228</v>
       </c>
       <c r="M23">
-        <v>1.010630943188967</v>
+        <v>1.049924127996111</v>
       </c>
       <c r="N23">
-        <v>1.005286576096039</v>
+        <v>1.011503913304248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9789229885515376</v>
+        <v>1.016575840467665</v>
       </c>
       <c r="D24">
-        <v>1.003123887484259</v>
+        <v>1.023833536414996</v>
       </c>
       <c r="E24">
-        <v>0.9986321368369662</v>
+        <v>1.044085951769272</v>
       </c>
       <c r="F24">
-        <v>1.003122907972975</v>
+        <v>1.047909162669488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039892023529601</v>
+        <v>1.030278020863123</v>
       </c>
       <c r="J24">
-        <v>1.007257236793626</v>
+        <v>1.022898946796949</v>
       </c>
       <c r="K24">
-        <v>1.017096365351845</v>
+        <v>1.027246611150881</v>
       </c>
       <c r="L24">
-        <v>1.012683316342552</v>
+        <v>1.047428036388172</v>
       </c>
       <c r="M24">
-        <v>1.017095402903464</v>
+        <v>1.051238184559453</v>
       </c>
       <c r="N24">
-        <v>1.006522140196258</v>
+        <v>1.011739427448572</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9864129314058294</v>
+        <v>1.018022418309706</v>
       </c>
       <c r="D25">
-        <v>1.008657322133957</v>
+        <v>1.024912416048646</v>
       </c>
       <c r="E25">
-        <v>1.007087958246801</v>
+        <v>1.045896102405686</v>
       </c>
       <c r="F25">
-        <v>1.011875316028376</v>
+        <v>1.049753871431435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042187645229877</v>
+        <v>1.030562688279954</v>
       </c>
       <c r="J25">
-        <v>1.011406369011979</v>
+        <v>1.023724416901122</v>
       </c>
       <c r="K25">
-        <v>1.021122714596113</v>
+        <v>1.027999559686701</v>
       </c>
       <c r="L25">
-        <v>1.019577230294669</v>
+        <v>1.048917236922605</v>
       </c>
       <c r="M25">
-        <v>1.024292038189227</v>
+        <v>1.052763183856533</v>
       </c>
       <c r="N25">
-        <v>1.007893533244915</v>
+        <v>1.012011937556457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019176727591457</v>
+        <v>0.992156824720452</v>
       </c>
       <c r="D2">
-        <v>1.025771812156901</v>
+        <v>1.012901964240496</v>
       </c>
       <c r="E2">
-        <v>1.047343321621769</v>
+        <v>1.01359645160353</v>
       </c>
       <c r="F2">
-        <v>1.0512274978723</v>
+        <v>1.01860184022619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030782939047553</v>
+        <v>1.043895036621939</v>
       </c>
       <c r="J2">
-        <v>1.024380974140494</v>
+        <v>1.014574681518208</v>
       </c>
       <c r="K2">
-        <v>1.028596406691454</v>
+        <v>1.024184433525371</v>
       </c>
       <c r="L2">
-        <v>1.050106224282141</v>
+        <v>1.024869561119663</v>
       </c>
       <c r="M2">
-        <v>1.053979583971713</v>
+        <v>1.029807964846085</v>
       </c>
       <c r="N2">
-        <v>1.012228640839454</v>
+        <v>1.008940829892905</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02001514217408</v>
+        <v>0.9962039605629531</v>
       </c>
       <c r="D3">
-        <v>1.026395135490157</v>
+        <v>1.015892260939112</v>
       </c>
       <c r="E3">
-        <v>1.048396122432111</v>
+        <v>1.01819681665033</v>
       </c>
       <c r="F3">
-        <v>1.052298800540129</v>
+        <v>1.02335030886201</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03093890399232</v>
+        <v>1.045066353002406</v>
       </c>
       <c r="J3">
-        <v>1.024856611728966</v>
+        <v>1.016798647103859</v>
       </c>
       <c r="K3">
-        <v>1.029027603041706</v>
+        <v>1.026325756656706</v>
       </c>
       <c r="L3">
-        <v>1.050970225228418</v>
+        <v>1.02860204194788</v>
       </c>
       <c r="M3">
-        <v>1.05486282527713</v>
+        <v>1.033692887446201</v>
       </c>
       <c r="N3">
-        <v>1.012385603675983</v>
+        <v>1.009675991880756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020557777247906</v>
+        <v>0.9987686451375644</v>
       </c>
       <c r="D4">
-        <v>1.026798146042168</v>
+        <v>1.017786647319544</v>
       </c>
       <c r="E4">
-        <v>1.049078273633288</v>
+        <v>1.021119007262002</v>
       </c>
       <c r="F4">
-        <v>1.052992612134697</v>
+        <v>1.026363771830883</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031037988370779</v>
+        <v>1.045793612857151</v>
       </c>
       <c r="J4">
-        <v>1.025163875167154</v>
+        <v>1.018203901632287</v>
       </c>
       <c r="K4">
-        <v>1.029305606204582</v>
+        <v>1.027675040057842</v>
       </c>
       <c r="L4">
-        <v>1.051529608494148</v>
+        <v>1.030969054933025</v>
       </c>
       <c r="M4">
-        <v>1.055434350388573</v>
+        <v>1.03615409036156</v>
       </c>
       <c r="N4">
-        <v>1.012486989920407</v>
+        <v>1.010140518794721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.020785929681738</v>
+        <v>0.9998343151040133</v>
       </c>
       <c r="D5">
-        <v>1.026967493171878</v>
+        <v>1.018573607300689</v>
       </c>
       <c r="E5">
-        <v>1.049365269218616</v>
+        <v>1.022334919716229</v>
       </c>
       <c r="F5">
-        <v>1.053284435072504</v>
+        <v>1.027616985840311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031079203290383</v>
+        <v>1.04609215041413</v>
       </c>
       <c r="J5">
-        <v>1.025292926614376</v>
+        <v>1.018786802593889</v>
       </c>
       <c r="K5">
-        <v>1.029422235845268</v>
+        <v>1.028233803466909</v>
       </c>
       <c r="L5">
-        <v>1.05176484841891</v>
+        <v>1.031953017594606</v>
       </c>
       <c r="M5">
-        <v>1.05567462088453</v>
+        <v>1.037176603837031</v>
       </c>
       <c r="N5">
-        <v>1.012529569444514</v>
+        <v>1.010333203861825</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020824239123682</v>
+        <v>1.000012523347007</v>
       </c>
       <c r="D6">
-        <v>1.026995922650346</v>
+        <v>1.018705195220405</v>
       </c>
       <c r="E6">
-        <v>1.049413469874743</v>
+        <v>1.022538352897789</v>
       </c>
       <c r="F6">
-        <v>1.053333441880559</v>
+        <v>1.027826620040014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031086097623704</v>
+        <v>1.046141857691054</v>
       </c>
       <c r="J6">
-        <v>1.025314587731162</v>
+        <v>1.018884219142947</v>
       </c>
       <c r="K6">
-        <v>1.029441804198072</v>
+        <v>1.028327131325415</v>
       </c>
       <c r="L6">
-        <v>1.051804350627935</v>
+        <v>1.032117587817464</v>
       </c>
       <c r="M6">
-        <v>1.055714963413382</v>
+        <v>1.037347586061874</v>
       </c>
       <c r="N6">
-        <v>1.012536716187365</v>
+        <v>1.010365405989684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02056082572086</v>
+        <v>0.9987829333332597</v>
       </c>
       <c r="D7">
-        <v>1.026800409177283</v>
+        <v>1.017797199468833</v>
       </c>
       <c r="E7">
-        <v>1.049082107621852</v>
+        <v>1.021135303137269</v>
       </c>
       <c r="F7">
-        <v>1.05299651092013</v>
+        <v>1.026380570304232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031038540817018</v>
+        <v>1.045797630053809</v>
       </c>
       <c r="J7">
-        <v>1.025165600039939</v>
+        <v>1.018211721010748</v>
       </c>
       <c r="K7">
-        <v>1.02930716557141</v>
+        <v>1.027682539307885</v>
       </c>
       <c r="L7">
-        <v>1.051532751486883</v>
+        <v>1.030982245908882</v>
       </c>
       <c r="M7">
-        <v>1.055437560890443</v>
+        <v>1.036167800543653</v>
       </c>
       <c r="N7">
-        <v>1.01248755904049</v>
+        <v>1.01014310359263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019460047155285</v>
+        <v>0.9935360335450716</v>
       </c>
       <c r="D8">
-        <v>1.025982532780721</v>
+        <v>1.013921105391719</v>
       </c>
       <c r="E8">
-        <v>1.047698929937391</v>
+        <v>1.015162761027682</v>
       </c>
       <c r="F8">
-        <v>1.051589423429744</v>
+        <v>1.020219160180684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030836027699847</v>
+        <v>1.044297322100293</v>
       </c>
       <c r="J8">
-        <v>1.024541822242671</v>
+        <v>1.01533341789543</v>
       </c>
       <c r="K8">
-        <v>1.028742339886961</v>
+        <v>1.024915751309558</v>
       </c>
       <c r="L8">
-        <v>1.050398151437204</v>
+        <v>1.02614118662878</v>
       </c>
       <c r="M8">
-        <v>1.054278077178519</v>
+        <v>1.031132041787228</v>
       </c>
       <c r="N8">
-        <v>1.012281724060586</v>
+        <v>1.009191639437384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017521344025282</v>
+        <v>0.9838559552675585</v>
       </c>
       <c r="D9">
-        <v>1.024538938480866</v>
+        <v>1.00676793066104</v>
       </c>
       <c r="E9">
-        <v>1.045268661361732</v>
+        <v>1.004197565504336</v>
       </c>
       <c r="F9">
-        <v>1.049114640656994</v>
+        <v>1.008885149630039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030465150318253</v>
+        <v>1.041412192518793</v>
       </c>
       <c r="J9">
-        <v>1.02343881509686</v>
+        <v>1.009991970777808</v>
       </c>
       <c r="K9">
-        <v>1.027739362661709</v>
+        <v>1.019752149025822</v>
       </c>
       <c r="L9">
-        <v>1.048401297093579</v>
+        <v>1.017222905272385</v>
       </c>
       <c r="M9">
-        <v>1.052235022035715</v>
+        <v>1.021835697734466</v>
       </c>
       <c r="N9">
-        <v>1.011917659405444</v>
+        <v>1.007426020696764</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016229624949635</v>
+        <v>0.9770805447385061</v>
       </c>
       <c r="D10">
-        <v>1.023575026922713</v>
+        <v>1.00176334600218</v>
       </c>
       <c r="E10">
-        <v>1.043653274077265</v>
+        <v>0.9965568213712824</v>
       </c>
       <c r="F10">
-        <v>1.0474679809078</v>
+        <v>1.000972706025075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03020851442058</v>
+        <v>1.039316648860343</v>
       </c>
       <c r="J10">
-        <v>1.022700959051379</v>
+        <v>1.006233968196233</v>
       </c>
       <c r="K10">
-        <v>1.027065613868519</v>
+        <v>1.016100835513061</v>
       </c>
       <c r="L10">
-        <v>1.04707174942545</v>
+        <v>1.010988523008914</v>
       </c>
       <c r="M10">
-        <v>1.05087309997167</v>
+        <v>1.015324420145608</v>
       </c>
       <c r="N10">
-        <v>1.011674057644949</v>
+        <v>1.006183952209899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015670488692975</v>
+        <v>0.9740630862342033</v>
       </c>
       <c r="D11">
-        <v>1.023157302406753</v>
+        <v>0.9995358806765401</v>
       </c>
       <c r="E11">
-        <v>1.042954937925285</v>
+        <v>0.9931615830095016</v>
       </c>
       <c r="F11">
-        <v>1.046755725854209</v>
+        <v>0.9974532997999273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030095171494241</v>
+        <v>1.038366042808111</v>
       </c>
       <c r="J11">
-        <v>1.022380873916253</v>
+        <v>1.004556145517691</v>
       </c>
       <c r="K11">
-        <v>1.026772678184368</v>
+        <v>1.014466554918918</v>
       </c>
       <c r="L11">
-        <v>1.046496448422882</v>
+        <v>1.008213624490498</v>
       </c>
       <c r="M11">
-        <v>1.050283408825275</v>
+        <v>1.012423403496098</v>
       </c>
       <c r="N11">
-        <v>1.011568368050634</v>
+        <v>1.005629464362082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015462829752258</v>
+        <v>0.9729290319570056</v>
       </c>
       <c r="D12">
-        <v>1.023002090693726</v>
+        <v>0.9986990068553696</v>
       </c>
       <c r="E12">
-        <v>1.042695716197299</v>
+        <v>0.991886643811089</v>
       </c>
       <c r="F12">
-        <v>1.046491277354493</v>
+        <v>0.9961312230567073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030052738359189</v>
+        <v>1.038006231591487</v>
       </c>
       <c r="J12">
-        <v>1.022261892537724</v>
+        <v>1.00392497563728</v>
       </c>
       <c r="K12">
-        <v>1.026663689927401</v>
+        <v>1.013851174357513</v>
       </c>
       <c r="L12">
-        <v>1.046282816919661</v>
+        <v>1.007170951328813</v>
       </c>
       <c r="M12">
-        <v>1.050064376444838</v>
+        <v>1.011332919971247</v>
       </c>
       <c r="N12">
-        <v>1.011529079244975</v>
+        <v>1.005420884883886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015507371962393</v>
+        <v>0.9731729006128418</v>
       </c>
       <c r="D13">
-        <v>1.023035386381669</v>
+        <v>0.998878955683129</v>
       </c>
       <c r="E13">
-        <v>1.042751312372114</v>
+        <v>0.9921607597818214</v>
       </c>
       <c r="F13">
-        <v>1.046547997252901</v>
+        <v>0.9964154967853742</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030061855447199</v>
+        <v>1.038083719838284</v>
       </c>
       <c r="J13">
-        <v>1.022287418392443</v>
+        <v>1.004060729481291</v>
       </c>
       <c r="K13">
-        <v>1.026687076356755</v>
+        <v>1.013983558473883</v>
       </c>
       <c r="L13">
-        <v>1.046328638837846</v>
+        <v>1.007395159715742</v>
       </c>
       <c r="M13">
-        <v>1.050111359389757</v>
+        <v>1.011567427990397</v>
       </c>
       <c r="N13">
-        <v>1.011537508224007</v>
+        <v>1.005465746284505</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015653322938809</v>
+        <v>0.973969618979303</v>
       </c>
       <c r="D14">
-        <v>1.02314447357402</v>
+        <v>0.999466900583225</v>
       </c>
       <c r="E14">
-        <v>1.042933507076377</v>
+        <v>0.9930564821912428</v>
       </c>
       <c r="F14">
-        <v>1.046733864114374</v>
+        <v>0.9973443235254563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030091670737524</v>
+        <v>1.038336438987993</v>
       </c>
       <c r="J14">
-        <v>1.022371040658195</v>
+        <v>1.004504137156527</v>
       </c>
       <c r="K14">
-        <v>1.026763672824312</v>
+        <v>1.014415859455216</v>
       </c>
       <c r="L14">
-        <v>1.046478788330728</v>
+        <v>1.008127684418523</v>
       </c>
       <c r="M14">
-        <v>1.050265303431231</v>
+        <v>1.01233353125964</v>
       </c>
       <c r="N14">
-        <v>1.01156512105588</v>
+        <v>1.005612277213359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015743252049947</v>
+        <v>0.9744587288617701</v>
       </c>
       <c r="D15">
-        <v>1.023211679183128</v>
+        <v>0.9998278819870386</v>
       </c>
       <c r="E15">
-        <v>1.043045785977454</v>
+        <v>0.9936065143944006</v>
       </c>
       <c r="F15">
-        <v>1.046848398045377</v>
+        <v>0.997914616623657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03010999687953</v>
+        <v>1.03849125110618</v>
       </c>
       <c r="J15">
-        <v>1.022422551527934</v>
+        <v>1.00477627061631</v>
       </c>
       <c r="K15">
-        <v>1.02681084276226</v>
+        <v>1.014681099270077</v>
       </c>
       <c r="L15">
-        <v>1.046571308474915</v>
+        <v>1.008577413708132</v>
       </c>
       <c r="M15">
-        <v>1.050360154140033</v>
+        <v>1.012803820681475</v>
       </c>
       <c r="N15">
-        <v>1.011582130137</v>
+        <v>1.005702209288141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016266737009357</v>
+        <v>0.9772789850103064</v>
       </c>
       <c r="D16">
-        <v>1.023602742795968</v>
+        <v>1.001909867396986</v>
       </c>
       <c r="E16">
-        <v>1.043699644355094</v>
+        <v>0.9967802605396678</v>
       </c>
       <c r="F16">
-        <v>1.047515266985707</v>
+        <v>1.0012042453782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030215989947695</v>
+        <v>1.039378808369387</v>
       </c>
       <c r="J16">
-        <v>1.02272218972539</v>
+        <v>1.006344224511845</v>
       </c>
       <c r="K16">
-        <v>1.027085029897313</v>
+        <v>1.016208147379168</v>
       </c>
       <c r="L16">
-        <v>1.047109938770595</v>
+        <v>1.0111710432545</v>
       </c>
       <c r="M16">
-        <v>1.050912236520142</v>
+        <v>1.015515176869058</v>
       </c>
       <c r="N16">
-        <v>1.011681067552092</v>
+        <v>1.006220391061609</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.016595156052327</v>
+        <v>0.9790252022823129</v>
       </c>
       <c r="D17">
-        <v>1.023847955526079</v>
+        <v>1.003199375688082</v>
       </c>
       <c r="E17">
-        <v>1.04411009729716</v>
+        <v>0.998747320721742</v>
       </c>
       <c r="F17">
-        <v>1.047933780038103</v>
+        <v>1.003242225080375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030281883293688</v>
+        <v>1.039923827168358</v>
       </c>
       <c r="J17">
-        <v>1.022909987918611</v>
+        <v>1.007313976849561</v>
       </c>
       <c r="K17">
-        <v>1.027256700270976</v>
+        <v>1.017151539846</v>
       </c>
       <c r="L17">
-        <v>1.047447915295739</v>
+        <v>1.012777349651039</v>
       </c>
       <c r="M17">
-        <v>1.051258551724574</v>
+        <v>1.017193644164906</v>
       </c>
       <c r="N17">
-        <v>1.011743072810253</v>
+        <v>1.006540893023351</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01678673525541</v>
+        <v>0.9800357165911077</v>
       </c>
       <c r="D18">
-        <v>1.023990950626903</v>
+        <v>1.003945721061681</v>
       </c>
       <c r="E18">
-        <v>1.044349617239778</v>
+        <v>0.999886358309147</v>
       </c>
       <c r="F18">
-        <v>1.048177964857358</v>
+        <v>1.004422002321297</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030320103727611</v>
+        <v>1.040237572803296</v>
       </c>
       <c r="J18">
-        <v>1.023019470574595</v>
+        <v>1.007874761520682</v>
       </c>
       <c r="K18">
-        <v>1.027356717032351</v>
+        <v>1.017696692033436</v>
       </c>
       <c r="L18">
-        <v>1.047645090028304</v>
+        <v>1.013707053645032</v>
       </c>
       <c r="M18">
-        <v>1.051460554384491</v>
+        <v>1.018164840315329</v>
       </c>
       <c r="N18">
-        <v>1.011779219296384</v>
+        <v>1.006726236694928</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01685206182017</v>
+        <v>0.9803789342324245</v>
       </c>
       <c r="D19">
-        <v>1.024039702560184</v>
+        <v>1.004199233339518</v>
       </c>
       <c r="E19">
-        <v>1.044431305938055</v>
+        <v>1.000273352590369</v>
       </c>
       <c r="F19">
-        <v>1.048261237973251</v>
+        <v>1.004822782570767</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030333099582011</v>
+        <v>1.040343853701038</v>
       </c>
       <c r="J19">
-        <v>1.023056791659635</v>
+        <v>1.00806516133924</v>
       </c>
       <c r="K19">
-        <v>1.027390800511678</v>
+        <v>1.017881717520706</v>
       </c>
       <c r="L19">
-        <v>1.047712328072383</v>
+        <v>1.014022851175828</v>
       </c>
       <c r="M19">
-        <v>1.051529432536828</v>
+        <v>1.018494685029957</v>
       </c>
       <c r="N19">
-        <v>1.011791540889294</v>
+        <v>1.006789166107588</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016559917934227</v>
+        <v>0.9788386843981105</v>
       </c>
       <c r="D20">
-        <v>1.023821649957878</v>
+        <v>1.003061626777813</v>
       </c>
       <c r="E20">
-        <v>1.044066048231519</v>
+        <v>0.9985371392240826</v>
       </c>
       <c r="F20">
-        <v>1.047888869968473</v>
+        <v>1.003024499646783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030274835695434</v>
+        <v>1.03986578308306</v>
       </c>
       <c r="J20">
-        <v>1.022889844823637</v>
+        <v>1.007210436294359</v>
       </c>
       <c r="K20">
-        <v>1.027238293620247</v>
+        <v>1.01705085395773</v>
       </c>
       <c r="L20">
-        <v>1.047411649601904</v>
+        <v>1.012605760139351</v>
       </c>
       <c r="M20">
-        <v>1.05122139508003</v>
+        <v>1.017014374543004</v>
       </c>
       <c r="N20">
-        <v>1.011736422312814</v>
+        <v>1.006506672462629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015610343200014</v>
+        <v>0.9737353762387831</v>
       </c>
       <c r="D21">
-        <v>1.023112351489183</v>
+        <v>0.9992940309975065</v>
       </c>
       <c r="E21">
-        <v>1.042879850540726</v>
+        <v>0.9927931015261228</v>
       </c>
       <c r="F21">
-        <v>1.046679127783769</v>
+        <v>0.9970712228150361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030082900051488</v>
+        <v>1.038262206677164</v>
       </c>
       <c r="J21">
-        <v>1.022346418393409</v>
+        <v>1.004373787109117</v>
       </c>
       <c r="K21">
-        <v>1.02674112200358</v>
+        <v>1.014288790532877</v>
       </c>
       <c r="L21">
-        <v>1.046434571361995</v>
+        <v>1.007912309367472</v>
       </c>
       <c r="M21">
-        <v>1.050219970600138</v>
+        <v>1.012108295032266</v>
       </c>
       <c r="N21">
-        <v>1.011556990617815</v>
+        <v>1.005569200735402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015013477143862</v>
+        <v>0.9704497808085543</v>
       </c>
       <c r="D22">
-        <v>1.022666097529316</v>
+        <v>0.9968700397318784</v>
       </c>
       <c r="E22">
-        <v>1.042135032990148</v>
+        <v>0.9891013559586511</v>
       </c>
       <c r="F22">
-        <v>1.045919179025954</v>
+        <v>0.9932420215714954</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029960298940605</v>
+        <v>1.037215010050671</v>
       </c>
       <c r="J22">
-        <v>1.022004238790188</v>
+        <v>1.002544073786584</v>
       </c>
       <c r="K22">
-        <v>1.02642749594322</v>
+        <v>1.012503757796856</v>
       </c>
       <c r="L22">
-        <v>1.045820596126081</v>
+        <v>1.004891853647781</v>
       </c>
       <c r="M22">
-        <v>1.049590365499986</v>
+        <v>1.008948554716336</v>
       </c>
       <c r="N22">
-        <v>1.011443995684468</v>
+        <v>1.004964565551731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015329870714648</v>
+        <v>0.9721990653383835</v>
       </c>
       <c r="D23">
-        <v>1.022902692166664</v>
+        <v>0.9981604164239211</v>
       </c>
       <c r="E23">
-        <v>1.042529780646611</v>
+        <v>0.9910662956087096</v>
       </c>
       <c r="F23">
-        <v>1.04632197907291</v>
+        <v>0.9952804010987926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030025474211536</v>
+        <v>1.037773919804014</v>
       </c>
       <c r="J23">
-        <v>1.02218568231273</v>
+        <v>1.003518542711165</v>
       </c>
       <c r="K23">
-        <v>1.026593852752399</v>
+        <v>1.013454745383989</v>
       </c>
       <c r="L23">
-        <v>1.046146042415228</v>
+        <v>1.00649986371542</v>
       </c>
       <c r="M23">
-        <v>1.049924127996111</v>
+        <v>1.010630943188968</v>
       </c>
       <c r="N23">
-        <v>1.011503913304248</v>
+        <v>1.005286576096039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016575840467665</v>
+        <v>0.978922988551538</v>
       </c>
       <c r="D24">
-        <v>1.023833536414996</v>
+        <v>1.00312388748426</v>
       </c>
       <c r="E24">
-        <v>1.044085951769272</v>
+        <v>0.9986321368369665</v>
       </c>
       <c r="F24">
-        <v>1.047909162669488</v>
+        <v>1.003122907972976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030278020863123</v>
+        <v>1.039892023529602</v>
       </c>
       <c r="J24">
-        <v>1.022898946796949</v>
+        <v>1.007257236793627</v>
       </c>
       <c r="K24">
-        <v>1.027246611150881</v>
+        <v>1.017096365351846</v>
       </c>
       <c r="L24">
-        <v>1.047428036388172</v>
+        <v>1.012683316342552</v>
       </c>
       <c r="M24">
-        <v>1.051238184559453</v>
+        <v>1.017095402903465</v>
       </c>
       <c r="N24">
-        <v>1.011739427448572</v>
+        <v>1.006522140196258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018022418309706</v>
+        <v>0.9864129314058293</v>
       </c>
       <c r="D25">
-        <v>1.024912416048646</v>
+        <v>1.008657322133957</v>
       </c>
       <c r="E25">
-        <v>1.045896102405686</v>
+        <v>1.007087958246801</v>
       </c>
       <c r="F25">
-        <v>1.049753871431435</v>
+        <v>1.011875316028376</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030562688279954</v>
+        <v>1.042187645229877</v>
       </c>
       <c r="J25">
-        <v>1.023724416901122</v>
+        <v>1.011406369011979</v>
       </c>
       <c r="K25">
-        <v>1.027999559686701</v>
+        <v>1.021122714596113</v>
       </c>
       <c r="L25">
-        <v>1.048917236922605</v>
+        <v>1.019577230294669</v>
       </c>
       <c r="M25">
-        <v>1.052763183856533</v>
+        <v>1.024292038189227</v>
       </c>
       <c r="N25">
-        <v>1.012011937556457</v>
+        <v>1.007893533244915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992156824720452</v>
+        <v>1.021371941700765</v>
       </c>
       <c r="D2">
-        <v>1.012901964240496</v>
+        <v>1.038320090952548</v>
       </c>
       <c r="E2">
-        <v>1.01359645160353</v>
+        <v>1.032038937503091</v>
       </c>
       <c r="F2">
-        <v>1.01860184022619</v>
+        <v>1.042456657164683</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043895036621939</v>
+        <v>1.051818781891148</v>
       </c>
       <c r="J2">
-        <v>1.014574681518208</v>
+        <v>1.04293168551574</v>
       </c>
       <c r="K2">
-        <v>1.024184433525371</v>
+        <v>1.049270183029744</v>
       </c>
       <c r="L2">
-        <v>1.024869561119663</v>
+        <v>1.043069259432152</v>
       </c>
       <c r="M2">
-        <v>1.029807964846085</v>
+        <v>1.053354570999695</v>
       </c>
       <c r="N2">
-        <v>1.008940829892905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017905933403077</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050798882281361</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045908538655884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962039605629531</v>
+        <v>1.025100582488092</v>
       </c>
       <c r="D3">
-        <v>1.015892260939112</v>
+        <v>1.040848404247633</v>
       </c>
       <c r="E3">
-        <v>1.01819681665033</v>
+        <v>1.035131624059492</v>
       </c>
       <c r="F3">
-        <v>1.02335030886201</v>
+        <v>1.045279094893588</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045066353002406</v>
+        <v>1.052731117191576</v>
       </c>
       <c r="J3">
-        <v>1.016798647103859</v>
+        <v>1.044929606893398</v>
       </c>
       <c r="K3">
-        <v>1.026325756656706</v>
+        <v>1.050983996576264</v>
       </c>
       <c r="L3">
-        <v>1.02860204194788</v>
+        <v>1.045333887943915</v>
       </c>
       <c r="M3">
-        <v>1.033692887446201</v>
+        <v>1.055363633888224</v>
       </c>
       <c r="N3">
-        <v>1.009675991880756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018595079980577</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05238889686841</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047117691795273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987686451375644</v>
+        <v>1.027471372947294</v>
       </c>
       <c r="D4">
-        <v>1.017786647319544</v>
+        <v>1.042460380484124</v>
       </c>
       <c r="E4">
-        <v>1.021119007262002</v>
+        <v>1.03710811849554</v>
       </c>
       <c r="F4">
-        <v>1.026363771830883</v>
+        <v>1.047081843093487</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045793612857151</v>
+        <v>1.053303649643408</v>
       </c>
       <c r="J4">
-        <v>1.018203901632287</v>
+        <v>1.046197539173386</v>
       </c>
       <c r="K4">
-        <v>1.027675040057842</v>
+        <v>1.052071993654986</v>
       </c>
       <c r="L4">
-        <v>1.030969054933025</v>
+        <v>1.046778396118677</v>
       </c>
       <c r="M4">
-        <v>1.03615409036156</v>
+        <v>1.05664339343821</v>
       </c>
       <c r="N4">
-        <v>1.010140518794721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019032352327533</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053401723715429</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047887870108167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998343151040133</v>
+        <v>1.028462219209088</v>
       </c>
       <c r="D5">
-        <v>1.018573607300689</v>
+        <v>1.043136993829253</v>
       </c>
       <c r="E5">
-        <v>1.022334919716229</v>
+        <v>1.037936238495243</v>
       </c>
       <c r="F5">
-        <v>1.027616985840311</v>
+        <v>1.047837375927009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04609215041413</v>
+        <v>1.053542726773972</v>
       </c>
       <c r="J5">
-        <v>1.018786802593889</v>
+        <v>1.046728581132645</v>
       </c>
       <c r="K5">
-        <v>1.028233803466909</v>
+        <v>1.052528978703251</v>
       </c>
       <c r="L5">
-        <v>1.031953017594606</v>
+        <v>1.047383712875895</v>
       </c>
       <c r="M5">
-        <v>1.037176603837031</v>
+        <v>1.057179789305582</v>
       </c>
       <c r="N5">
-        <v>1.010333203861825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01921595790641</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053826237537397</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048218082429502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000012523347007</v>
+        <v>1.028632780742866</v>
       </c>
       <c r="D6">
-        <v>1.018705195220405</v>
+        <v>1.043255809120993</v>
       </c>
       <c r="E6">
-        <v>1.022538352897789</v>
+        <v>1.03807854167677</v>
       </c>
       <c r="F6">
-        <v>1.027826620040014</v>
+        <v>1.047967746948735</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046141857691054</v>
+        <v>1.053585767488067</v>
       </c>
       <c r="J6">
-        <v>1.018884219142947</v>
+        <v>1.046822056868772</v>
       </c>
       <c r="K6">
-        <v>1.028327131325415</v>
+        <v>1.052610899483627</v>
       </c>
       <c r="L6">
-        <v>1.032117587817464</v>
+        <v>1.047488618417418</v>
       </c>
       <c r="M6">
-        <v>1.037347586061874</v>
+        <v>1.057273370059026</v>
       </c>
       <c r="N6">
-        <v>1.010365405989684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01924886672274</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053900299088995</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048284654615574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987829333332597</v>
+        <v>1.027497471485662</v>
       </c>
       <c r="D7">
-        <v>1.017797199468833</v>
+        <v>1.04248432133281</v>
       </c>
       <c r="E7">
-        <v>1.021135303137269</v>
+        <v>1.037128907482632</v>
       </c>
       <c r="F7">
-        <v>1.026380570304232</v>
+        <v>1.047102276183787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045797630053809</v>
+        <v>1.053315325786906</v>
       </c>
       <c r="J7">
-        <v>1.018211721010748</v>
+        <v>1.046217173764738</v>
       </c>
       <c r="K7">
-        <v>1.027682539307885</v>
+        <v>1.052092835103633</v>
       </c>
       <c r="L7">
-        <v>1.030982245908882</v>
+        <v>1.046796097631608</v>
       </c>
       <c r="M7">
-        <v>1.036167800543653</v>
+        <v>1.05666078434726</v>
       </c>
       <c r="N7">
-        <v>1.01014310359263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019040752039251</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053415487213106</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04792250021797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9935360335450716</v>
+        <v>1.022657048284781</v>
       </c>
       <c r="D8">
-        <v>1.013921105391719</v>
+        <v>1.039198182721105</v>
       </c>
       <c r="E8">
-        <v>1.015162761027682</v>
+        <v>1.033101655663281</v>
       </c>
       <c r="F8">
-        <v>1.020219160180684</v>
+        <v>1.043428429791527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044297322100293</v>
+        <v>1.052141474226665</v>
       </c>
       <c r="J8">
-        <v>1.01533341789543</v>
+        <v>1.043627827613846</v>
       </c>
       <c r="K8">
-        <v>1.024915751309558</v>
+        <v>1.049872130343286</v>
       </c>
       <c r="L8">
-        <v>1.02614118662878</v>
+        <v>1.043851161870195</v>
       </c>
       <c r="M8">
-        <v>1.031132041787228</v>
+        <v>1.054050593932672</v>
       </c>
       <c r="N8">
-        <v>1.009191639437384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018148186681626</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051349729837758</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046356832552507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838559552675585</v>
+        <v>1.013772445132539</v>
       </c>
       <c r="D9">
-        <v>1.00676793066104</v>
+        <v>1.0331931517966</v>
       </c>
       <c r="E9">
-        <v>1.004197565504336</v>
+        <v>1.025792587006638</v>
       </c>
       <c r="F9">
-        <v>1.008885149630039</v>
+        <v>1.036750514470643</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041412192518793</v>
+        <v>1.049919720870649</v>
       </c>
       <c r="J9">
-        <v>1.009991970777808</v>
+        <v>1.038848064124859</v>
       </c>
       <c r="K9">
-        <v>1.019752149025822</v>
+        <v>1.045769707773312</v>
       </c>
       <c r="L9">
-        <v>1.017222905272385</v>
+        <v>1.038480612558983</v>
       </c>
       <c r="M9">
-        <v>1.021835697734466</v>
+        <v>1.049274208057223</v>
       </c>
       <c r="N9">
-        <v>1.007426020696764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016497341872785</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047569586885606</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043453054888096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9770805447385061</v>
+        <v>1.007671798923212</v>
       </c>
       <c r="D10">
-        <v>1.00176334600218</v>
+        <v>1.029120830066002</v>
       </c>
       <c r="E10">
-        <v>0.9965568213712824</v>
+        <v>1.020884455300469</v>
       </c>
       <c r="F10">
-        <v>1.000972706025075</v>
+        <v>1.032280382275071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039316648860343</v>
+        <v>1.048380294700335</v>
       </c>
       <c r="J10">
-        <v>1.006233968196233</v>
+        <v>1.035584306077133</v>
       </c>
       <c r="K10">
-        <v>1.016100835513061</v>
+        <v>1.042983478586152</v>
       </c>
       <c r="L10">
-        <v>1.010988523008914</v>
+        <v>1.034886601950114</v>
       </c>
       <c r="M10">
-        <v>1.015324420145608</v>
+        <v>1.046090278817032</v>
       </c>
       <c r="N10">
-        <v>1.006183952209899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015377172854349</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045100768797612</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041499715827895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9740630862342033</v>
+        <v>1.005499585596533</v>
       </c>
       <c r="D11">
-        <v>0.9995358806765401</v>
+        <v>1.027865011230639</v>
       </c>
       <c r="E11">
-        <v>0.9931615830095016</v>
+        <v>1.019583566068027</v>
       </c>
       <c r="F11">
-        <v>0.9974532997999273</v>
+        <v>1.031248255462271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038366042808111</v>
+        <v>1.048007383618371</v>
       </c>
       <c r="J11">
-        <v>1.004556145517691</v>
+        <v>1.034645351683843</v>
       </c>
       <c r="K11">
-        <v>1.014466554918918</v>
+        <v>1.042279895028203</v>
       </c>
       <c r="L11">
-        <v>1.008213624490498</v>
+        <v>1.034145379462226</v>
       </c>
       <c r="M11">
-        <v>1.012423403496098</v>
+        <v>1.045603992680686</v>
       </c>
       <c r="N11">
-        <v>1.005629464362082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015113262217628</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045148806785249</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041034837336724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9729290319570056</v>
+        <v>1.004881532129779</v>
       </c>
       <c r="D12">
-        <v>0.9986990068553696</v>
+        <v>1.027592276780998</v>
       </c>
       <c r="E12">
-        <v>0.991886643811089</v>
+        <v>1.019419525834211</v>
       </c>
       <c r="F12">
-        <v>0.9961312230567073</v>
+        <v>1.03120900704256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038006231591487</v>
+        <v>1.047983371190233</v>
       </c>
       <c r="J12">
-        <v>1.00392497563728</v>
+        <v>1.03448072402295</v>
       </c>
       <c r="K12">
-        <v>1.013851174357513</v>
+        <v>1.042209280043835</v>
       </c>
       <c r="L12">
-        <v>1.007170951328813</v>
+        <v>1.034183901442503</v>
       </c>
       <c r="M12">
-        <v>1.011332919971247</v>
+        <v>1.045761759889692</v>
       </c>
       <c r="N12">
-        <v>1.005420884883886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015102735373681</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045597695381989</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040984911014198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9731729006128418</v>
+        <v>1.005435636283526</v>
       </c>
       <c r="D13">
-        <v>0.998878955683129</v>
+        <v>1.028076956653453</v>
       </c>
       <c r="E13">
-        <v>0.9921607597818214</v>
+        <v>1.020134721850011</v>
       </c>
       <c r="F13">
-        <v>0.9964154967853742</v>
+        <v>1.031952885383145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038083719838284</v>
+        <v>1.048241117308797</v>
       </c>
       <c r="J13">
-        <v>1.004060729481291</v>
+        <v>1.034919931975821</v>
       </c>
       <c r="K13">
-        <v>1.013983558473883</v>
+        <v>1.042643018526858</v>
       </c>
       <c r="L13">
-        <v>1.007395159715742</v>
+        <v>1.034843303906622</v>
       </c>
       <c r="M13">
-        <v>1.011567427990397</v>
+        <v>1.046450427748883</v>
       </c>
       <c r="N13">
-        <v>1.005465746284505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015295151635203</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046417125854654</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041289101554506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973969618979303</v>
+        <v>1.006355745063617</v>
       </c>
       <c r="D14">
-        <v>0.999466900583225</v>
+        <v>1.028760868442002</v>
       </c>
       <c r="E14">
-        <v>0.9930564821912428</v>
+        <v>1.02103291372475</v>
       </c>
       <c r="F14">
-        <v>0.9973443235254563</v>
+        <v>1.032828534514118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038336438987993</v>
+        <v>1.048549651274006</v>
       </c>
       <c r="J14">
-        <v>1.004504137156527</v>
+        <v>1.035501767124689</v>
       </c>
       <c r="K14">
-        <v>1.014415859455216</v>
+        <v>1.043176327094966</v>
       </c>
       <c r="L14">
-        <v>1.008127684418523</v>
+        <v>1.035585252965287</v>
       </c>
       <c r="M14">
-        <v>1.01233353125964</v>
+        <v>1.047173010023948</v>
       </c>
       <c r="N14">
-        <v>1.005612277213359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015522246778146</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047160656259924</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041667574999402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9744587288617701</v>
+        <v>1.006840337897429</v>
       </c>
       <c r="D15">
-        <v>0.9998278819870386</v>
+        <v>1.02910022739695</v>
       </c>
       <c r="E15">
-        <v>0.9936065143944006</v>
+        <v>1.021453926956994</v>
       </c>
       <c r="F15">
-        <v>0.997914616623657</v>
+        <v>1.033225859753318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03849125110618</v>
+        <v>1.048690676723635</v>
       </c>
       <c r="J15">
-        <v>1.00477627061631</v>
+        <v>1.035781909196817</v>
       </c>
       <c r="K15">
-        <v>1.014681099270077</v>
+        <v>1.043424458703031</v>
       </c>
       <c r="L15">
-        <v>1.008577413708132</v>
+        <v>1.035912540214209</v>
       </c>
       <c r="M15">
-        <v>1.012803820681475</v>
+        <v>1.047478652261772</v>
       </c>
       <c r="N15">
-        <v>1.005702209288141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015624726960462</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047439577123223</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041848829847122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772789850103064</v>
+        <v>1.009316731034865</v>
       </c>
       <c r="D16">
-        <v>1.001909867396986</v>
+        <v>1.030734420522284</v>
       </c>
       <c r="E16">
-        <v>0.9967802605396678</v>
+        <v>1.023399557596743</v>
       </c>
       <c r="F16">
-        <v>1.0012042453782</v>
+        <v>1.03499809214836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039378808369387</v>
+        <v>1.049307015410532</v>
       </c>
       <c r="J16">
-        <v>1.006344224511845</v>
+        <v>1.03708989880298</v>
       </c>
       <c r="K16">
-        <v>1.016208147379168</v>
+        <v>1.044534960732134</v>
       </c>
       <c r="L16">
-        <v>1.0111710432545</v>
+        <v>1.037323322669191</v>
       </c>
       <c r="M16">
-        <v>1.015515176869058</v>
+        <v>1.048728035820087</v>
       </c>
       <c r="N16">
-        <v>1.006220391061609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016066007594839</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048388587895024</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042637119716431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9790252022823129</v>
+        <v>1.010736178914537</v>
       </c>
       <c r="D17">
-        <v>1.003199375688082</v>
+        <v>1.031631290295178</v>
       </c>
       <c r="E17">
-        <v>0.998747320721742</v>
+        <v>1.024422297600781</v>
       </c>
       <c r="F17">
-        <v>1.003242225080375</v>
+        <v>1.035896052909703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039923827168358</v>
+        <v>1.049616245527482</v>
       </c>
       <c r="J17">
-        <v>1.007313976849561</v>
+        <v>1.037787942993766</v>
       </c>
       <c r="K17">
-        <v>1.017151539846</v>
+        <v>1.045106543273412</v>
       </c>
       <c r="L17">
-        <v>1.012777349651039</v>
+        <v>1.038015249867097</v>
       </c>
       <c r="M17">
-        <v>1.017193644164906</v>
+        <v>1.049302665217042</v>
       </c>
       <c r="N17">
-        <v>1.006540893023351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016285284906648</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048714519500907</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043043807931638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9800357165911077</v>
+        <v>1.01136654742463</v>
       </c>
       <c r="D18">
-        <v>1.003945721061681</v>
+        <v>1.031954715958638</v>
       </c>
       <c r="E18">
-        <v>0.999886358309147</v>
+        <v>1.024710262291918</v>
       </c>
       <c r="F18">
-        <v>1.004422002321297</v>
+        <v>1.036082375236914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040237572803296</v>
+        <v>1.0496783788343</v>
       </c>
       <c r="J18">
-        <v>1.007874761520682</v>
+        <v>1.038006912522823</v>
       </c>
       <c r="K18">
-        <v>1.017696692033436</v>
+        <v>1.045243759876421</v>
       </c>
       <c r="L18">
-        <v>1.013707053645032</v>
+        <v>1.038115673528972</v>
       </c>
       <c r="M18">
-        <v>1.018164840315329</v>
+        <v>1.049306048251491</v>
       </c>
       <c r="N18">
-        <v>1.006726236694928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016325163782009</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048481099950695</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043129291816401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9803789342324245</v>
+        <v>1.011306028875528</v>
       </c>
       <c r="D19">
-        <v>1.004199233339518</v>
+        <v>1.031785116000811</v>
       </c>
       <c r="E19">
-        <v>1.000273352590369</v>
+        <v>1.024348341929077</v>
       </c>
       <c r="F19">
-        <v>1.004822782570767</v>
+        <v>1.035640258797125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040343853701038</v>
+        <v>1.049534683147037</v>
       </c>
       <c r="J19">
-        <v>1.00806516133924</v>
+        <v>1.037816436573636</v>
       </c>
       <c r="K19">
-        <v>1.017881717520706</v>
+        <v>1.045015133509624</v>
       </c>
       <c r="L19">
-        <v>1.014022851175828</v>
+        <v>1.037697258748582</v>
       </c>
       <c r="M19">
-        <v>1.018494685029957</v>
+        <v>1.048809499975619</v>
       </c>
       <c r="N19">
-        <v>1.006789166107588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016216580715768</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047765435107453</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042973986595495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9788386843981105</v>
+        <v>1.00928774219039</v>
       </c>
       <c r="D20">
-        <v>1.003061626777813</v>
+        <v>1.030214052313768</v>
       </c>
       <c r="E20">
-        <v>0.9985371392240826</v>
+        <v>1.022181725486661</v>
       </c>
       <c r="F20">
-        <v>1.003024499646783</v>
+        <v>1.033466309419963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03986578308306</v>
+        <v>1.048805337348824</v>
       </c>
       <c r="J20">
-        <v>1.007210436294359</v>
+        <v>1.036465272852855</v>
       </c>
       <c r="K20">
-        <v>1.01705085395773</v>
+        <v>1.043745644860541</v>
       </c>
       <c r="L20">
-        <v>1.012605760139351</v>
+        <v>1.035845436169276</v>
       </c>
       <c r="M20">
-        <v>1.017014374543004</v>
+        <v>1.046945157633429</v>
       </c>
       <c r="N20">
-        <v>1.006506672462629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015684673072807</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045766844403203</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042080314295853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9737353762387831</v>
+        <v>1.004606896731906</v>
       </c>
       <c r="D21">
-        <v>0.9992940309975065</v>
+        <v>1.027061463312933</v>
       </c>
       <c r="E21">
-        <v>0.9927931015261228</v>
+        <v>1.018354217664204</v>
       </c>
       <c r="F21">
-        <v>0.9970712228150361</v>
+        <v>1.029947333802978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038262206677164</v>
+        <v>1.047575233212129</v>
       </c>
       <c r="J21">
-        <v>1.004373787109117</v>
+        <v>1.033913260309814</v>
       </c>
       <c r="K21">
-        <v>1.014288790532877</v>
+        <v>1.041547666202696</v>
       </c>
       <c r="L21">
-        <v>1.007912309367472</v>
+        <v>1.032996011847963</v>
       </c>
       <c r="M21">
-        <v>1.012108295032266</v>
+        <v>1.044382720722659</v>
       </c>
       <c r="N21">
-        <v>1.005569200735402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014797728816706</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043698329930675</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040529489920909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9704497808085543</v>
+        <v>1.001623645195332</v>
       </c>
       <c r="D22">
-        <v>0.9968700397318784</v>
+        <v>1.025063747413136</v>
       </c>
       <c r="E22">
-        <v>0.9891013559586511</v>
+        <v>1.015955132279431</v>
       </c>
       <c r="F22">
-        <v>0.9932420215714954</v>
+        <v>1.02774906326632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037215010050671</v>
+        <v>1.046789335092338</v>
       </c>
       <c r="J22">
-        <v>1.002544073786584</v>
+        <v>1.032292739743031</v>
       </c>
       <c r="K22">
-        <v>1.012503757796856</v>
+        <v>1.040154518261561</v>
       </c>
       <c r="L22">
-        <v>1.004891853647781</v>
+        <v>1.031217005479805</v>
       </c>
       <c r="M22">
-        <v>1.008948554716336</v>
+        <v>1.042790145696492</v>
       </c>
       <c r="N22">
-        <v>1.004964565551731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014235761243325</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042437918045879</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039531085572958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9721990653383835</v>
+        <v>1.003198273839011</v>
       </c>
       <c r="D23">
-        <v>0.9981604164239211</v>
+        <v>1.026111996859853</v>
       </c>
       <c r="E23">
-        <v>0.9910662956087096</v>
+        <v>1.017220440311134</v>
       </c>
       <c r="F23">
-        <v>0.9952804010987926</v>
+        <v>1.028907646465234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037773919804014</v>
+        <v>1.04719997897411</v>
       </c>
       <c r="J23">
-        <v>1.003518542711165</v>
+        <v>1.03314304818457</v>
       </c>
       <c r="K23">
-        <v>1.013454745383989</v>
+        <v>1.040882071498153</v>
       </c>
       <c r="L23">
-        <v>1.00649986371542</v>
+        <v>1.032153209359421</v>
       </c>
       <c r="M23">
-        <v>1.010630943188968</v>
+        <v>1.043627322300593</v>
       </c>
       <c r="N23">
-        <v>1.005286576096039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014528835374878</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043100485119739</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040035925194578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.978922988551538</v>
+        <v>1.009295517313184</v>
       </c>
       <c r="D24">
-        <v>1.00312388748426</v>
+        <v>1.030193037035448</v>
       </c>
       <c r="E24">
-        <v>0.9986321368369665</v>
+        <v>1.022146542432115</v>
       </c>
       <c r="F24">
-        <v>1.003122907972976</v>
+        <v>1.033417248426512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039892023529602</v>
+        <v>1.048782818470685</v>
       </c>
       <c r="J24">
-        <v>1.007257236793627</v>
+        <v>1.036440380367571</v>
       </c>
       <c r="K24">
-        <v>1.017096365351846</v>
+        <v>1.043709893958104</v>
       </c>
       <c r="L24">
-        <v>1.012683316342552</v>
+        <v>1.035795590488001</v>
       </c>
       <c r="M24">
-        <v>1.017095402903465</v>
+        <v>1.046881878106866</v>
       </c>
       <c r="N24">
-        <v>1.006522140196258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015668287311819</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04567623403522</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042027858341286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9864129314058293</v>
+        <v>1.016131844530208</v>
       </c>
       <c r="D25">
-        <v>1.008657322133957</v>
+        <v>1.034792932965572</v>
       </c>
       <c r="E25">
-        <v>1.007087958246801</v>
+        <v>1.02772269694814</v>
       </c>
       <c r="F25">
-        <v>1.011875316028376</v>
+        <v>1.038516844512728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042187645229877</v>
+        <v>1.050524829136612</v>
       </c>
       <c r="J25">
-        <v>1.011406369011979</v>
+        <v>1.040128242464109</v>
       </c>
       <c r="K25">
-        <v>1.021122714596113</v>
+        <v>1.046874117891027</v>
       </c>
       <c r="L25">
-        <v>1.019577230294669</v>
+        <v>1.039905373948904</v>
       </c>
       <c r="M25">
-        <v>1.024292038189227</v>
+        <v>1.050545275513642</v>
       </c>
       <c r="N25">
-        <v>1.007893533244915</v>
+        <v>1.016942367168139</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048575541130669</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044262251370783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021371941700765</v>
+        <v>1.019945335707606</v>
       </c>
       <c r="D2">
-        <v>1.038320090952548</v>
+        <v>1.036382520460096</v>
       </c>
       <c r="E2">
-        <v>1.032038937503091</v>
+        <v>1.031126063082377</v>
       </c>
       <c r="F2">
-        <v>1.042456657164683</v>
+        <v>1.04121546630919</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051818781891148</v>
+        <v>1.050916943246821</v>
       </c>
       <c r="J2">
-        <v>1.04293168551574</v>
+        <v>1.041545422013303</v>
       </c>
       <c r="K2">
-        <v>1.049270183029744</v>
+        <v>1.047357231769217</v>
       </c>
       <c r="L2">
-        <v>1.043069259432152</v>
+        <v>1.042168147009264</v>
       </c>
       <c r="M2">
-        <v>1.053354570999695</v>
+        <v>1.052128982094076</v>
       </c>
       <c r="N2">
-        <v>1.017905933403077</v>
+        <v>1.018012331223499</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050798882281361</v>
+        <v>1.049828923809591</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045908538655884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044564633320112</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024513354201177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025100582488092</v>
+        <v>1.023492015372606</v>
       </c>
       <c r="D3">
-        <v>1.040848404247633</v>
+        <v>1.038708720209609</v>
       </c>
       <c r="E3">
-        <v>1.035131624059492</v>
+        <v>1.034106050680056</v>
       </c>
       <c r="F3">
-        <v>1.045279094893588</v>
+        <v>1.043901398545964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052731117191576</v>
+        <v>1.051719823091791</v>
       </c>
       <c r="J3">
-        <v>1.044929606893398</v>
+        <v>1.043362125317256</v>
       </c>
       <c r="K3">
-        <v>1.050983996576264</v>
+        <v>1.048869160196756</v>
       </c>
       <c r="L3">
-        <v>1.045333887943915</v>
+        <v>1.044320371777077</v>
       </c>
       <c r="M3">
-        <v>1.055363633888224</v>
+        <v>1.054001754937097</v>
       </c>
       <c r="N3">
-        <v>1.018595079980577</v>
+        <v>1.01850795191505</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05238889686841</v>
+        <v>1.051311077616829</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047117691795273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045630763571601</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024825707997565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027471372947294</v>
+        <v>1.025748350686817</v>
       </c>
       <c r="D4">
-        <v>1.042460380484124</v>
+        <v>1.040192977568864</v>
       </c>
       <c r="E4">
-        <v>1.03710811849554</v>
+        <v>1.036011829319381</v>
       </c>
       <c r="F4">
-        <v>1.047081843093487</v>
+        <v>1.045618109744626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053303649643408</v>
+        <v>1.052223175533778</v>
       </c>
       <c r="J4">
-        <v>1.046197539173386</v>
+        <v>1.044515581582419</v>
       </c>
       <c r="K4">
-        <v>1.052071993654986</v>
+        <v>1.04982935251763</v>
       </c>
       <c r="L4">
-        <v>1.046778396118677</v>
+        <v>1.045694214958794</v>
       </c>
       <c r="M4">
-        <v>1.05664339343821</v>
+        <v>1.055195457523867</v>
       </c>
       <c r="N4">
-        <v>1.019032352327533</v>
+        <v>1.018822665971262</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053401723715429</v>
+        <v>1.052255798688822</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047887870108167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046310658030596</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025021753614811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028462219209088</v>
+        <v>1.026691582432823</v>
       </c>
       <c r="D5">
-        <v>1.043136993829253</v>
+        <v>1.040816399998806</v>
       </c>
       <c r="E5">
-        <v>1.037936238495243</v>
+        <v>1.036810563128526</v>
       </c>
       <c r="F5">
-        <v>1.047837375927009</v>
+        <v>1.046337830086205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053542726773972</v>
+        <v>1.052433404278697</v>
       </c>
       <c r="J5">
-        <v>1.046728581132645</v>
+        <v>1.044998896944733</v>
       </c>
       <c r="K5">
-        <v>1.052528978703251</v>
+        <v>1.05023306058177</v>
       </c>
       <c r="L5">
-        <v>1.047383712875895</v>
+        <v>1.046270137724878</v>
       </c>
       <c r="M5">
-        <v>1.057179789305582</v>
+        <v>1.055695998929994</v>
       </c>
       <c r="N5">
-        <v>1.01921595790641</v>
+        <v>1.01895490737312</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053826237537397</v>
+        <v>1.05265193722218</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048218082429502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046603912392382</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025104161840123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028632780742866</v>
+        <v>1.026853886623185</v>
       </c>
       <c r="D6">
-        <v>1.043255809120993</v>
+        <v>1.040926073822622</v>
       </c>
       <c r="E6">
-        <v>1.03807854167677</v>
+        <v>1.036947758145432</v>
       </c>
       <c r="F6">
-        <v>1.047967746948735</v>
+        <v>1.046462010241747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053585767488067</v>
+        <v>1.052471444146535</v>
       </c>
       <c r="J6">
-        <v>1.046822056868772</v>
+        <v>1.045084096976956</v>
       </c>
       <c r="K6">
-        <v>1.052610899483627</v>
+        <v>1.050305824849745</v>
       </c>
       <c r="L6">
-        <v>1.047488618417418</v>
+        <v>1.04636993412519</v>
       </c>
       <c r="M6">
-        <v>1.057273370059026</v>
+        <v>1.055783381815541</v>
       </c>
       <c r="N6">
-        <v>1.01924886672274</v>
+        <v>1.018978662000707</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053900299088995</v>
+        <v>1.052721093773469</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048284654615574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046664880633337</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025119646111149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027497471485662</v>
+        <v>1.025782125312324</v>
       </c>
       <c r="D7">
-        <v>1.04248432133281</v>
+        <v>1.040221923675666</v>
       </c>
       <c r="E7">
-        <v>1.037128907482632</v>
+        <v>1.036036371229585</v>
       </c>
       <c r="F7">
-        <v>1.047102276183787</v>
+        <v>1.045642542025557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053315325786906</v>
+        <v>1.052238454256023</v>
       </c>
       <c r="J7">
-        <v>1.046217173764738</v>
+        <v>1.04454269126671</v>
       </c>
       <c r="K7">
-        <v>1.052092835103633</v>
+        <v>1.049855134809663</v>
       </c>
       <c r="L7">
-        <v>1.046796097631608</v>
+        <v>1.045715623280734</v>
       </c>
       <c r="M7">
-        <v>1.05666078434726</v>
+        <v>1.055216798403771</v>
       </c>
       <c r="N7">
-        <v>1.019040752039251</v>
+        <v>1.018857385493976</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053415487213106</v>
+        <v>1.052272688294541</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04792250021797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046350783703103</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025029629936395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022657048284781</v>
+        <v>1.021195289562844</v>
       </c>
       <c r="D8">
-        <v>1.039198182721105</v>
+        <v>1.037210536896376</v>
       </c>
       <c r="E8">
-        <v>1.033101655663281</v>
+        <v>1.032164231277166</v>
       </c>
       <c r="F8">
-        <v>1.043428429791527</v>
+        <v>1.04215548243709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052141474226665</v>
+        <v>1.051215504372965</v>
       </c>
       <c r="J8">
-        <v>1.043627827613846</v>
+        <v>1.042206030938554</v>
       </c>
       <c r="K8">
-        <v>1.049872130343286</v>
+        <v>1.047908997335074</v>
       </c>
       <c r="L8">
-        <v>1.043851161870195</v>
+        <v>1.042925454339231</v>
       </c>
       <c r="M8">
-        <v>1.054050593932672</v>
+        <v>1.052793174062442</v>
       </c>
       <c r="N8">
-        <v>1.018148186681626</v>
+        <v>1.018273576241344</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051349729837758</v>
+        <v>1.050354580345101</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046356832552507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044979715432002</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024632614241398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013772445132539</v>
+        <v>1.012756474141497</v>
       </c>
       <c r="D9">
-        <v>1.0331931517966</v>
+        <v>1.031695018013786</v>
       </c>
       <c r="E9">
-        <v>1.025792587006638</v>
+        <v>1.025132326160171</v>
       </c>
       <c r="F9">
-        <v>1.036750514470643</v>
+        <v>1.035810104963802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049919720870649</v>
+        <v>1.04925936793983</v>
       </c>
       <c r="J9">
-        <v>1.038848064124859</v>
+        <v>1.037866672981209</v>
       </c>
       <c r="K9">
-        <v>1.045769707773312</v>
+        <v>1.0442939750595</v>
       </c>
       <c r="L9">
-        <v>1.038480612558983</v>
+        <v>1.037830396453228</v>
       </c>
       <c r="M9">
-        <v>1.049274208057223</v>
+        <v>1.048347728155408</v>
       </c>
       <c r="N9">
-        <v>1.016497341872785</v>
+        <v>1.01709843389212</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047569586885606</v>
+        <v>1.046836346898194</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043453054888096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04242027598385</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02387124627558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007671798923212</v>
+        <v>1.007006082186995</v>
       </c>
       <c r="D10">
-        <v>1.029120830066002</v>
+        <v>1.027988163469666</v>
       </c>
       <c r="E10">
-        <v>1.020884455300469</v>
+        <v>1.020438393121122</v>
       </c>
       <c r="F10">
-        <v>1.032280382275071</v>
+        <v>1.031592464071048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048380294700335</v>
+        <v>1.047922010804405</v>
       </c>
       <c r="J10">
-        <v>1.035584306077133</v>
+        <v>1.034944461272048</v>
       </c>
       <c r="K10">
-        <v>1.042983478586152</v>
+        <v>1.041869824839305</v>
       </c>
       <c r="L10">
-        <v>1.034886601950114</v>
+        <v>1.034448177720023</v>
       </c>
       <c r="M10">
-        <v>1.046090278817032</v>
+        <v>1.045413810668699</v>
       </c>
       <c r="N10">
-        <v>1.015377172854349</v>
+        <v>1.01642457057014</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045100768797612</v>
+        <v>1.044565425673864</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041499715827895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040724625772532</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023359399070042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005499585596533</v>
+        <v>1.004986586765609</v>
       </c>
       <c r="D11">
-        <v>1.027865011230639</v>
+        <v>1.026872071078028</v>
       </c>
       <c r="E11">
-        <v>1.019583566068027</v>
+        <v>1.019213028062429</v>
       </c>
       <c r="F11">
-        <v>1.031248255462271</v>
+        <v>1.030657634179644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048007383618371</v>
+        <v>1.047627849621188</v>
       </c>
       <c r="J11">
-        <v>1.034645351683843</v>
+        <v>1.034153379295762</v>
       </c>
       <c r="K11">
-        <v>1.042279895028203</v>
+        <v>1.04130440955672</v>
       </c>
       <c r="L11">
-        <v>1.034145379462226</v>
+        <v>1.033781488053335</v>
       </c>
       <c r="M11">
-        <v>1.045603992680686</v>
+        <v>1.045023660535598</v>
       </c>
       <c r="N11">
-        <v>1.015113262217628</v>
+        <v>1.016480779930053</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045148806785249</v>
+        <v>1.044689771243624</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041034837336724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040360651637313</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023295547240103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004881532129779</v>
+        <v>1.004404413034702</v>
       </c>
       <c r="D12">
-        <v>1.027592276780998</v>
+        <v>1.026628322538232</v>
       </c>
       <c r="E12">
-        <v>1.019419525834211</v>
+        <v>1.01905657831067</v>
       </c>
       <c r="F12">
-        <v>1.03120900704256</v>
+        <v>1.030637139002692</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047983371190233</v>
+        <v>1.047618518646981</v>
       </c>
       <c r="J12">
-        <v>1.03448072402295</v>
+        <v>1.034023532854816</v>
       </c>
       <c r="K12">
-        <v>1.042209280043835</v>
+        <v>1.041262549465585</v>
       </c>
       <c r="L12">
-        <v>1.034183901442503</v>
+        <v>1.033827569997953</v>
       </c>
       <c r="M12">
-        <v>1.045761759889692</v>
+        <v>1.045200012026059</v>
       </c>
       <c r="N12">
-        <v>1.015102735373681</v>
+        <v>1.016578744613887</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045597695381989</v>
+        <v>1.04515350812616</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040984911014198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040331056208125</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02332671883875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005435636283526</v>
+        <v>1.004891908318861</v>
       </c>
       <c r="D13">
-        <v>1.028076956653453</v>
+        <v>1.027048002272744</v>
       </c>
       <c r="E13">
-        <v>1.020134721850011</v>
+        <v>1.019720723594214</v>
       </c>
       <c r="F13">
-        <v>1.031952885383145</v>
+        <v>1.03133261721368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048241117308797</v>
+        <v>1.047835497305677</v>
       </c>
       <c r="J13">
-        <v>1.034919931975821</v>
+        <v>1.034398797699897</v>
       </c>
       <c r="K13">
-        <v>1.042643018526858</v>
+        <v>1.04163236698637</v>
       </c>
       <c r="L13">
-        <v>1.034843303906622</v>
+        <v>1.034436813873479</v>
       </c>
       <c r="M13">
-        <v>1.046450427748883</v>
+        <v>1.045841079938905</v>
       </c>
       <c r="N13">
-        <v>1.015295151635203</v>
+        <v>1.016684388340518</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046417125854654</v>
+        <v>1.04593541983218</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041289101554506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040589805843029</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023437903545753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006355745063617</v>
+        <v>1.00571955413222</v>
       </c>
       <c r="D14">
-        <v>1.028760868442002</v>
+        <v>1.027644481049967</v>
       </c>
       <c r="E14">
-        <v>1.02103291372475</v>
+        <v>1.020558080495051</v>
       </c>
       <c r="F14">
-        <v>1.032828534514118</v>
+        <v>1.032144712900909</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048549651274006</v>
+        <v>1.048090973840966</v>
       </c>
       <c r="J14">
-        <v>1.035501767124689</v>
+        <v>1.034891630620599</v>
       </c>
       <c r="K14">
-        <v>1.043176327094966</v>
+        <v>1.042079548697678</v>
       </c>
       <c r="L14">
-        <v>1.035585252965287</v>
+        <v>1.035118917971134</v>
       </c>
       <c r="M14">
-        <v>1.047173010023948</v>
+        <v>1.046501070852693</v>
       </c>
       <c r="N14">
-        <v>1.015522246778146</v>
+        <v>1.016763656042517</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047160656259924</v>
+        <v>1.046629541062003</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041667574999402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040907518406419</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023552726699436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006840337897429</v>
+        <v>1.006159740843523</v>
       </c>
       <c r="D15">
-        <v>1.02910022739695</v>
+        <v>1.027942306277521</v>
       </c>
       <c r="E15">
-        <v>1.021453926956994</v>
+        <v>1.020952152210763</v>
       </c>
       <c r="F15">
-        <v>1.033225859753318</v>
+        <v>1.032512239081574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048690676723635</v>
+        <v>1.048207289686445</v>
       </c>
       <c r="J15">
-        <v>1.035781909196817</v>
+        <v>1.035128941197694</v>
       </c>
       <c r="K15">
-        <v>1.043424458703031</v>
+        <v>1.042286721426988</v>
       </c>
       <c r="L15">
-        <v>1.035912540214209</v>
+        <v>1.035419675373144</v>
       </c>
       <c r="M15">
-        <v>1.047478652261772</v>
+        <v>1.046777335719525</v>
       </c>
       <c r="N15">
-        <v>1.015624726960462</v>
+        <v>1.016789947959136</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047439577123223</v>
+        <v>1.046885255882755</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041848829847122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041060383048451</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023600986511324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009316731034865</v>
+        <v>1.008438217766443</v>
       </c>
       <c r="D16">
-        <v>1.030734420522284</v>
+        <v>1.029390563546938</v>
       </c>
       <c r="E16">
-        <v>1.023399557596743</v>
+        <v>1.022787065963672</v>
       </c>
       <c r="F16">
-        <v>1.03499809214836</v>
+        <v>1.034153484350848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049307015410532</v>
+        <v>1.048716309403547</v>
       </c>
       <c r="J16">
-        <v>1.03708989880298</v>
+        <v>1.036245271952676</v>
       </c>
       <c r="K16">
-        <v>1.044534960732134</v>
+        <v>1.043213511097153</v>
       </c>
       <c r="L16">
-        <v>1.037323322669191</v>
+        <v>1.036721224042103</v>
       </c>
       <c r="M16">
-        <v>1.048728035820087</v>
+        <v>1.047897353280119</v>
       </c>
       <c r="N16">
-        <v>1.016066007594839</v>
+        <v>1.016878904025293</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048388587895024</v>
+        <v>1.047731997000255</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042637119716431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041719082322465</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023789510799824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010736178914537</v>
+        <v>1.009765046229374</v>
       </c>
       <c r="D17">
-        <v>1.031631290295178</v>
+        <v>1.03019798389856</v>
       </c>
       <c r="E17">
-        <v>1.024422297600781</v>
+        <v>1.023761128760581</v>
       </c>
       <c r="F17">
-        <v>1.035896052909703</v>
+        <v>1.034989719818442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049616245527482</v>
+        <v>1.048975848830299</v>
       </c>
       <c r="J17">
-        <v>1.037787942993766</v>
+        <v>1.036853071957104</v>
       </c>
       <c r="K17">
-        <v>1.045106543273412</v>
+        <v>1.043696469583411</v>
       </c>
       <c r="L17">
-        <v>1.038015249867097</v>
+        <v>1.03736498252741</v>
       </c>
       <c r="M17">
-        <v>1.049302665217042</v>
+        <v>1.048410858701424</v>
       </c>
       <c r="N17">
-        <v>1.016285284906648</v>
+        <v>1.016935289506622</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048714519500907</v>
+        <v>1.048009545210193</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043043807931638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042063358652143</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023875227673197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01136654742463</v>
+        <v>1.01037290272858</v>
       </c>
       <c r="D18">
-        <v>1.031954715958638</v>
+        <v>1.030498856347388</v>
       </c>
       <c r="E18">
-        <v>1.024710262291918</v>
+        <v>1.024043328142727</v>
       </c>
       <c r="F18">
-        <v>1.036082375236914</v>
+        <v>1.035161973849676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0496783788343</v>
+        <v>1.049027763186942</v>
       </c>
       <c r="J18">
-        <v>1.038006912522823</v>
+        <v>1.037049681803412</v>
       </c>
       <c r="K18">
-        <v>1.045243759876421</v>
+        <v>1.043811117269126</v>
       </c>
       <c r="L18">
-        <v>1.038115673528972</v>
+        <v>1.037459558603476</v>
       </c>
       <c r="M18">
-        <v>1.049306048251491</v>
+        <v>1.048400165700637</v>
       </c>
       <c r="N18">
-        <v>1.016325163782009</v>
+        <v>1.016923609388952</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048481099950695</v>
+        <v>1.047764851082357</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043129291816401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042131750085912</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023870436985853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011306028875528</v>
+        <v>1.010343229887327</v>
       </c>
       <c r="D19">
-        <v>1.031785116000811</v>
+        <v>1.030359810484782</v>
       </c>
       <c r="E19">
-        <v>1.024348341929077</v>
+        <v>1.023708883887632</v>
       </c>
       <c r="F19">
-        <v>1.035640258797125</v>
+        <v>1.034743115422727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049534683147037</v>
+        <v>1.048904399256675</v>
       </c>
       <c r="J19">
-        <v>1.037816436573636</v>
+        <v>1.036888719835974</v>
       </c>
       <c r="K19">
-        <v>1.045015133509624</v>
+        <v>1.043612445469077</v>
       </c>
       <c r="L19">
-        <v>1.037697258748582</v>
+        <v>1.037068127907588</v>
       </c>
       <c r="M19">
-        <v>1.048809499975619</v>
+        <v>1.04792644833067</v>
       </c>
       <c r="N19">
-        <v>1.016216580715768</v>
+        <v>1.016839329260235</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047765435107453</v>
+        <v>1.047067012942647</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042973986595495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041998249648329</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023791549242244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00928774219039</v>
+        <v>1.008502212149972</v>
       </c>
       <c r="D20">
-        <v>1.030214052313768</v>
+        <v>1.028965674145417</v>
       </c>
       <c r="E20">
-        <v>1.022181725486661</v>
+        <v>1.021663467259341</v>
       </c>
       <c r="F20">
-        <v>1.033466309419963</v>
+        <v>1.032696113345689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048805337348824</v>
+        <v>1.04827996721844</v>
       </c>
       <c r="J20">
-        <v>1.036465272852855</v>
+        <v>1.035709276788229</v>
       </c>
       <c r="K20">
-        <v>1.043745644860541</v>
+        <v>1.042517626401157</v>
       </c>
       <c r="L20">
-        <v>1.035845436169276</v>
+        <v>1.035335794291877</v>
       </c>
       <c r="M20">
-        <v>1.046945157633429</v>
+        <v>1.046187413873354</v>
       </c>
       <c r="N20">
-        <v>1.015684673072807</v>
+        <v>1.01653586722651</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045766844403203</v>
+        <v>1.04516717436492</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042080314295853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041228466051759</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023499529182065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004606896731906</v>
+        <v>1.004224330828783</v>
       </c>
       <c r="D21">
-        <v>1.027061463312933</v>
+        <v>1.026190918001621</v>
       </c>
       <c r="E21">
-        <v>1.018354217664204</v>
+        <v>1.018079510218036</v>
       </c>
       <c r="F21">
-        <v>1.029947333802978</v>
+        <v>1.029448585229149</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047575233212129</v>
+        <v>1.047273122212247</v>
       </c>
       <c r="J21">
-        <v>1.033913260309814</v>
+        <v>1.033546490128471</v>
       </c>
       <c r="K21">
-        <v>1.041547666202696</v>
+        <v>1.040692522714398</v>
       </c>
       <c r="L21">
-        <v>1.032996011847963</v>
+        <v>1.032726269509517</v>
       </c>
       <c r="M21">
-        <v>1.044382720722659</v>
+        <v>1.043892727991489</v>
       </c>
       <c r="N21">
-        <v>1.014797728816706</v>
+        <v>1.016366379219642</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043698329930675</v>
+        <v>1.0433105351446</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040529489920909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039941604753607</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023112035457439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001623645195332</v>
+        <v>1.001496180303013</v>
       </c>
       <c r="D22">
-        <v>1.025063747413136</v>
+        <v>1.024432676776074</v>
       </c>
       <c r="E22">
-        <v>1.015955132279431</v>
+        <v>1.015837077848837</v>
       </c>
       <c r="F22">
-        <v>1.02774906326632</v>
+        <v>1.027422867276478</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046789335092338</v>
+        <v>1.046628902373705</v>
       </c>
       <c r="J22">
-        <v>1.032292739743031</v>
+        <v>1.032170844540809</v>
       </c>
       <c r="K22">
-        <v>1.040154518261561</v>
+        <v>1.039535174112024</v>
       </c>
       <c r="L22">
-        <v>1.031217005479805</v>
+        <v>1.03110119500513</v>
       </c>
       <c r="M22">
-        <v>1.042790145696492</v>
+        <v>1.042469967492931</v>
       </c>
       <c r="N22">
-        <v>1.014235761243325</v>
+        <v>1.016252728680323</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042437918045879</v>
+        <v>1.042184519099727</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039531085572958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039108620374255</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02286574906776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003198273839011</v>
+        <v>1.002921283882547</v>
       </c>
       <c r="D23">
-        <v>1.026111996859853</v>
+        <v>1.025343657387368</v>
       </c>
       <c r="E23">
-        <v>1.017220440311134</v>
+        <v>1.017010936377798</v>
       </c>
       <c r="F23">
-        <v>1.028907646465234</v>
+        <v>1.028481841558572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04719997897411</v>
+        <v>1.046957193147013</v>
       </c>
       <c r="J23">
-        <v>1.03314304818457</v>
+        <v>1.032877806382239</v>
       </c>
       <c r="K23">
-        <v>1.040882071498153</v>
+        <v>1.040127645950205</v>
       </c>
       <c r="L23">
-        <v>1.032153209359421</v>
+        <v>1.031947583579765</v>
       </c>
       <c r="M23">
-        <v>1.043627322300593</v>
+        <v>1.043209170642087</v>
       </c>
       <c r="N23">
-        <v>1.014528835374878</v>
+        <v>1.016265212517546</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043100485119739</v>
+        <v>1.042769547231318</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040035925194578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039517009987079</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022988783923168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009295517313184</v>
+        <v>1.008512749545887</v>
       </c>
       <c r="D24">
-        <v>1.030193037035448</v>
+        <v>1.028947257400323</v>
       </c>
       <c r="E24">
-        <v>1.022146542432115</v>
+        <v>1.021631320402911</v>
       </c>
       <c r="F24">
-        <v>1.033417248426512</v>
+        <v>1.032649309314344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048782818470685</v>
+        <v>1.048259461841644</v>
       </c>
       <c r="J24">
-        <v>1.036440380367571</v>
+        <v>1.035687000737145</v>
       </c>
       <c r="K24">
-        <v>1.043709893958104</v>
+        <v>1.042484406677902</v>
       </c>
       <c r="L24">
-        <v>1.035795590488001</v>
+        <v>1.035288924081309</v>
       </c>
       <c r="M24">
-        <v>1.046881878106866</v>
+        <v>1.046126340439709</v>
       </c>
       <c r="N24">
-        <v>1.015668287311819</v>
+        <v>1.016520393067159</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04567623403522</v>
+        <v>1.045078280639305</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042027858341286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041175126119651</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023485116897327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016131844530208</v>
+        <v>1.014984491817778</v>
       </c>
       <c r="D25">
-        <v>1.034792932965572</v>
+        <v>1.033155954034578</v>
       </c>
       <c r="E25">
-        <v>1.02772269694814</v>
+        <v>1.026981407578269</v>
       </c>
       <c r="F25">
-        <v>1.038516844512728</v>
+        <v>1.037480772904221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050524829136612</v>
+        <v>1.049787675928112</v>
       </c>
       <c r="J25">
-        <v>1.040128242464109</v>
+        <v>1.039017881189176</v>
       </c>
       <c r="K25">
-        <v>1.046874117891027</v>
+        <v>1.045260481120163</v>
       </c>
       <c r="L25">
-        <v>1.039905373948904</v>
+        <v>1.039174828274744</v>
       </c>
       <c r="M25">
-        <v>1.050545275513642</v>
+        <v>1.049523833105112</v>
       </c>
       <c r="N25">
-        <v>1.016942367168139</v>
+        <v>1.017381444586442</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048575541130669</v>
+        <v>1.047767146434769</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044262251370783</v>
+        <v>1.043134773175721</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024078715630545</v>
       </c>
     </row>
   </sheetData>
